--- a/Project/test case.xlsx
+++ b/Project/test case.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mansu\OneDrive\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7500"/>
   </bookViews>
   <sheets>
     <sheet name="Test case standarduser" sheetId="1" r:id="rId1"/>
@@ -17,9 +12,9 @@
     <sheet name="Testcase lockeduser" sheetId="7" r:id="rId3"/>
     <sheet name="Testcase performanceglitchuser" sheetId="6" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -27,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1239" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1240" uniqueCount="208">
   <si>
     <t xml:space="preserve">Test Case Id </t>
   </si>
@@ -858,12 +853,19 @@
   <si>
     <t>Not open to next finish page and not to add last name value in last name</t>
   </si>
+  <si>
+    <t>1)https://www.saucedemo.com/
+2)press enter key
+3)click on login button
+4)click on side menu
+5)click on about menu</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1081,7 +1083,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1116,7 +1118,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1293,21 +1295,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I824"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="C59" sqref="C59"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="21.140625" defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="26.28515625" style="1" customWidth="1"/>
     <col min="2" max="2" width="28.42578125" style="1" customWidth="1"/>
@@ -1318,7 +1320,7 @@
     <col min="7" max="16384" width="21.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="3" customFormat="1" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" s="3" customFormat="1" ht="46.5">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1347,7 +1349,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="93" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="93">
       <c r="A2" s="5">
         <f>ROW(1:1)</f>
         <v>1</v>
@@ -1377,8 +1379,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="2" customFormat="1" ht="139.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="5">
+    <row r="3" spans="1:9" s="2" customFormat="1" ht="139.5">
+      <c r="A3" s="6">
         <f t="shared" ref="A3:A25" si="0">ROW(2:2)</f>
         <v>2</v>
       </c>
@@ -1407,8 +1409,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="2" customFormat="1" ht="116.25" x14ac:dyDescent="0.35">
-      <c r="A4" s="5">
+    <row r="4" spans="1:9" s="2" customFormat="1" ht="116.25">
+      <c r="A4" s="6">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -1437,8 +1439,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="2" customFormat="1" ht="186" x14ac:dyDescent="0.35">
-      <c r="A5" s="5">
+    <row r="5" spans="1:9" s="2" customFormat="1" ht="186">
+      <c r="A5" s="6">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -1467,8 +1469,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="2" customFormat="1" ht="139.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="5">
+    <row r="6" spans="1:9" s="2" customFormat="1" ht="139.5">
+      <c r="A6" s="6">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -1497,8 +1499,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="2" customFormat="1" ht="139.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="5">
+    <row r="7" spans="1:9" s="2" customFormat="1" ht="139.5">
+      <c r="A7" s="6">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
@@ -1527,8 +1529,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="2" customFormat="1" ht="139.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="5">
+    <row r="8" spans="1:9" s="2" customFormat="1" ht="139.5">
+      <c r="A8" s="6">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
@@ -1557,8 +1559,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="2" customFormat="1" ht="139.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="5">
+    <row r="9" spans="1:9" s="2" customFormat="1" ht="139.5">
+      <c r="A9" s="6">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
@@ -1587,8 +1589,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="2" customFormat="1" ht="116.25" x14ac:dyDescent="0.35">
-      <c r="A10" s="5">
+    <row r="10" spans="1:9" s="2" customFormat="1" ht="116.25">
+      <c r="A10" s="6">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
@@ -1617,8 +1619,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="2" customFormat="1" ht="116.25" x14ac:dyDescent="0.35">
-      <c r="A11" s="5">
+    <row r="11" spans="1:9" s="2" customFormat="1" ht="116.25">
+      <c r="A11" s="6">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
@@ -1647,8 +1649,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:9" s="2" customFormat="1" ht="116.25" x14ac:dyDescent="0.35">
-      <c r="A12" s="5">
+    <row r="12" spans="1:9" s="2" customFormat="1" ht="116.25">
+      <c r="A12" s="6">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
@@ -1677,8 +1679,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:9" s="2" customFormat="1" ht="116.25" x14ac:dyDescent="0.35">
-      <c r="A13" s="5">
+    <row r="13" spans="1:9" s="2" customFormat="1" ht="116.25">
+      <c r="A13" s="6">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
@@ -1707,8 +1709,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:9" s="2" customFormat="1" ht="116.25" x14ac:dyDescent="0.35">
-      <c r="A14" s="5">
+    <row r="14" spans="1:9" s="2" customFormat="1" ht="116.25">
+      <c r="A14" s="6">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
@@ -1737,8 +1739,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:9" s="2" customFormat="1" ht="116.25" x14ac:dyDescent="0.35">
-      <c r="A15" s="5">
+    <row r="15" spans="1:9" s="2" customFormat="1" ht="116.25">
+      <c r="A15" s="6">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
@@ -1767,8 +1769,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:9" s="2" customFormat="1" ht="116.25" x14ac:dyDescent="0.35">
-      <c r="A16" s="5">
+    <row r="16" spans="1:9" s="2" customFormat="1" ht="116.25">
+      <c r="A16" s="6">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
@@ -1797,8 +1799,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:9" s="2" customFormat="1" ht="116.25" x14ac:dyDescent="0.35">
-      <c r="A17" s="5">
+    <row r="17" spans="1:9" s="2" customFormat="1" ht="116.25">
+      <c r="A17" s="6">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
@@ -1827,8 +1829,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:9" s="2" customFormat="1" ht="116.25" x14ac:dyDescent="0.35">
-      <c r="A18" s="5">
+    <row r="18" spans="1:9" s="2" customFormat="1" ht="116.25">
+      <c r="A18" s="6">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
@@ -1857,8 +1859,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:9" s="2" customFormat="1" ht="116.25" x14ac:dyDescent="0.35">
-      <c r="A19" s="5">
+    <row r="19" spans="1:9" s="2" customFormat="1" ht="116.25">
+      <c r="A19" s="6">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
@@ -1887,8 +1889,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:9" s="2" customFormat="1" ht="116.25" x14ac:dyDescent="0.35">
-      <c r="A20" s="5">
+    <row r="20" spans="1:9" s="2" customFormat="1" ht="116.25">
+      <c r="A20" s="6">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
@@ -1917,8 +1919,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:9" s="2" customFormat="1" ht="116.25" x14ac:dyDescent="0.35">
-      <c r="A21" s="5">
+    <row r="21" spans="1:9" s="2" customFormat="1" ht="116.25">
+      <c r="A21" s="6">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
@@ -1947,7 +1949,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="116.25" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" ht="116.25">
       <c r="A22" s="5">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1977,7 +1979,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:9" s="2" customFormat="1" ht="139.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" s="2" customFormat="1" ht="139.5">
       <c r="A23" s="6">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -2007,8 +2009,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="93" x14ac:dyDescent="0.35">
-      <c r="A24" s="5">
+    <row r="24" spans="1:9" ht="139.5">
+      <c r="A24" s="6">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
@@ -2021,6 +2023,9 @@
       <c r="D24" s="6" t="s">
         <v>7</v>
       </c>
+      <c r="E24" s="6" t="s">
+        <v>207</v>
+      </c>
       <c r="F24" s="6" t="s">
         <v>9</v>
       </c>
@@ -2034,8 +2039,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="162.75" x14ac:dyDescent="0.35">
-      <c r="A25" s="5">
+    <row r="25" spans="1:9" ht="162.75">
+      <c r="A25" s="6">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
@@ -2064,7 +2069,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="139.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" ht="139.5">
       <c r="A26" s="5">
         <f t="shared" ref="A26:A33" si="1">ROW(25:25)</f>
         <v>25</v>
@@ -2094,7 +2099,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="116.25" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" ht="116.25">
       <c r="A27" s="5">
         <f t="shared" si="1"/>
         <v>26</v>
@@ -2124,7 +2129,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="162.75" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" ht="162.75">
       <c r="A28" s="5">
         <f t="shared" si="1"/>
         <v>27</v>
@@ -2154,7 +2159,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="186" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" ht="186">
       <c r="A29" s="5">
         <f t="shared" si="1"/>
         <v>28</v>
@@ -2184,7 +2189,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="186" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" ht="186">
       <c r="A30" s="5">
         <f t="shared" si="1"/>
         <v>29</v>
@@ -2214,7 +2219,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="209.25" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" ht="209.25">
       <c r="A31" s="5">
         <f t="shared" si="1"/>
         <v>30</v>
@@ -2244,7 +2249,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="232.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" ht="232.5">
       <c r="A32" s="5">
         <f t="shared" si="1"/>
         <v>31</v>
@@ -2274,7 +2279,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="232.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" ht="232.5">
       <c r="A33" s="5">
         <f t="shared" si="1"/>
         <v>32</v>
@@ -2304,7 +2309,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="186" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" ht="186">
       <c r="A34" s="5">
         <f t="shared" ref="A34" si="2">ROW(33:33)</f>
         <v>33</v>
@@ -2334,7 +2339,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" ht="46.5">
       <c r="A35" s="5">
         <v>34</v>
       </c>
@@ -2351,7 +2356,7 @@
       <c r="H35" s="9"/>
       <c r="I35" s="9"/>
     </row>
-    <row r="36" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" ht="23.25">
       <c r="A36" s="5">
         <f t="shared" ref="A36:A43" si="3">ROW(35:35)</f>
         <v>35</v>
@@ -2369,7 +2374,7 @@
       <c r="H36" s="9"/>
       <c r="I36" s="9"/>
     </row>
-    <row r="37" spans="1:9" ht="232.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" ht="232.5">
       <c r="A37" s="5">
         <f t="shared" si="3"/>
         <v>36</v>
@@ -2399,7 +2404,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="232.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" ht="232.5">
       <c r="A38" s="5">
         <f t="shared" si="3"/>
         <v>37</v>
@@ -2429,7 +2434,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="255.75" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" ht="255.75">
       <c r="A39" s="5">
         <f t="shared" si="3"/>
         <v>38</v>
@@ -2459,7 +2464,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:9" s="2" customFormat="1" ht="255.75" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" s="2" customFormat="1" ht="255.75">
       <c r="A40" s="6">
         <f t="shared" si="3"/>
         <v>39</v>
@@ -2489,7 +2494,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="1:9" s="2" customFormat="1" ht="255.75" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9" s="2" customFormat="1" ht="255.75">
       <c r="A41" s="6">
         <f t="shared" si="3"/>
         <v>40</v>
@@ -2519,7 +2524,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="42" spans="1:9" s="2" customFormat="1" ht="255.75" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9" s="2" customFormat="1" ht="255.75">
       <c r="A42" s="6">
         <f t="shared" si="3"/>
         <v>41</v>
@@ -2549,7 +2554,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:9" s="2" customFormat="1" ht="255.75" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:9" s="2" customFormat="1" ht="255.75">
       <c r="A43" s="6">
         <f t="shared" si="3"/>
         <v>42</v>
@@ -2579,7 +2584,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="1:9" s="2" customFormat="1" ht="255.75" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:9" s="2" customFormat="1" ht="255.75">
       <c r="A44" s="6">
         <v>43</v>
       </c>
@@ -2608,7 +2613,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="45" spans="1:9" s="2" customFormat="1" ht="255.75" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:9" s="2" customFormat="1" ht="255.75">
       <c r="A45" s="6">
         <v>44</v>
       </c>
@@ -2637,7 +2642,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="46" spans="1:9" s="2" customFormat="1" ht="255.75" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:9" s="2" customFormat="1" ht="255.75">
       <c r="A46" s="6">
         <v>45</v>
       </c>
@@ -2666,7 +2671,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="47" spans="1:9" s="2" customFormat="1" ht="255.75" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:9" s="2" customFormat="1" ht="255.75">
       <c r="A47" s="6">
         <v>46</v>
       </c>
@@ -2695,7 +2700,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="48" spans="1:9" s="2" customFormat="1" ht="255.75" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:9" s="2" customFormat="1" ht="255.75">
       <c r="A48" s="6">
         <v>47</v>
       </c>
@@ -2724,7 +2729,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="49" spans="1:9" s="2" customFormat="1" ht="255.75" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:9" s="2" customFormat="1" ht="255.75">
       <c r="A49" s="6">
         <v>48</v>
       </c>
@@ -2753,7 +2758,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="50" spans="1:9" s="2" customFormat="1" ht="255.75" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:9" s="2" customFormat="1" ht="255.75">
       <c r="A50" s="6">
         <v>49</v>
       </c>
@@ -2782,7 +2787,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="51" spans="1:9" s="2" customFormat="1" ht="348.75" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:9" s="2" customFormat="1" ht="348.75">
       <c r="A51" s="6">
         <v>50</v>
       </c>
@@ -2811,7 +2816,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="52" spans="1:9" s="2" customFormat="1" ht="255.75" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:9" s="2" customFormat="1" ht="255.75">
       <c r="A52" s="6">
         <v>51</v>
       </c>
@@ -2840,7 +2845,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="53" spans="1:9" s="2" customFormat="1" ht="255.75" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:9" s="2" customFormat="1" ht="255.75">
       <c r="A53" s="6">
         <v>52</v>
       </c>
@@ -2869,7 +2874,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:9" ht="23.25">
       <c r="A54" s="5">
         <f t="shared" ref="A54" si="4">ROW(53:53)</f>
         <v>53</v>
@@ -2887,7 +2892,7 @@
       <c r="H54" s="9"/>
       <c r="I54" s="9"/>
     </row>
-    <row r="55" spans="1:9" s="11" customFormat="1" ht="279" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:9" s="11" customFormat="1" ht="279">
       <c r="A55" s="10">
         <v>54</v>
       </c>
@@ -2916,7 +2921,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="56" spans="1:9" s="11" customFormat="1" ht="302.25" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:9" s="11" customFormat="1" ht="302.25">
       <c r="A56" s="10">
         <v>55</v>
       </c>
@@ -2945,7 +2950,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="57" spans="1:9" s="11" customFormat="1" ht="325.5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:9" s="11" customFormat="1" ht="325.5">
       <c r="A57" s="10">
         <v>57</v>
       </c>
@@ -2974,7 +2979,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="139.5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:9" ht="139.5">
       <c r="A58" s="5">
         <v>58</v>
       </c>
@@ -3003,7 +3008,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:9" ht="23.25">
       <c r="A59" s="5"/>
       <c r="B59" s="9"/>
       <c r="C59" s="9"/>
@@ -3014,7 +3019,7 @@
       <c r="H59" s="9"/>
       <c r="I59" s="9"/>
     </row>
-    <row r="60" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:9" ht="23.25">
       <c r="A60" s="5">
         <f t="shared" ref="A60:A71" si="5">ROW(59:59)</f>
         <v>59</v>
@@ -3028,7 +3033,7 @@
       <c r="H60" s="9"/>
       <c r="I60" s="9"/>
     </row>
-    <row r="61" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:9" ht="23.25">
       <c r="A61" s="5">
         <f t="shared" si="5"/>
         <v>60</v>
@@ -3042,7 +3047,7 @@
       <c r="H61" s="9"/>
       <c r="I61" s="9"/>
     </row>
-    <row r="62" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:9" ht="23.25">
       <c r="A62" s="5">
         <f t="shared" si="5"/>
         <v>61</v>
@@ -3056,7 +3061,7 @@
       <c r="H62" s="9"/>
       <c r="I62" s="9"/>
     </row>
-    <row r="63" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:9" ht="23.25">
       <c r="A63" s="5">
         <f t="shared" si="5"/>
         <v>62</v>
@@ -3070,7 +3075,7 @@
       <c r="H63" s="9"/>
       <c r="I63" s="9"/>
     </row>
-    <row r="64" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:9" ht="23.25">
       <c r="A64" s="5">
         <f t="shared" si="5"/>
         <v>63</v>
@@ -3084,7 +3089,7 @@
       <c r="H64" s="9"/>
       <c r="I64" s="9"/>
     </row>
-    <row r="65" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:9" ht="23.25">
       <c r="A65" s="5">
         <f t="shared" si="5"/>
         <v>64</v>
@@ -3098,7 +3103,7 @@
       <c r="H65" s="9"/>
       <c r="I65" s="9"/>
     </row>
-    <row r="66" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:9" ht="23.25">
       <c r="A66" s="5">
         <f t="shared" si="5"/>
         <v>65</v>
@@ -3112,7 +3117,7 @@
       <c r="H66" s="9"/>
       <c r="I66" s="9"/>
     </row>
-    <row r="67" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:9" ht="23.25">
       <c r="A67" s="5">
         <f t="shared" si="5"/>
         <v>66</v>
@@ -3126,7 +3131,7 @@
       <c r="H67" s="9"/>
       <c r="I67" s="9"/>
     </row>
-    <row r="68" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:9" ht="23.25">
       <c r="A68" s="5">
         <f t="shared" si="5"/>
         <v>67</v>
@@ -3140,7 +3145,7 @@
       <c r="H68" s="9"/>
       <c r="I68" s="9"/>
     </row>
-    <row r="69" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:9" ht="23.25">
       <c r="A69" s="5">
         <f t="shared" si="5"/>
         <v>68</v>
@@ -3154,7 +3159,7 @@
       <c r="H69" s="9"/>
       <c r="I69" s="9"/>
     </row>
-    <row r="70" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:9" ht="23.25">
       <c r="A70" s="5">
         <f t="shared" si="5"/>
         <v>69</v>
@@ -3168,7 +3173,7 @@
       <c r="H70" s="9"/>
       <c r="I70" s="9"/>
     </row>
-    <row r="71" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:9" ht="23.25">
       <c r="A71" s="5">
         <f t="shared" si="5"/>
         <v>70</v>
@@ -3182,7 +3187,7 @@
       <c r="H71" s="9"/>
       <c r="I71" s="9"/>
     </row>
-    <row r="72" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:9" ht="23.25">
       <c r="A72" s="5">
         <f t="shared" ref="A72:A135" si="6">ROW(71:71)</f>
         <v>71</v>
@@ -3196,7 +3201,7 @@
       <c r="H72" s="9"/>
       <c r="I72" s="9"/>
     </row>
-    <row r="73" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:9" ht="23.25">
       <c r="A73" s="5">
         <f t="shared" si="6"/>
         <v>72</v>
@@ -3210,7 +3215,7 @@
       <c r="H73" s="9"/>
       <c r="I73" s="9"/>
     </row>
-    <row r="74" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:9" ht="23.25">
       <c r="A74" s="5">
         <f t="shared" si="6"/>
         <v>73</v>
@@ -3224,7 +3229,7 @@
       <c r="H74" s="9"/>
       <c r="I74" s="9"/>
     </row>
-    <row r="75" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:9" ht="23.25">
       <c r="A75" s="5">
         <f t="shared" si="6"/>
         <v>74</v>
@@ -3238,7 +3243,7 @@
       <c r="H75" s="9"/>
       <c r="I75" s="9"/>
     </row>
-    <row r="76" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:9" ht="23.25">
       <c r="A76" s="5">
         <f t="shared" si="6"/>
         <v>75</v>
@@ -3252,7 +3257,7 @@
       <c r="H76" s="9"/>
       <c r="I76" s="9"/>
     </row>
-    <row r="77" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:9" ht="23.25">
       <c r="A77" s="5">
         <f t="shared" si="6"/>
         <v>76</v>
@@ -3266,7 +3271,7 @@
       <c r="H77" s="9"/>
       <c r="I77" s="9"/>
     </row>
-    <row r="78" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:9" ht="23.25">
       <c r="A78" s="5">
         <f t="shared" si="6"/>
         <v>77</v>
@@ -3280,7 +3285,7 @@
       <c r="H78" s="9"/>
       <c r="I78" s="9"/>
     </row>
-    <row r="79" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:9" ht="23.25">
       <c r="A79" s="5">
         <f t="shared" si="6"/>
         <v>78</v>
@@ -3294,7 +3299,7 @@
       <c r="H79" s="9"/>
       <c r="I79" s="9"/>
     </row>
-    <row r="80" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:9" ht="23.25">
       <c r="A80" s="5">
         <f t="shared" si="6"/>
         <v>79</v>
@@ -3308,7 +3313,7 @@
       <c r="H80" s="9"/>
       <c r="I80" s="9"/>
     </row>
-    <row r="81" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:9" ht="23.25">
       <c r="A81" s="5">
         <f t="shared" si="6"/>
         <v>80</v>
@@ -3322,7 +3327,7 @@
       <c r="H81" s="9"/>
       <c r="I81" s="9"/>
     </row>
-    <row r="82" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:9" ht="23.25">
       <c r="A82" s="5">
         <f t="shared" si="6"/>
         <v>81</v>
@@ -3336,7 +3341,7 @@
       <c r="H82" s="9"/>
       <c r="I82" s="9"/>
     </row>
-    <row r="83" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:9" ht="23.25">
       <c r="A83" s="5">
         <f t="shared" si="6"/>
         <v>82</v>
@@ -3350,7 +3355,7 @@
       <c r="H83" s="9"/>
       <c r="I83" s="9"/>
     </row>
-    <row r="84" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:9" ht="23.25">
       <c r="A84" s="5">
         <f t="shared" si="6"/>
         <v>83</v>
@@ -3364,7 +3369,7 @@
       <c r="H84" s="9"/>
       <c r="I84" s="9"/>
     </row>
-    <row r="85" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:9" ht="23.25">
       <c r="A85" s="5">
         <f t="shared" si="6"/>
         <v>84</v>
@@ -3378,7 +3383,7 @@
       <c r="H85" s="9"/>
       <c r="I85" s="9"/>
     </row>
-    <row r="86" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:9" ht="23.25">
       <c r="A86" s="5">
         <f t="shared" si="6"/>
         <v>85</v>
@@ -3392,7 +3397,7 @@
       <c r="H86" s="9"/>
       <c r="I86" s="9"/>
     </row>
-    <row r="87" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:9" ht="23.25">
       <c r="A87" s="5">
         <f t="shared" si="6"/>
         <v>86</v>
@@ -3406,7 +3411,7 @@
       <c r="H87" s="9"/>
       <c r="I87" s="9"/>
     </row>
-    <row r="88" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:9" ht="23.25">
       <c r="A88" s="5">
         <f t="shared" si="6"/>
         <v>87</v>
@@ -3420,7 +3425,7 @@
       <c r="H88" s="9"/>
       <c r="I88" s="9"/>
     </row>
-    <row r="89" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:9" ht="23.25">
       <c r="A89" s="5">
         <f t="shared" si="6"/>
         <v>88</v>
@@ -3434,7 +3439,7 @@
       <c r="H89" s="9"/>
       <c r="I89" s="9"/>
     </row>
-    <row r="90" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:9" ht="23.25">
       <c r="A90" s="5">
         <f t="shared" si="6"/>
         <v>89</v>
@@ -3448,7 +3453,7 @@
       <c r="H90" s="9"/>
       <c r="I90" s="9"/>
     </row>
-    <row r="91" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:9" ht="23.25">
       <c r="A91" s="5">
         <f t="shared" si="6"/>
         <v>90</v>
@@ -3462,7 +3467,7 @@
       <c r="H91" s="9"/>
       <c r="I91" s="9"/>
     </row>
-    <row r="92" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:9" ht="23.25">
       <c r="A92" s="5">
         <f t="shared" si="6"/>
         <v>91</v>
@@ -3476,7 +3481,7 @@
       <c r="H92" s="9"/>
       <c r="I92" s="9"/>
     </row>
-    <row r="93" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:9" ht="23.25">
       <c r="A93" s="5">
         <f t="shared" si="6"/>
         <v>92</v>
@@ -3490,7 +3495,7 @@
       <c r="H93" s="9"/>
       <c r="I93" s="9"/>
     </row>
-    <row r="94" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:9" ht="23.25">
       <c r="A94" s="5">
         <f t="shared" si="6"/>
         <v>93</v>
@@ -3504,7 +3509,7 @@
       <c r="H94" s="9"/>
       <c r="I94" s="9"/>
     </row>
-    <row r="95" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:9" ht="23.25">
       <c r="A95" s="5">
         <f t="shared" si="6"/>
         <v>94</v>
@@ -3518,7 +3523,7 @@
       <c r="H95" s="9"/>
       <c r="I95" s="9"/>
     </row>
-    <row r="96" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:9" ht="23.25">
       <c r="A96" s="5">
         <f t="shared" si="6"/>
         <v>95</v>
@@ -3532,7 +3537,7 @@
       <c r="H96" s="9"/>
       <c r="I96" s="9"/>
     </row>
-    <row r="97" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:9" ht="23.25">
       <c r="A97" s="5">
         <f t="shared" si="6"/>
         <v>96</v>
@@ -3546,7 +3551,7 @@
       <c r="H97" s="9"/>
       <c r="I97" s="9"/>
     </row>
-    <row r="98" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:9" ht="23.25">
       <c r="A98" s="5">
         <f t="shared" si="6"/>
         <v>97</v>
@@ -3560,7 +3565,7 @@
       <c r="H98" s="9"/>
       <c r="I98" s="9"/>
     </row>
-    <row r="99" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:9" ht="23.25">
       <c r="A99" s="5">
         <f t="shared" si="6"/>
         <v>98</v>
@@ -3574,7 +3579,7 @@
       <c r="H99" s="9"/>
       <c r="I99" s="9"/>
     </row>
-    <row r="100" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:9" ht="23.25">
       <c r="A100" s="5">
         <f t="shared" si="6"/>
         <v>99</v>
@@ -3588,7 +3593,7 @@
       <c r="H100" s="9"/>
       <c r="I100" s="9"/>
     </row>
-    <row r="101" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:9" ht="23.25">
       <c r="A101" s="5">
         <f t="shared" si="6"/>
         <v>100</v>
@@ -3602,7 +3607,7 @@
       <c r="H101" s="9"/>
       <c r="I101" s="9"/>
     </row>
-    <row r="102" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:9" ht="23.25">
       <c r="A102" s="5">
         <f t="shared" si="6"/>
         <v>101</v>
@@ -3616,7 +3621,7 @@
       <c r="H102" s="9"/>
       <c r="I102" s="9"/>
     </row>
-    <row r="103" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:9" ht="23.25">
       <c r="A103" s="5">
         <f t="shared" si="6"/>
         <v>102</v>
@@ -3630,7 +3635,7 @@
       <c r="H103" s="9"/>
       <c r="I103" s="9"/>
     </row>
-    <row r="104" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:9" ht="23.25">
       <c r="A104" s="5">
         <f t="shared" si="6"/>
         <v>103</v>
@@ -3644,7 +3649,7 @@
       <c r="H104" s="9"/>
       <c r="I104" s="9"/>
     </row>
-    <row r="105" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:9" ht="23.25">
       <c r="A105" s="5">
         <f t="shared" si="6"/>
         <v>104</v>
@@ -3658,7 +3663,7 @@
       <c r="H105" s="9"/>
       <c r="I105" s="9"/>
     </row>
-    <row r="106" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:9" ht="23.25">
       <c r="A106" s="5">
         <f t="shared" si="6"/>
         <v>105</v>
@@ -3672,7 +3677,7 @@
       <c r="H106" s="9"/>
       <c r="I106" s="9"/>
     </row>
-    <row r="107" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:9" ht="23.25">
       <c r="A107" s="5">
         <f t="shared" si="6"/>
         <v>106</v>
@@ -3686,7 +3691,7 @@
       <c r="H107" s="9"/>
       <c r="I107" s="9"/>
     </row>
-    <row r="108" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:9" ht="23.25">
       <c r="A108" s="5">
         <f t="shared" si="6"/>
         <v>107</v>
@@ -3700,7 +3705,7 @@
       <c r="H108" s="9"/>
       <c r="I108" s="9"/>
     </row>
-    <row r="109" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:9" ht="23.25">
       <c r="A109" s="5">
         <f t="shared" si="6"/>
         <v>108</v>
@@ -3714,7 +3719,7 @@
       <c r="H109" s="9"/>
       <c r="I109" s="9"/>
     </row>
-    <row r="110" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:9" ht="23.25">
       <c r="A110" s="5">
         <f t="shared" si="6"/>
         <v>109</v>
@@ -3728,7 +3733,7 @@
       <c r="H110" s="9"/>
       <c r="I110" s="9"/>
     </row>
-    <row r="111" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:9" ht="23.25">
       <c r="A111" s="5">
         <f t="shared" si="6"/>
         <v>110</v>
@@ -3742,7 +3747,7 @@
       <c r="H111" s="9"/>
       <c r="I111" s="9"/>
     </row>
-    <row r="112" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:9" ht="23.25">
       <c r="A112" s="5">
         <f t="shared" si="6"/>
         <v>111</v>
@@ -3756,7 +3761,7 @@
       <c r="H112" s="9"/>
       <c r="I112" s="9"/>
     </row>
-    <row r="113" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:9" ht="23.25">
       <c r="A113" s="5">
         <f t="shared" si="6"/>
         <v>112</v>
@@ -3770,7 +3775,7 @@
       <c r="H113" s="9"/>
       <c r="I113" s="9"/>
     </row>
-    <row r="114" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:9" ht="23.25">
       <c r="A114" s="5">
         <f t="shared" si="6"/>
         <v>113</v>
@@ -3784,7 +3789,7 @@
       <c r="H114" s="9"/>
       <c r="I114" s="9"/>
     </row>
-    <row r="115" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:9" ht="23.25">
       <c r="A115" s="5">
         <f t="shared" si="6"/>
         <v>114</v>
@@ -3798,7 +3803,7 @@
       <c r="H115" s="9"/>
       <c r="I115" s="9"/>
     </row>
-    <row r="116" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:9" ht="23.25">
       <c r="A116" s="5">
         <f t="shared" si="6"/>
         <v>115</v>
@@ -3812,7 +3817,7 @@
       <c r="H116" s="9"/>
       <c r="I116" s="9"/>
     </row>
-    <row r="117" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:9" ht="23.25">
       <c r="A117" s="5">
         <f t="shared" si="6"/>
         <v>116</v>
@@ -3826,7 +3831,7 @@
       <c r="H117" s="9"/>
       <c r="I117" s="9"/>
     </row>
-    <row r="118" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:9" ht="23.25">
       <c r="A118" s="5">
         <f t="shared" si="6"/>
         <v>117</v>
@@ -3840,7 +3845,7 @@
       <c r="H118" s="9"/>
       <c r="I118" s="9"/>
     </row>
-    <row r="119" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:9" ht="23.25">
       <c r="A119" s="5">
         <f t="shared" si="6"/>
         <v>118</v>
@@ -3854,7 +3859,7 @@
       <c r="H119" s="9"/>
       <c r="I119" s="9"/>
     </row>
-    <row r="120" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:9" ht="23.25">
       <c r="A120" s="5">
         <f t="shared" si="6"/>
         <v>119</v>
@@ -3868,7 +3873,7 @@
       <c r="H120" s="9"/>
       <c r="I120" s="9"/>
     </row>
-    <row r="121" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:9" ht="23.25">
       <c r="A121" s="5">
         <f t="shared" si="6"/>
         <v>120</v>
@@ -3882,7 +3887,7 @@
       <c r="H121" s="9"/>
       <c r="I121" s="9"/>
     </row>
-    <row r="122" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:9" ht="23.25">
       <c r="A122" s="5">
         <f t="shared" si="6"/>
         <v>121</v>
@@ -3896,7 +3901,7 @@
       <c r="H122" s="9"/>
       <c r="I122" s="9"/>
     </row>
-    <row r="123" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:9" ht="23.25">
       <c r="A123" s="5">
         <f t="shared" si="6"/>
         <v>122</v>
@@ -3910,7 +3915,7 @@
       <c r="H123" s="9"/>
       <c r="I123" s="9"/>
     </row>
-    <row r="124" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:9" ht="23.25">
       <c r="A124" s="5">
         <f t="shared" si="6"/>
         <v>123</v>
@@ -3924,7 +3929,7 @@
       <c r="H124" s="9"/>
       <c r="I124" s="9"/>
     </row>
-    <row r="125" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:9" ht="23.25">
       <c r="A125" s="5">
         <f t="shared" si="6"/>
         <v>124</v>
@@ -3938,7 +3943,7 @@
       <c r="H125" s="9"/>
       <c r="I125" s="9"/>
     </row>
-    <row r="126" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:9" ht="23.25">
       <c r="A126" s="5">
         <f t="shared" si="6"/>
         <v>125</v>
@@ -3952,7 +3957,7 @@
       <c r="H126" s="9"/>
       <c r="I126" s="9"/>
     </row>
-    <row r="127" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:9" ht="23.25">
       <c r="A127" s="5">
         <f t="shared" si="6"/>
         <v>126</v>
@@ -3966,7 +3971,7 @@
       <c r="H127" s="9"/>
       <c r="I127" s="9"/>
     </row>
-    <row r="128" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:9" ht="23.25">
       <c r="A128" s="5">
         <f t="shared" si="6"/>
         <v>127</v>
@@ -3980,7 +3985,7 @@
       <c r="H128" s="9"/>
       <c r="I128" s="9"/>
     </row>
-    <row r="129" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:9" ht="23.25">
       <c r="A129" s="5">
         <f t="shared" si="6"/>
         <v>128</v>
@@ -3994,7 +3999,7 @@
       <c r="H129" s="9"/>
       <c r="I129" s="9"/>
     </row>
-    <row r="130" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:9" ht="23.25">
       <c r="A130" s="5">
         <f t="shared" si="6"/>
         <v>129</v>
@@ -4008,7 +4013,7 @@
       <c r="H130" s="9"/>
       <c r="I130" s="9"/>
     </row>
-    <row r="131" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:9" ht="23.25">
       <c r="A131" s="5">
         <f t="shared" si="6"/>
         <v>130</v>
@@ -4022,7 +4027,7 @@
       <c r="H131" s="9"/>
       <c r="I131" s="9"/>
     </row>
-    <row r="132" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:9" ht="23.25">
       <c r="A132" s="5">
         <f t="shared" si="6"/>
         <v>131</v>
@@ -4036,7 +4041,7 @@
       <c r="H132" s="9"/>
       <c r="I132" s="9"/>
     </row>
-    <row r="133" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:9" ht="23.25">
       <c r="A133" s="5">
         <f t="shared" si="6"/>
         <v>132</v>
@@ -4050,7 +4055,7 @@
       <c r="H133" s="9"/>
       <c r="I133" s="9"/>
     </row>
-    <row r="134" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:9" ht="23.25">
       <c r="A134" s="5">
         <f t="shared" si="6"/>
         <v>133</v>
@@ -4064,7 +4069,7 @@
       <c r="H134" s="9"/>
       <c r="I134" s="9"/>
     </row>
-    <row r="135" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:9" ht="23.25">
       <c r="A135" s="5">
         <f t="shared" si="6"/>
         <v>134</v>
@@ -4078,7 +4083,7 @@
       <c r="H135" s="9"/>
       <c r="I135" s="9"/>
     </row>
-    <row r="136" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:9" ht="23.25">
       <c r="A136" s="5">
         <f t="shared" ref="A136:A199" si="7">ROW(135:135)</f>
         <v>135</v>
@@ -4092,7 +4097,7 @@
       <c r="H136" s="9"/>
       <c r="I136" s="9"/>
     </row>
-    <row r="137" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:9" ht="23.25">
       <c r="A137" s="5">
         <f t="shared" si="7"/>
         <v>136</v>
@@ -4106,7 +4111,7 @@
       <c r="H137" s="9"/>
       <c r="I137" s="9"/>
     </row>
-    <row r="138" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:9" ht="23.25">
       <c r="A138" s="5">
         <f t="shared" si="7"/>
         <v>137</v>
@@ -4120,7 +4125,7 @@
       <c r="H138" s="9"/>
       <c r="I138" s="9"/>
     </row>
-    <row r="139" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:9" ht="23.25">
       <c r="A139" s="5">
         <f t="shared" si="7"/>
         <v>138</v>
@@ -4134,7 +4139,7 @@
       <c r="H139" s="9"/>
       <c r="I139" s="9"/>
     </row>
-    <row r="140" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:9" ht="23.25">
       <c r="A140" s="5">
         <f t="shared" si="7"/>
         <v>139</v>
@@ -4148,7 +4153,7 @@
       <c r="H140" s="9"/>
       <c r="I140" s="9"/>
     </row>
-    <row r="141" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:9" ht="23.25">
       <c r="A141" s="5">
         <f t="shared" si="7"/>
         <v>140</v>
@@ -4162,7 +4167,7 @@
       <c r="H141" s="9"/>
       <c r="I141" s="9"/>
     </row>
-    <row r="142" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:9" ht="23.25">
       <c r="A142" s="5">
         <f t="shared" si="7"/>
         <v>141</v>
@@ -4176,7 +4181,7 @@
       <c r="H142" s="9"/>
       <c r="I142" s="9"/>
     </row>
-    <row r="143" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:9" ht="23.25">
       <c r="A143" s="5">
         <f t="shared" si="7"/>
         <v>142</v>
@@ -4190,7 +4195,7 @@
       <c r="H143" s="9"/>
       <c r="I143" s="9"/>
     </row>
-    <row r="144" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:9" ht="23.25">
       <c r="A144" s="5">
         <f t="shared" si="7"/>
         <v>143</v>
@@ -4204,7 +4209,7 @@
       <c r="H144" s="9"/>
       <c r="I144" s="9"/>
     </row>
-    <row r="145" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:9" ht="23.25">
       <c r="A145" s="5">
         <f t="shared" si="7"/>
         <v>144</v>
@@ -4218,7 +4223,7 @@
       <c r="H145" s="9"/>
       <c r="I145" s="9"/>
     </row>
-    <row r="146" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:9" ht="23.25">
       <c r="A146" s="5">
         <f t="shared" si="7"/>
         <v>145</v>
@@ -4232,7 +4237,7 @@
       <c r="H146" s="9"/>
       <c r="I146" s="9"/>
     </row>
-    <row r="147" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:9" ht="23.25">
       <c r="A147" s="5">
         <f t="shared" si="7"/>
         <v>146</v>
@@ -4246,7 +4251,7 @@
       <c r="H147" s="9"/>
       <c r="I147" s="9"/>
     </row>
-    <row r="148" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:9" ht="23.25">
       <c r="A148" s="5">
         <f t="shared" si="7"/>
         <v>147</v>
@@ -4260,7 +4265,7 @@
       <c r="H148" s="9"/>
       <c r="I148" s="9"/>
     </row>
-    <row r="149" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:9" ht="23.25">
       <c r="A149" s="5">
         <f t="shared" si="7"/>
         <v>148</v>
@@ -4274,7 +4279,7 @@
       <c r="H149" s="9"/>
       <c r="I149" s="9"/>
     </row>
-    <row r="150" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:9" ht="23.25">
       <c r="A150" s="5">
         <f t="shared" si="7"/>
         <v>149</v>
@@ -4288,7 +4293,7 @@
       <c r="H150" s="9"/>
       <c r="I150" s="9"/>
     </row>
-    <row r="151" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:9" ht="23.25">
       <c r="A151" s="5">
         <f t="shared" si="7"/>
         <v>150</v>
@@ -4302,7 +4307,7 @@
       <c r="H151" s="9"/>
       <c r="I151" s="9"/>
     </row>
-    <row r="152" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:9" ht="23.25">
       <c r="A152" s="5">
         <f t="shared" si="7"/>
         <v>151</v>
@@ -4316,7 +4321,7 @@
       <c r="H152" s="9"/>
       <c r="I152" s="9"/>
     </row>
-    <row r="153" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:9" ht="23.25">
       <c r="A153" s="5">
         <f t="shared" si="7"/>
         <v>152</v>
@@ -4330,7 +4335,7 @@
       <c r="H153" s="9"/>
       <c r="I153" s="9"/>
     </row>
-    <row r="154" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:9" ht="23.25">
       <c r="A154" s="5">
         <f t="shared" si="7"/>
         <v>153</v>
@@ -4344,7 +4349,7 @@
       <c r="H154" s="9"/>
       <c r="I154" s="9"/>
     </row>
-    <row r="155" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:9" ht="23.25">
       <c r="A155" s="5">
         <f t="shared" si="7"/>
         <v>154</v>
@@ -4358,7 +4363,7 @@
       <c r="H155" s="9"/>
       <c r="I155" s="9"/>
     </row>
-    <row r="156" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:9" ht="23.25">
       <c r="A156" s="5">
         <f t="shared" si="7"/>
         <v>155</v>
@@ -4372,7 +4377,7 @@
       <c r="H156" s="9"/>
       <c r="I156" s="9"/>
     </row>
-    <row r="157" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:9" ht="23.25">
       <c r="A157" s="5">
         <f t="shared" si="7"/>
         <v>156</v>
@@ -4386,7 +4391,7 @@
       <c r="H157" s="9"/>
       <c r="I157" s="9"/>
     </row>
-    <row r="158" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:9" ht="23.25">
       <c r="A158" s="5">
         <f t="shared" si="7"/>
         <v>157</v>
@@ -4400,7 +4405,7 @@
       <c r="H158" s="9"/>
       <c r="I158" s="9"/>
     </row>
-    <row r="159" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:9" ht="23.25">
       <c r="A159" s="5">
         <f t="shared" si="7"/>
         <v>158</v>
@@ -4414,7 +4419,7 @@
       <c r="H159" s="9"/>
       <c r="I159" s="9"/>
     </row>
-    <row r="160" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:9" ht="23.25">
       <c r="A160" s="5">
         <f t="shared" si="7"/>
         <v>159</v>
@@ -4428,7 +4433,7 @@
       <c r="H160" s="9"/>
       <c r="I160" s="9"/>
     </row>
-    <row r="161" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:9" ht="23.25">
       <c r="A161" s="5">
         <f t="shared" si="7"/>
         <v>160</v>
@@ -4442,7 +4447,7 @@
       <c r="H161" s="9"/>
       <c r="I161" s="9"/>
     </row>
-    <row r="162" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:9" ht="23.25">
       <c r="A162" s="5">
         <f t="shared" si="7"/>
         <v>161</v>
@@ -4456,7 +4461,7 @@
       <c r="H162" s="9"/>
       <c r="I162" s="9"/>
     </row>
-    <row r="163" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:9" ht="23.25">
       <c r="A163" s="5">
         <f t="shared" si="7"/>
         <v>162</v>
@@ -4470,7 +4475,7 @@
       <c r="H163" s="9"/>
       <c r="I163" s="9"/>
     </row>
-    <row r="164" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:9" ht="23.25">
       <c r="A164" s="5">
         <f t="shared" si="7"/>
         <v>163</v>
@@ -4484,7 +4489,7 @@
       <c r="H164" s="9"/>
       <c r="I164" s="9"/>
     </row>
-    <row r="165" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:9" ht="23.25">
       <c r="A165" s="5">
         <f t="shared" si="7"/>
         <v>164</v>
@@ -4498,7 +4503,7 @@
       <c r="H165" s="9"/>
       <c r="I165" s="9"/>
     </row>
-    <row r="166" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:9" ht="23.25">
       <c r="A166" s="7">
         <f t="shared" si="7"/>
         <v>165</v>
@@ -4512,7 +4517,7 @@
       <c r="H166" s="8"/>
       <c r="I166" s="8"/>
     </row>
-    <row r="167" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:9" ht="23.25">
       <c r="A167" s="7">
         <f t="shared" si="7"/>
         <v>166</v>
@@ -4526,7 +4531,7 @@
       <c r="H167" s="8"/>
       <c r="I167" s="8"/>
     </row>
-    <row r="168" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:9" ht="23.25">
       <c r="A168" s="7">
         <f t="shared" si="7"/>
         <v>167</v>
@@ -4540,7 +4545,7 @@
       <c r="H168" s="8"/>
       <c r="I168" s="8"/>
     </row>
-    <row r="169" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:9" ht="23.25">
       <c r="A169" s="7">
         <f t="shared" si="7"/>
         <v>168</v>
@@ -4554,7 +4559,7 @@
       <c r="H169" s="8"/>
       <c r="I169" s="8"/>
     </row>
-    <row r="170" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:9" ht="23.25">
       <c r="A170" s="7">
         <f t="shared" si="7"/>
         <v>169</v>
@@ -4568,7 +4573,7 @@
       <c r="H170" s="8"/>
       <c r="I170" s="8"/>
     </row>
-    <row r="171" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:9" ht="23.25">
       <c r="A171" s="7">
         <f t="shared" si="7"/>
         <v>170</v>
@@ -4582,7 +4587,7 @@
       <c r="H171" s="8"/>
       <c r="I171" s="8"/>
     </row>
-    <row r="172" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:9" ht="23.25">
       <c r="A172" s="7">
         <f t="shared" si="7"/>
         <v>171</v>
@@ -4596,7 +4601,7 @@
       <c r="H172" s="8"/>
       <c r="I172" s="8"/>
     </row>
-    <row r="173" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:9" ht="23.25">
       <c r="A173" s="7">
         <f t="shared" si="7"/>
         <v>172</v>
@@ -4610,7 +4615,7 @@
       <c r="H173" s="8"/>
       <c r="I173" s="8"/>
     </row>
-    <row r="174" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:9" ht="23.25">
       <c r="A174" s="7">
         <f t="shared" si="7"/>
         <v>173</v>
@@ -4624,7 +4629,7 @@
       <c r="H174" s="8"/>
       <c r="I174" s="8"/>
     </row>
-    <row r="175" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:9" ht="23.25">
       <c r="A175" s="7">
         <f t="shared" si="7"/>
         <v>174</v>
@@ -4638,7 +4643,7 @@
       <c r="H175" s="8"/>
       <c r="I175" s="8"/>
     </row>
-    <row r="176" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:9" ht="23.25">
       <c r="A176" s="7">
         <f t="shared" si="7"/>
         <v>175</v>
@@ -4652,7 +4657,7 @@
       <c r="H176" s="8"/>
       <c r="I176" s="8"/>
     </row>
-    <row r="177" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:9" ht="23.25">
       <c r="A177" s="7">
         <f t="shared" si="7"/>
         <v>176</v>
@@ -4666,7 +4671,7 @@
       <c r="H177" s="8"/>
       <c r="I177" s="8"/>
     </row>
-    <row r="178" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:9" ht="23.25">
       <c r="A178" s="7">
         <f t="shared" si="7"/>
         <v>177</v>
@@ -4680,7 +4685,7 @@
       <c r="H178" s="8"/>
       <c r="I178" s="8"/>
     </row>
-    <row r="179" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:9" ht="23.25">
       <c r="A179" s="7">
         <f t="shared" si="7"/>
         <v>178</v>
@@ -4694,7 +4699,7 @@
       <c r="H179" s="8"/>
       <c r="I179" s="8"/>
     </row>
-    <row r="180" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:9" ht="23.25">
       <c r="A180" s="7">
         <f t="shared" si="7"/>
         <v>179</v>
@@ -4708,7 +4713,7 @@
       <c r="H180" s="8"/>
       <c r="I180" s="8"/>
     </row>
-    <row r="181" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:9" ht="23.25">
       <c r="A181" s="7">
         <f t="shared" si="7"/>
         <v>180</v>
@@ -4722,7 +4727,7 @@
       <c r="H181" s="8"/>
       <c r="I181" s="8"/>
     </row>
-    <row r="182" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:9" ht="23.25">
       <c r="A182" s="7">
         <f t="shared" si="7"/>
         <v>181</v>
@@ -4736,7 +4741,7 @@
       <c r="H182" s="8"/>
       <c r="I182" s="8"/>
     </row>
-    <row r="183" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:9" ht="23.25">
       <c r="A183" s="7">
         <f t="shared" si="7"/>
         <v>182</v>
@@ -4750,7 +4755,7 @@
       <c r="H183" s="8"/>
       <c r="I183" s="8"/>
     </row>
-    <row r="184" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:9" ht="23.25">
       <c r="A184" s="7">
         <f t="shared" si="7"/>
         <v>183</v>
@@ -4764,7 +4769,7 @@
       <c r="H184" s="8"/>
       <c r="I184" s="8"/>
     </row>
-    <row r="185" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:9" ht="23.25">
       <c r="A185" s="7">
         <f t="shared" si="7"/>
         <v>184</v>
@@ -4778,7 +4783,7 @@
       <c r="H185" s="8"/>
       <c r="I185" s="8"/>
     </row>
-    <row r="186" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:9" ht="23.25">
       <c r="A186" s="7">
         <f t="shared" si="7"/>
         <v>185</v>
@@ -4792,7 +4797,7 @@
       <c r="H186" s="8"/>
       <c r="I186" s="8"/>
     </row>
-    <row r="187" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:9" ht="23.25">
       <c r="A187" s="7">
         <f t="shared" si="7"/>
         <v>186</v>
@@ -4806,7 +4811,7 @@
       <c r="H187" s="8"/>
       <c r="I187" s="8"/>
     </row>
-    <row r="188" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:9" ht="23.25">
       <c r="A188" s="7">
         <f t="shared" si="7"/>
         <v>187</v>
@@ -4820,7 +4825,7 @@
       <c r="H188" s="8"/>
       <c r="I188" s="8"/>
     </row>
-    <row r="189" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:9" ht="23.25">
       <c r="A189" s="7">
         <f t="shared" si="7"/>
         <v>188</v>
@@ -4834,7 +4839,7 @@
       <c r="H189" s="8"/>
       <c r="I189" s="8"/>
     </row>
-    <row r="190" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:9" ht="23.25">
       <c r="A190" s="7">
         <f t="shared" si="7"/>
         <v>189</v>
@@ -4848,7 +4853,7 @@
       <c r="H190" s="8"/>
       <c r="I190" s="8"/>
     </row>
-    <row r="191" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:9" ht="23.25">
       <c r="A191" s="7">
         <f t="shared" si="7"/>
         <v>190</v>
@@ -4862,7 +4867,7 @@
       <c r="H191" s="8"/>
       <c r="I191" s="8"/>
     </row>
-    <row r="192" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:9" ht="23.25">
       <c r="A192" s="7">
         <f t="shared" si="7"/>
         <v>191</v>
@@ -4876,7 +4881,7 @@
       <c r="H192" s="8"/>
       <c r="I192" s="8"/>
     </row>
-    <row r="193" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:9" ht="23.25">
       <c r="A193" s="7">
         <f t="shared" si="7"/>
         <v>192</v>
@@ -4890,7 +4895,7 @@
       <c r="H193" s="8"/>
       <c r="I193" s="8"/>
     </row>
-    <row r="194" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:9" ht="23.25">
       <c r="A194" s="7">
         <f t="shared" si="7"/>
         <v>193</v>
@@ -4904,7 +4909,7 @@
       <c r="H194" s="8"/>
       <c r="I194" s="8"/>
     </row>
-    <row r="195" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:9" ht="23.25">
       <c r="A195" s="7">
         <f t="shared" si="7"/>
         <v>194</v>
@@ -4918,7 +4923,7 @@
       <c r="H195" s="8"/>
       <c r="I195" s="8"/>
     </row>
-    <row r="196" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:9" ht="23.25">
       <c r="A196" s="7">
         <f t="shared" si="7"/>
         <v>195</v>
@@ -4932,7 +4937,7 @@
       <c r="H196" s="8"/>
       <c r="I196" s="8"/>
     </row>
-    <row r="197" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:9" ht="23.25">
       <c r="A197" s="7">
         <f t="shared" si="7"/>
         <v>196</v>
@@ -4946,7 +4951,7 @@
       <c r="H197" s="8"/>
       <c r="I197" s="8"/>
     </row>
-    <row r="198" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:9" ht="23.25">
       <c r="A198" s="7">
         <f t="shared" si="7"/>
         <v>197</v>
@@ -4960,7 +4965,7 @@
       <c r="H198" s="8"/>
       <c r="I198" s="8"/>
     </row>
-    <row r="199" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:9" ht="23.25">
       <c r="A199" s="7">
         <f t="shared" si="7"/>
         <v>198</v>
@@ -4974,7 +4979,7 @@
       <c r="H199" s="8"/>
       <c r="I199" s="8"/>
     </row>
-    <row r="200" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:9" ht="23.25">
       <c r="A200" s="7">
         <f t="shared" ref="A200:A263" si="8">ROW(199:199)</f>
         <v>199</v>
@@ -4988,7 +4993,7 @@
       <c r="H200" s="8"/>
       <c r="I200" s="8"/>
     </row>
-    <row r="201" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:9" ht="23.25">
       <c r="A201" s="7">
         <f t="shared" si="8"/>
         <v>200</v>
@@ -5002,7 +5007,7 @@
       <c r="H201" s="8"/>
       <c r="I201" s="8"/>
     </row>
-    <row r="202" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:9" ht="23.25">
       <c r="A202" s="7">
         <f t="shared" si="8"/>
         <v>201</v>
@@ -5016,7 +5021,7 @@
       <c r="H202" s="8"/>
       <c r="I202" s="8"/>
     </row>
-    <row r="203" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:9" ht="23.25">
       <c r="A203" s="7">
         <f t="shared" si="8"/>
         <v>202</v>
@@ -5030,7 +5035,7 @@
       <c r="H203" s="8"/>
       <c r="I203" s="8"/>
     </row>
-    <row r="204" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:9" ht="23.25">
       <c r="A204" s="7">
         <f t="shared" si="8"/>
         <v>203</v>
@@ -5044,7 +5049,7 @@
       <c r="H204" s="8"/>
       <c r="I204" s="8"/>
     </row>
-    <row r="205" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:9" ht="23.25">
       <c r="A205" s="7">
         <f t="shared" si="8"/>
         <v>204</v>
@@ -5058,7 +5063,7 @@
       <c r="H205" s="8"/>
       <c r="I205" s="8"/>
     </row>
-    <row r="206" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:9" ht="23.25">
       <c r="A206" s="7">
         <f t="shared" si="8"/>
         <v>205</v>
@@ -5072,7 +5077,7 @@
       <c r="H206" s="8"/>
       <c r="I206" s="8"/>
     </row>
-    <row r="207" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:9" ht="23.25">
       <c r="A207" s="7">
         <f t="shared" si="8"/>
         <v>206</v>
@@ -5086,7 +5091,7 @@
       <c r="H207" s="8"/>
       <c r="I207" s="8"/>
     </row>
-    <row r="208" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:9" ht="23.25">
       <c r="A208" s="7">
         <f t="shared" si="8"/>
         <v>207</v>
@@ -5100,7 +5105,7 @@
       <c r="H208" s="8"/>
       <c r="I208" s="8"/>
     </row>
-    <row r="209" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:9" ht="23.25">
       <c r="A209" s="7">
         <f t="shared" si="8"/>
         <v>208</v>
@@ -5114,7 +5119,7 @@
       <c r="H209" s="8"/>
       <c r="I209" s="8"/>
     </row>
-    <row r="210" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:9" ht="23.25">
       <c r="A210" s="7">
         <f t="shared" si="8"/>
         <v>209</v>
@@ -5128,7 +5133,7 @@
       <c r="H210" s="8"/>
       <c r="I210" s="8"/>
     </row>
-    <row r="211" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:9" ht="23.25">
       <c r="A211" s="7">
         <f t="shared" si="8"/>
         <v>210</v>
@@ -5142,7 +5147,7 @@
       <c r="H211" s="8"/>
       <c r="I211" s="8"/>
     </row>
-    <row r="212" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:9" ht="23.25">
       <c r="A212" s="7">
         <f t="shared" si="8"/>
         <v>211</v>
@@ -5156,7 +5161,7 @@
       <c r="H212" s="8"/>
       <c r="I212" s="8"/>
     </row>
-    <row r="213" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:9" ht="23.25">
       <c r="A213" s="7">
         <f t="shared" si="8"/>
         <v>212</v>
@@ -5170,7 +5175,7 @@
       <c r="H213" s="8"/>
       <c r="I213" s="8"/>
     </row>
-    <row r="214" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:9" ht="23.25">
       <c r="A214" s="7">
         <f t="shared" si="8"/>
         <v>213</v>
@@ -5184,7 +5189,7 @@
       <c r="H214" s="8"/>
       <c r="I214" s="8"/>
     </row>
-    <row r="215" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:9" ht="23.25">
       <c r="A215" s="7">
         <f t="shared" si="8"/>
         <v>214</v>
@@ -5198,7 +5203,7 @@
       <c r="H215" s="8"/>
       <c r="I215" s="8"/>
     </row>
-    <row r="216" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:9" ht="23.25">
       <c r="A216" s="7">
         <f t="shared" si="8"/>
         <v>215</v>
@@ -5212,7 +5217,7 @@
       <c r="H216" s="8"/>
       <c r="I216" s="8"/>
     </row>
-    <row r="217" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:9" ht="23.25">
       <c r="A217" s="7">
         <f t="shared" si="8"/>
         <v>216</v>
@@ -5226,7 +5231,7 @@
       <c r="H217" s="8"/>
       <c r="I217" s="8"/>
     </row>
-    <row r="218" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:9" ht="23.25">
       <c r="A218" s="7">
         <f t="shared" si="8"/>
         <v>217</v>
@@ -5240,7 +5245,7 @@
       <c r="H218" s="8"/>
       <c r="I218" s="8"/>
     </row>
-    <row r="219" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:9" ht="23.25">
       <c r="A219" s="7">
         <f t="shared" si="8"/>
         <v>218</v>
@@ -5254,7 +5259,7 @@
       <c r="H219" s="8"/>
       <c r="I219" s="8"/>
     </row>
-    <row r="220" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:9" ht="23.25">
       <c r="A220" s="7">
         <f t="shared" si="8"/>
         <v>219</v>
@@ -5268,7 +5273,7 @@
       <c r="H220" s="8"/>
       <c r="I220" s="8"/>
     </row>
-    <row r="221" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:9" ht="23.25">
       <c r="A221" s="7">
         <f t="shared" si="8"/>
         <v>220</v>
@@ -5282,7 +5287,7 @@
       <c r="H221" s="8"/>
       <c r="I221" s="8"/>
     </row>
-    <row r="222" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:9" ht="23.25">
       <c r="A222" s="7">
         <f t="shared" si="8"/>
         <v>221</v>
@@ -5296,7 +5301,7 @@
       <c r="H222" s="8"/>
       <c r="I222" s="8"/>
     </row>
-    <row r="223" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:9" ht="23.25">
       <c r="A223" s="7">
         <f t="shared" si="8"/>
         <v>222</v>
@@ -5310,7 +5315,7 @@
       <c r="H223" s="8"/>
       <c r="I223" s="8"/>
     </row>
-    <row r="224" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:9" ht="23.25">
       <c r="A224" s="7">
         <f t="shared" si="8"/>
         <v>223</v>
@@ -5324,7 +5329,7 @@
       <c r="H224" s="8"/>
       <c r="I224" s="8"/>
     </row>
-    <row r="225" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:9" ht="23.25">
       <c r="A225" s="7">
         <f t="shared" si="8"/>
         <v>224</v>
@@ -5338,7 +5343,7 @@
       <c r="H225" s="8"/>
       <c r="I225" s="8"/>
     </row>
-    <row r="226" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:9" ht="23.25">
       <c r="A226" s="7">
         <f t="shared" si="8"/>
         <v>225</v>
@@ -5352,7 +5357,7 @@
       <c r="H226" s="8"/>
       <c r="I226" s="8"/>
     </row>
-    <row r="227" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:9" ht="23.25">
       <c r="A227" s="7">
         <f t="shared" si="8"/>
         <v>226</v>
@@ -5366,7 +5371,7 @@
       <c r="H227" s="8"/>
       <c r="I227" s="8"/>
     </row>
-    <row r="228" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:9" ht="23.25">
       <c r="A228" s="7">
         <f t="shared" si="8"/>
         <v>227</v>
@@ -5380,7 +5385,7 @@
       <c r="H228" s="8"/>
       <c r="I228" s="8"/>
     </row>
-    <row r="229" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:9" ht="23.25">
       <c r="A229" s="7">
         <f t="shared" si="8"/>
         <v>228</v>
@@ -5394,7 +5399,7 @@
       <c r="H229" s="8"/>
       <c r="I229" s="8"/>
     </row>
-    <row r="230" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:9" ht="23.25">
       <c r="A230" s="7">
         <f t="shared" si="8"/>
         <v>229</v>
@@ -5408,7 +5413,7 @@
       <c r="H230" s="8"/>
       <c r="I230" s="8"/>
     </row>
-    <row r="231" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:9" ht="23.25">
       <c r="A231" s="7">
         <f t="shared" si="8"/>
         <v>230</v>
@@ -5422,7 +5427,7 @@
       <c r="H231" s="8"/>
       <c r="I231" s="8"/>
     </row>
-    <row r="232" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:9" ht="23.25">
       <c r="A232" s="7">
         <f t="shared" si="8"/>
         <v>231</v>
@@ -5436,7 +5441,7 @@
       <c r="H232" s="8"/>
       <c r="I232" s="8"/>
     </row>
-    <row r="233" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:9" ht="23.25">
       <c r="A233" s="7">
         <f t="shared" si="8"/>
         <v>232</v>
@@ -5450,7 +5455,7 @@
       <c r="H233" s="8"/>
       <c r="I233" s="8"/>
     </row>
-    <row r="234" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:9" ht="23.25">
       <c r="A234" s="7">
         <f t="shared" si="8"/>
         <v>233</v>
@@ -5464,7 +5469,7 @@
       <c r="H234" s="8"/>
       <c r="I234" s="8"/>
     </row>
-    <row r="235" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:9" ht="23.25">
       <c r="A235" s="7">
         <f t="shared" si="8"/>
         <v>234</v>
@@ -5478,7 +5483,7 @@
       <c r="H235" s="8"/>
       <c r="I235" s="8"/>
     </row>
-    <row r="236" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:9" ht="23.25">
       <c r="A236" s="7">
         <f t="shared" si="8"/>
         <v>235</v>
@@ -5492,7 +5497,7 @@
       <c r="H236" s="8"/>
       <c r="I236" s="8"/>
     </row>
-    <row r="237" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:9" ht="23.25">
       <c r="A237" s="7">
         <f t="shared" si="8"/>
         <v>236</v>
@@ -5506,7 +5511,7 @@
       <c r="H237" s="8"/>
       <c r="I237" s="8"/>
     </row>
-    <row r="238" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:9" ht="23.25">
       <c r="A238" s="7">
         <f t="shared" si="8"/>
         <v>237</v>
@@ -5520,7 +5525,7 @@
       <c r="H238" s="8"/>
       <c r="I238" s="8"/>
     </row>
-    <row r="239" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:9" ht="23.25">
       <c r="A239" s="7">
         <f t="shared" si="8"/>
         <v>238</v>
@@ -5534,7 +5539,7 @@
       <c r="H239" s="8"/>
       <c r="I239" s="8"/>
     </row>
-    <row r="240" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:9" ht="23.25">
       <c r="A240" s="7">
         <f t="shared" si="8"/>
         <v>239</v>
@@ -5548,7 +5553,7 @@
       <c r="H240" s="8"/>
       <c r="I240" s="8"/>
     </row>
-    <row r="241" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:9" ht="23.25">
       <c r="A241" s="7">
         <f t="shared" si="8"/>
         <v>240</v>
@@ -5562,7 +5567,7 @@
       <c r="H241" s="8"/>
       <c r="I241" s="8"/>
     </row>
-    <row r="242" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:9" ht="23.25">
       <c r="A242" s="7">
         <f t="shared" si="8"/>
         <v>241</v>
@@ -5576,7 +5581,7 @@
       <c r="H242" s="8"/>
       <c r="I242" s="8"/>
     </row>
-    <row r="243" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:9" ht="23.25">
       <c r="A243" s="7">
         <f t="shared" si="8"/>
         <v>242</v>
@@ -5590,7 +5595,7 @@
       <c r="H243" s="8"/>
       <c r="I243" s="8"/>
     </row>
-    <row r="244" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:9" ht="23.25">
       <c r="A244" s="7">
         <f t="shared" si="8"/>
         <v>243</v>
@@ -5604,7 +5609,7 @@
       <c r="H244" s="8"/>
       <c r="I244" s="8"/>
     </row>
-    <row r="245" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:9" ht="23.25">
       <c r="A245" s="7">
         <f t="shared" si="8"/>
         <v>244</v>
@@ -5618,7 +5623,7 @@
       <c r="H245" s="8"/>
       <c r="I245" s="8"/>
     </row>
-    <row r="246" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:9" ht="23.25">
       <c r="A246" s="7">
         <f t="shared" si="8"/>
         <v>245</v>
@@ -5632,7 +5637,7 @@
       <c r="H246" s="8"/>
       <c r="I246" s="8"/>
     </row>
-    <row r="247" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:9" ht="23.25">
       <c r="A247" s="7">
         <f t="shared" si="8"/>
         <v>246</v>
@@ -5646,7 +5651,7 @@
       <c r="H247" s="8"/>
       <c r="I247" s="8"/>
     </row>
-    <row r="248" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:9" ht="23.25">
       <c r="A248" s="7">
         <f t="shared" si="8"/>
         <v>247</v>
@@ -5660,7 +5665,7 @@
       <c r="H248" s="8"/>
       <c r="I248" s="8"/>
     </row>
-    <row r="249" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:9" ht="23.25">
       <c r="A249" s="7">
         <f t="shared" si="8"/>
         <v>248</v>
@@ -5674,7 +5679,7 @@
       <c r="H249" s="8"/>
       <c r="I249" s="8"/>
     </row>
-    <row r="250" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:9" ht="23.25">
       <c r="A250" s="7">
         <f t="shared" si="8"/>
         <v>249</v>
@@ -5688,7 +5693,7 @@
       <c r="H250" s="8"/>
       <c r="I250" s="8"/>
     </row>
-    <row r="251" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:9" ht="23.25">
       <c r="A251" s="7">
         <f t="shared" si="8"/>
         <v>250</v>
@@ -5702,7 +5707,7 @@
       <c r="H251" s="8"/>
       <c r="I251" s="8"/>
     </row>
-    <row r="252" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:9" ht="23.25">
       <c r="A252" s="7">
         <f t="shared" si="8"/>
         <v>251</v>
@@ -5716,7 +5721,7 @@
       <c r="H252" s="8"/>
       <c r="I252" s="8"/>
     </row>
-    <row r="253" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:9" ht="23.25">
       <c r="A253" s="7">
         <f t="shared" si="8"/>
         <v>252</v>
@@ -5730,7 +5735,7 @@
       <c r="H253" s="8"/>
       <c r="I253" s="8"/>
     </row>
-    <row r="254" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:9" ht="23.25">
       <c r="A254" s="7">
         <f t="shared" si="8"/>
         <v>253</v>
@@ -5744,7 +5749,7 @@
       <c r="H254" s="8"/>
       <c r="I254" s="8"/>
     </row>
-    <row r="255" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:9" ht="23.25">
       <c r="A255" s="7">
         <f t="shared" si="8"/>
         <v>254</v>
@@ -5758,7 +5763,7 @@
       <c r="H255" s="8"/>
       <c r="I255" s="8"/>
     </row>
-    <row r="256" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:9" ht="23.25">
       <c r="A256" s="7">
         <f t="shared" si="8"/>
         <v>255</v>
@@ -5772,7 +5777,7 @@
       <c r="H256" s="8"/>
       <c r="I256" s="8"/>
     </row>
-    <row r="257" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:9" ht="23.25">
       <c r="A257" s="7">
         <f t="shared" si="8"/>
         <v>256</v>
@@ -5786,7 +5791,7 @@
       <c r="H257" s="8"/>
       <c r="I257" s="8"/>
     </row>
-    <row r="258" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:9" ht="23.25">
       <c r="A258" s="7">
         <f t="shared" si="8"/>
         <v>257</v>
@@ -5800,7 +5805,7 @@
       <c r="H258" s="8"/>
       <c r="I258" s="8"/>
     </row>
-    <row r="259" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:9" ht="23.25">
       <c r="A259" s="7">
         <f t="shared" si="8"/>
         <v>258</v>
@@ -5814,7 +5819,7 @@
       <c r="H259" s="8"/>
       <c r="I259" s="8"/>
     </row>
-    <row r="260" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:9" ht="23.25">
       <c r="A260" s="7">
         <f t="shared" si="8"/>
         <v>259</v>
@@ -5828,7 +5833,7 @@
       <c r="H260" s="8"/>
       <c r="I260" s="8"/>
     </row>
-    <row r="261" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:9" ht="23.25">
       <c r="A261" s="7">
         <f t="shared" si="8"/>
         <v>260</v>
@@ -5842,7 +5847,7 @@
       <c r="H261" s="8"/>
       <c r="I261" s="8"/>
     </row>
-    <row r="262" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:9" ht="23.25">
       <c r="A262" s="7">
         <f t="shared" si="8"/>
         <v>261</v>
@@ -5856,7 +5861,7 @@
       <c r="H262" s="8"/>
       <c r="I262" s="8"/>
     </row>
-    <row r="263" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:9" ht="23.25">
       <c r="A263" s="7">
         <f t="shared" si="8"/>
         <v>262</v>
@@ -5870,7 +5875,7 @@
       <c r="H263" s="8"/>
       <c r="I263" s="8"/>
     </row>
-    <row r="264" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:9" ht="23.25">
       <c r="A264" s="7">
         <f t="shared" ref="A264:A327" si="9">ROW(263:263)</f>
         <v>263</v>
@@ -5884,7 +5889,7 @@
       <c r="H264" s="8"/>
       <c r="I264" s="8"/>
     </row>
-    <row r="265" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:9" ht="23.25">
       <c r="A265" s="7">
         <f t="shared" si="9"/>
         <v>264</v>
@@ -5898,7 +5903,7 @@
       <c r="H265" s="8"/>
       <c r="I265" s="8"/>
     </row>
-    <row r="266" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:9" ht="23.25">
       <c r="A266" s="7">
         <f t="shared" si="9"/>
         <v>265</v>
@@ -5912,7 +5917,7 @@
       <c r="H266" s="8"/>
       <c r="I266" s="8"/>
     </row>
-    <row r="267" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:9" ht="23.25">
       <c r="A267" s="7">
         <f t="shared" si="9"/>
         <v>266</v>
@@ -5926,7 +5931,7 @@
       <c r="H267" s="8"/>
       <c r="I267" s="8"/>
     </row>
-    <row r="268" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:9" ht="23.25">
       <c r="A268" s="7">
         <f t="shared" si="9"/>
         <v>267</v>
@@ -5940,7 +5945,7 @@
       <c r="H268" s="8"/>
       <c r="I268" s="8"/>
     </row>
-    <row r="269" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:9" ht="23.25">
       <c r="A269" s="7">
         <f t="shared" si="9"/>
         <v>268</v>
@@ -5954,7 +5959,7 @@
       <c r="H269" s="8"/>
       <c r="I269" s="8"/>
     </row>
-    <row r="270" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:9" ht="23.25">
       <c r="A270" s="7">
         <f t="shared" si="9"/>
         <v>269</v>
@@ -5968,7 +5973,7 @@
       <c r="H270" s="8"/>
       <c r="I270" s="8"/>
     </row>
-    <row r="271" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:9" ht="23.25">
       <c r="A271" s="7">
         <f t="shared" si="9"/>
         <v>270</v>
@@ -5982,7 +5987,7 @@
       <c r="H271" s="8"/>
       <c r="I271" s="8"/>
     </row>
-    <row r="272" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:9" ht="23.25">
       <c r="A272" s="7">
         <f t="shared" si="9"/>
         <v>271</v>
@@ -5996,7 +6001,7 @@
       <c r="H272" s="8"/>
       <c r="I272" s="8"/>
     </row>
-    <row r="273" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:9" ht="23.25">
       <c r="A273" s="7">
         <f t="shared" si="9"/>
         <v>272</v>
@@ -6010,7 +6015,7 @@
       <c r="H273" s="8"/>
       <c r="I273" s="8"/>
     </row>
-    <row r="274" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:9" ht="23.25">
       <c r="A274" s="7">
         <f t="shared" si="9"/>
         <v>273</v>
@@ -6024,7 +6029,7 @@
       <c r="H274" s="8"/>
       <c r="I274" s="8"/>
     </row>
-    <row r="275" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:9" ht="23.25">
       <c r="A275" s="7">
         <f t="shared" si="9"/>
         <v>274</v>
@@ -6038,7 +6043,7 @@
       <c r="H275" s="8"/>
       <c r="I275" s="8"/>
     </row>
-    <row r="276" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:9" ht="23.25">
       <c r="A276" s="7">
         <f t="shared" si="9"/>
         <v>275</v>
@@ -6052,7 +6057,7 @@
       <c r="H276" s="8"/>
       <c r="I276" s="8"/>
     </row>
-    <row r="277" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:9" ht="23.25">
       <c r="A277" s="7">
         <f t="shared" si="9"/>
         <v>276</v>
@@ -6066,7 +6071,7 @@
       <c r="H277" s="8"/>
       <c r="I277" s="8"/>
     </row>
-    <row r="278" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:9" ht="23.25">
       <c r="A278" s="7">
         <f t="shared" si="9"/>
         <v>277</v>
@@ -6080,7 +6085,7 @@
       <c r="H278" s="8"/>
       <c r="I278" s="8"/>
     </row>
-    <row r="279" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:9" ht="23.25">
       <c r="A279" s="7">
         <f t="shared" si="9"/>
         <v>278</v>
@@ -6094,7 +6099,7 @@
       <c r="H279" s="8"/>
       <c r="I279" s="8"/>
     </row>
-    <row r="280" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:9" ht="23.25">
       <c r="A280" s="7">
         <f t="shared" si="9"/>
         <v>279</v>
@@ -6108,7 +6113,7 @@
       <c r="H280" s="8"/>
       <c r="I280" s="8"/>
     </row>
-    <row r="281" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:9" ht="23.25">
       <c r="A281" s="7">
         <f t="shared" si="9"/>
         <v>280</v>
@@ -6122,7 +6127,7 @@
       <c r="H281" s="8"/>
       <c r="I281" s="8"/>
     </row>
-    <row r="282" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:9" ht="23.25">
       <c r="A282" s="7">
         <f t="shared" si="9"/>
         <v>281</v>
@@ -6136,7 +6141,7 @@
       <c r="H282" s="8"/>
       <c r="I282" s="8"/>
     </row>
-    <row r="283" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:9" ht="23.25">
       <c r="A283" s="7">
         <f t="shared" si="9"/>
         <v>282</v>
@@ -6150,7 +6155,7 @@
       <c r="H283" s="8"/>
       <c r="I283" s="8"/>
     </row>
-    <row r="284" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:9" ht="23.25">
       <c r="A284" s="7">
         <f t="shared" si="9"/>
         <v>283</v>
@@ -6164,7 +6169,7 @@
       <c r="H284" s="8"/>
       <c r="I284" s="8"/>
     </row>
-    <row r="285" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:9" ht="23.25">
       <c r="A285" s="7">
         <f t="shared" si="9"/>
         <v>284</v>
@@ -6178,7 +6183,7 @@
       <c r="H285" s="8"/>
       <c r="I285" s="8"/>
     </row>
-    <row r="286" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:9" ht="23.25">
       <c r="A286" s="7">
         <f t="shared" si="9"/>
         <v>285</v>
@@ -6192,7 +6197,7 @@
       <c r="H286" s="8"/>
       <c r="I286" s="8"/>
     </row>
-    <row r="287" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:9" ht="23.25">
       <c r="A287" s="7">
         <f t="shared" si="9"/>
         <v>286</v>
@@ -6206,7 +6211,7 @@
       <c r="H287" s="8"/>
       <c r="I287" s="8"/>
     </row>
-    <row r="288" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:9" ht="23.25">
       <c r="A288" s="7">
         <f t="shared" si="9"/>
         <v>287</v>
@@ -6220,7 +6225,7 @@
       <c r="H288" s="8"/>
       <c r="I288" s="8"/>
     </row>
-    <row r="289" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:9" ht="23.25">
       <c r="A289" s="7">
         <f t="shared" si="9"/>
         <v>288</v>
@@ -6234,7 +6239,7 @@
       <c r="H289" s="8"/>
       <c r="I289" s="8"/>
     </row>
-    <row r="290" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:9" ht="23.25">
       <c r="A290" s="7">
         <f t="shared" si="9"/>
         <v>289</v>
@@ -6248,7 +6253,7 @@
       <c r="H290" s="8"/>
       <c r="I290" s="8"/>
     </row>
-    <row r="291" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:9" ht="23.25">
       <c r="A291" s="7">
         <f t="shared" si="9"/>
         <v>290</v>
@@ -6262,7 +6267,7 @@
       <c r="H291" s="8"/>
       <c r="I291" s="8"/>
     </row>
-    <row r="292" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:9" ht="23.25">
       <c r="A292" s="7">
         <f t="shared" si="9"/>
         <v>291</v>
@@ -6276,7 +6281,7 @@
       <c r="H292" s="8"/>
       <c r="I292" s="8"/>
     </row>
-    <row r="293" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:9" ht="23.25">
       <c r="A293" s="7">
         <f t="shared" si="9"/>
         <v>292</v>
@@ -6290,7 +6295,7 @@
       <c r="H293" s="8"/>
       <c r="I293" s="8"/>
     </row>
-    <row r="294" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:9" ht="23.25">
       <c r="A294" s="7">
         <f t="shared" si="9"/>
         <v>293</v>
@@ -6304,7 +6309,7 @@
       <c r="H294" s="8"/>
       <c r="I294" s="8"/>
     </row>
-    <row r="295" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:9" ht="23.25">
       <c r="A295" s="7">
         <f t="shared" si="9"/>
         <v>294</v>
@@ -6318,7 +6323,7 @@
       <c r="H295" s="8"/>
       <c r="I295" s="8"/>
     </row>
-    <row r="296" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:9" ht="23.25">
       <c r="A296" s="7">
         <f t="shared" si="9"/>
         <v>295</v>
@@ -6332,7 +6337,7 @@
       <c r="H296" s="8"/>
       <c r="I296" s="8"/>
     </row>
-    <row r="297" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:9" ht="23.25">
       <c r="A297" s="7">
         <f t="shared" si="9"/>
         <v>296</v>
@@ -6346,7 +6351,7 @@
       <c r="H297" s="8"/>
       <c r="I297" s="8"/>
     </row>
-    <row r="298" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:9" ht="23.25">
       <c r="A298" s="7">
         <f t="shared" si="9"/>
         <v>297</v>
@@ -6360,7 +6365,7 @@
       <c r="H298" s="8"/>
       <c r="I298" s="8"/>
     </row>
-    <row r="299" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:9" ht="23.25">
       <c r="A299" s="7">
         <f t="shared" si="9"/>
         <v>298</v>
@@ -6374,7 +6379,7 @@
       <c r="H299" s="8"/>
       <c r="I299" s="8"/>
     </row>
-    <row r="300" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:9" ht="23.25">
       <c r="A300" s="7">
         <f t="shared" si="9"/>
         <v>299</v>
@@ -6388,7 +6393,7 @@
       <c r="H300" s="8"/>
       <c r="I300" s="8"/>
     </row>
-    <row r="301" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:9" ht="23.25">
       <c r="A301" s="7">
         <f t="shared" si="9"/>
         <v>300</v>
@@ -6402,7 +6407,7 @@
       <c r="H301" s="8"/>
       <c r="I301" s="8"/>
     </row>
-    <row r="302" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:9" ht="23.25">
       <c r="A302" s="7">
         <f t="shared" si="9"/>
         <v>301</v>
@@ -6416,7 +6421,7 @@
       <c r="H302" s="8"/>
       <c r="I302" s="8"/>
     </row>
-    <row r="303" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:9" ht="23.25">
       <c r="A303" s="7">
         <f t="shared" si="9"/>
         <v>302</v>
@@ -6430,7 +6435,7 @@
       <c r="H303" s="8"/>
       <c r="I303" s="8"/>
     </row>
-    <row r="304" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:9" ht="23.25">
       <c r="A304" s="7">
         <f t="shared" si="9"/>
         <v>303</v>
@@ -6444,7 +6449,7 @@
       <c r="H304" s="8"/>
       <c r="I304" s="8"/>
     </row>
-    <row r="305" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:9" ht="23.25">
       <c r="A305" s="7">
         <f t="shared" si="9"/>
         <v>304</v>
@@ -6458,7 +6463,7 @@
       <c r="H305" s="8"/>
       <c r="I305" s="8"/>
     </row>
-    <row r="306" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:9" ht="23.25">
       <c r="A306" s="7">
         <f t="shared" si="9"/>
         <v>305</v>
@@ -6472,7 +6477,7 @@
       <c r="H306" s="8"/>
       <c r="I306" s="8"/>
     </row>
-    <row r="307" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:9" ht="23.25">
       <c r="A307" s="7">
         <f t="shared" si="9"/>
         <v>306</v>
@@ -6486,7 +6491,7 @@
       <c r="H307" s="8"/>
       <c r="I307" s="8"/>
     </row>
-    <row r="308" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:9" ht="23.25">
       <c r="A308" s="7">
         <f t="shared" si="9"/>
         <v>307</v>
@@ -6500,7 +6505,7 @@
       <c r="H308" s="8"/>
       <c r="I308" s="8"/>
     </row>
-    <row r="309" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:9" ht="23.25">
       <c r="A309" s="7">
         <f t="shared" si="9"/>
         <v>308</v>
@@ -6514,7 +6519,7 @@
       <c r="H309" s="8"/>
       <c r="I309" s="8"/>
     </row>
-    <row r="310" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:9" ht="23.25">
       <c r="A310" s="7">
         <f t="shared" si="9"/>
         <v>309</v>
@@ -6528,7 +6533,7 @@
       <c r="H310" s="8"/>
       <c r="I310" s="8"/>
     </row>
-    <row r="311" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:9" ht="23.25">
       <c r="A311" s="7">
         <f t="shared" si="9"/>
         <v>310</v>
@@ -6542,7 +6547,7 @@
       <c r="H311" s="8"/>
       <c r="I311" s="8"/>
     </row>
-    <row r="312" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:9" ht="23.25">
       <c r="A312" s="7">
         <f t="shared" si="9"/>
         <v>311</v>
@@ -6556,7 +6561,7 @@
       <c r="H312" s="8"/>
       <c r="I312" s="8"/>
     </row>
-    <row r="313" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:9" ht="23.25">
       <c r="A313" s="7">
         <f t="shared" si="9"/>
         <v>312</v>
@@ -6570,7 +6575,7 @@
       <c r="H313" s="8"/>
       <c r="I313" s="8"/>
     </row>
-    <row r="314" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:9" ht="23.25">
       <c r="A314" s="7">
         <f t="shared" si="9"/>
         <v>313</v>
@@ -6584,7 +6589,7 @@
       <c r="H314" s="8"/>
       <c r="I314" s="8"/>
     </row>
-    <row r="315" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:9" ht="23.25">
       <c r="A315" s="7">
         <f t="shared" si="9"/>
         <v>314</v>
@@ -6598,7 +6603,7 @@
       <c r="H315" s="8"/>
       <c r="I315" s="8"/>
     </row>
-    <row r="316" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:9" ht="23.25">
       <c r="A316" s="7">
         <f t="shared" si="9"/>
         <v>315</v>
@@ -6612,7 +6617,7 @@
       <c r="H316" s="8"/>
       <c r="I316" s="8"/>
     </row>
-    <row r="317" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:9" ht="23.25">
       <c r="A317" s="7">
         <f t="shared" si="9"/>
         <v>316</v>
@@ -6626,7 +6631,7 @@
       <c r="H317" s="8"/>
       <c r="I317" s="8"/>
     </row>
-    <row r="318" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:9" ht="23.25">
       <c r="A318" s="7">
         <f t="shared" si="9"/>
         <v>317</v>
@@ -6640,7 +6645,7 @@
       <c r="H318" s="8"/>
       <c r="I318" s="8"/>
     </row>
-    <row r="319" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:9" ht="23.25">
       <c r="A319" s="7">
         <f t="shared" si="9"/>
         <v>318</v>
@@ -6654,7 +6659,7 @@
       <c r="H319" s="8"/>
       <c r="I319" s="8"/>
     </row>
-    <row r="320" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:9" ht="23.25">
       <c r="A320" s="7">
         <f t="shared" si="9"/>
         <v>319</v>
@@ -6668,7 +6673,7 @@
       <c r="H320" s="8"/>
       <c r="I320" s="8"/>
     </row>
-    <row r="321" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:9" ht="23.25">
       <c r="A321" s="7">
         <f t="shared" si="9"/>
         <v>320</v>
@@ -6682,7 +6687,7 @@
       <c r="H321" s="8"/>
       <c r="I321" s="8"/>
     </row>
-    <row r="322" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:9" ht="23.25">
       <c r="A322" s="7">
         <f t="shared" si="9"/>
         <v>321</v>
@@ -6696,7 +6701,7 @@
       <c r="H322" s="8"/>
       <c r="I322" s="8"/>
     </row>
-    <row r="323" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:9" ht="23.25">
       <c r="A323" s="7">
         <f t="shared" si="9"/>
         <v>322</v>
@@ -6710,7 +6715,7 @@
       <c r="H323" s="8"/>
       <c r="I323" s="8"/>
     </row>
-    <row r="324" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:9" ht="23.25">
       <c r="A324" s="7">
         <f t="shared" si="9"/>
         <v>323</v>
@@ -6724,7 +6729,7 @@
       <c r="H324" s="8"/>
       <c r="I324" s="8"/>
     </row>
-    <row r="325" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:9" ht="23.25">
       <c r="A325" s="7">
         <f t="shared" si="9"/>
         <v>324</v>
@@ -6738,7 +6743,7 @@
       <c r="H325" s="8"/>
       <c r="I325" s="8"/>
     </row>
-    <row r="326" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:9" ht="23.25">
       <c r="A326" s="7">
         <f t="shared" si="9"/>
         <v>325</v>
@@ -6752,7 +6757,7 @@
       <c r="H326" s="8"/>
       <c r="I326" s="8"/>
     </row>
-    <row r="327" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:9" ht="23.25">
       <c r="A327" s="7">
         <f t="shared" si="9"/>
         <v>326</v>
@@ -6766,7 +6771,7 @@
       <c r="H327" s="8"/>
       <c r="I327" s="8"/>
     </row>
-    <row r="328" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:9" ht="23.25">
       <c r="A328" s="7">
         <f t="shared" ref="A328:A391" si="10">ROW(327:327)</f>
         <v>327</v>
@@ -6780,7 +6785,7 @@
       <c r="H328" s="8"/>
       <c r="I328" s="8"/>
     </row>
-    <row r="329" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:9" ht="23.25">
       <c r="A329" s="7">
         <f t="shared" si="10"/>
         <v>328</v>
@@ -6794,7 +6799,7 @@
       <c r="H329" s="8"/>
       <c r="I329" s="8"/>
     </row>
-    <row r="330" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:9" ht="23.25">
       <c r="A330" s="7">
         <f t="shared" si="10"/>
         <v>329</v>
@@ -6808,7 +6813,7 @@
       <c r="H330" s="8"/>
       <c r="I330" s="8"/>
     </row>
-    <row r="331" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:9" ht="23.25">
       <c r="A331" s="7">
         <f t="shared" si="10"/>
         <v>330</v>
@@ -6822,7 +6827,7 @@
       <c r="H331" s="8"/>
       <c r="I331" s="8"/>
     </row>
-    <row r="332" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:9" ht="23.25">
       <c r="A332" s="7">
         <f t="shared" si="10"/>
         <v>331</v>
@@ -6836,7 +6841,7 @@
       <c r="H332" s="8"/>
       <c r="I332" s="8"/>
     </row>
-    <row r="333" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:9" ht="23.25">
       <c r="A333" s="7">
         <f t="shared" si="10"/>
         <v>332</v>
@@ -6850,7 +6855,7 @@
       <c r="H333" s="8"/>
       <c r="I333" s="8"/>
     </row>
-    <row r="334" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:9" ht="23.25">
       <c r="A334" s="7">
         <f t="shared" si="10"/>
         <v>333</v>
@@ -6864,7 +6869,7 @@
       <c r="H334" s="8"/>
       <c r="I334" s="8"/>
     </row>
-    <row r="335" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:9" ht="23.25">
       <c r="A335" s="7">
         <f t="shared" si="10"/>
         <v>334</v>
@@ -6878,7 +6883,7 @@
       <c r="H335" s="8"/>
       <c r="I335" s="8"/>
     </row>
-    <row r="336" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:9" ht="23.25">
       <c r="A336" s="7">
         <f t="shared" si="10"/>
         <v>335</v>
@@ -6892,7 +6897,7 @@
       <c r="H336" s="8"/>
       <c r="I336" s="8"/>
     </row>
-    <row r="337" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:9" ht="23.25">
       <c r="A337" s="7">
         <f t="shared" si="10"/>
         <v>336</v>
@@ -6906,7 +6911,7 @@
       <c r="H337" s="8"/>
       <c r="I337" s="8"/>
     </row>
-    <row r="338" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:9" ht="23.25">
       <c r="A338" s="7">
         <f t="shared" si="10"/>
         <v>337</v>
@@ -6920,7 +6925,7 @@
       <c r="H338" s="8"/>
       <c r="I338" s="8"/>
     </row>
-    <row r="339" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:9" ht="23.25">
       <c r="A339" s="7">
         <f t="shared" si="10"/>
         <v>338</v>
@@ -6934,7 +6939,7 @@
       <c r="H339" s="8"/>
       <c r="I339" s="8"/>
     </row>
-    <row r="340" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:9" ht="23.25">
       <c r="A340" s="7">
         <f t="shared" si="10"/>
         <v>339</v>
@@ -6948,7 +6953,7 @@
       <c r="H340" s="8"/>
       <c r="I340" s="8"/>
     </row>
-    <row r="341" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:9" ht="23.25">
       <c r="A341" s="7">
         <f t="shared" si="10"/>
         <v>340</v>
@@ -6962,7 +6967,7 @@
       <c r="H341" s="8"/>
       <c r="I341" s="8"/>
     </row>
-    <row r="342" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:9" ht="23.25">
       <c r="A342" s="7">
         <f t="shared" si="10"/>
         <v>341</v>
@@ -6976,7 +6981,7 @@
       <c r="H342" s="8"/>
       <c r="I342" s="8"/>
     </row>
-    <row r="343" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:9" ht="23.25">
       <c r="A343" s="7">
         <f t="shared" si="10"/>
         <v>342</v>
@@ -6990,7 +6995,7 @@
       <c r="H343" s="8"/>
       <c r="I343" s="8"/>
     </row>
-    <row r="344" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:9" ht="23.25">
       <c r="A344" s="7">
         <f t="shared" si="10"/>
         <v>343</v>
@@ -7004,7 +7009,7 @@
       <c r="H344" s="8"/>
       <c r="I344" s="8"/>
     </row>
-    <row r="345" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:9" ht="23.25">
       <c r="A345" s="7">
         <f t="shared" si="10"/>
         <v>344</v>
@@ -7018,7 +7023,7 @@
       <c r="H345" s="8"/>
       <c r="I345" s="8"/>
     </row>
-    <row r="346" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:9" ht="23.25">
       <c r="A346" s="7">
         <f t="shared" si="10"/>
         <v>345</v>
@@ -7032,7 +7037,7 @@
       <c r="H346" s="8"/>
       <c r="I346" s="8"/>
     </row>
-    <row r="347" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:9" ht="23.25">
       <c r="A347" s="7">
         <f t="shared" si="10"/>
         <v>346</v>
@@ -7046,7 +7051,7 @@
       <c r="H347" s="8"/>
       <c r="I347" s="8"/>
     </row>
-    <row r="348" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:9" ht="23.25">
       <c r="A348" s="7">
         <f t="shared" si="10"/>
         <v>347</v>
@@ -7060,7 +7065,7 @@
       <c r="H348" s="8"/>
       <c r="I348" s="8"/>
     </row>
-    <row r="349" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:9" ht="23.25">
       <c r="A349" s="7">
         <f t="shared" si="10"/>
         <v>348</v>
@@ -7074,7 +7079,7 @@
       <c r="H349" s="8"/>
       <c r="I349" s="8"/>
     </row>
-    <row r="350" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:9" ht="23.25">
       <c r="A350" s="7">
         <f t="shared" si="10"/>
         <v>349</v>
@@ -7088,7 +7093,7 @@
       <c r="H350" s="8"/>
       <c r="I350" s="8"/>
     </row>
-    <row r="351" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:9" ht="23.25">
       <c r="A351" s="7">
         <f t="shared" si="10"/>
         <v>350</v>
@@ -7102,7 +7107,7 @@
       <c r="H351" s="8"/>
       <c r="I351" s="8"/>
     </row>
-    <row r="352" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:9" ht="23.25">
       <c r="A352" s="7">
         <f t="shared" si="10"/>
         <v>351</v>
@@ -7116,7 +7121,7 @@
       <c r="H352" s="8"/>
       <c r="I352" s="8"/>
     </row>
-    <row r="353" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:9" ht="23.25">
       <c r="A353" s="7">
         <f t="shared" si="10"/>
         <v>352</v>
@@ -7130,7 +7135,7 @@
       <c r="H353" s="8"/>
       <c r="I353" s="8"/>
     </row>
-    <row r="354" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:9" ht="23.25">
       <c r="A354" s="7">
         <f t="shared" si="10"/>
         <v>353</v>
@@ -7144,7 +7149,7 @@
       <c r="H354" s="8"/>
       <c r="I354" s="8"/>
     </row>
-    <row r="355" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:9" ht="23.25">
       <c r="A355" s="7">
         <f t="shared" si="10"/>
         <v>354</v>
@@ -7158,7 +7163,7 @@
       <c r="H355" s="8"/>
       <c r="I355" s="8"/>
     </row>
-    <row r="356" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:9" ht="23.25">
       <c r="A356" s="7">
         <f t="shared" si="10"/>
         <v>355</v>
@@ -7172,7 +7177,7 @@
       <c r="H356" s="8"/>
       <c r="I356" s="8"/>
     </row>
-    <row r="357" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:9" ht="23.25">
       <c r="A357" s="7">
         <f t="shared" si="10"/>
         <v>356</v>
@@ -7186,7 +7191,7 @@
       <c r="H357" s="8"/>
       <c r="I357" s="8"/>
     </row>
-    <row r="358" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:9" ht="23.25">
       <c r="A358" s="7">
         <f t="shared" si="10"/>
         <v>357</v>
@@ -7200,7 +7205,7 @@
       <c r="H358" s="8"/>
       <c r="I358" s="8"/>
     </row>
-    <row r="359" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:9" ht="23.25">
       <c r="A359" s="7">
         <f t="shared" si="10"/>
         <v>358</v>
@@ -7214,7 +7219,7 @@
       <c r="H359" s="8"/>
       <c r="I359" s="8"/>
     </row>
-    <row r="360" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:9" ht="23.25">
       <c r="A360" s="7">
         <f t="shared" si="10"/>
         <v>359</v>
@@ -7228,7 +7233,7 @@
       <c r="H360" s="8"/>
       <c r="I360" s="8"/>
     </row>
-    <row r="361" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:9" ht="23.25">
       <c r="A361" s="7">
         <f t="shared" si="10"/>
         <v>360</v>
@@ -7242,7 +7247,7 @@
       <c r="H361" s="8"/>
       <c r="I361" s="8"/>
     </row>
-    <row r="362" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:9" ht="23.25">
       <c r="A362" s="7">
         <f t="shared" si="10"/>
         <v>361</v>
@@ -7256,7 +7261,7 @@
       <c r="H362" s="8"/>
       <c r="I362" s="8"/>
     </row>
-    <row r="363" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:9" ht="23.25">
       <c r="A363" s="7">
         <f t="shared" si="10"/>
         <v>362</v>
@@ -7270,7 +7275,7 @@
       <c r="H363" s="8"/>
       <c r="I363" s="8"/>
     </row>
-    <row r="364" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:9" ht="23.25">
       <c r="A364" s="7">
         <f t="shared" si="10"/>
         <v>363</v>
@@ -7284,7 +7289,7 @@
       <c r="H364" s="8"/>
       <c r="I364" s="8"/>
     </row>
-    <row r="365" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:9" ht="23.25">
       <c r="A365" s="7">
         <f t="shared" si="10"/>
         <v>364</v>
@@ -7298,7 +7303,7 @@
       <c r="H365" s="8"/>
       <c r="I365" s="8"/>
     </row>
-    <row r="366" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:9" ht="23.25">
       <c r="A366" s="7">
         <f t="shared" si="10"/>
         <v>365</v>
@@ -7312,7 +7317,7 @@
       <c r="H366" s="8"/>
       <c r="I366" s="8"/>
     </row>
-    <row r="367" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:9" ht="23.25">
       <c r="A367" s="7">
         <f t="shared" si="10"/>
         <v>366</v>
@@ -7326,7 +7331,7 @@
       <c r="H367" s="8"/>
       <c r="I367" s="8"/>
     </row>
-    <row r="368" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:9" ht="23.25">
       <c r="A368" s="7">
         <f t="shared" si="10"/>
         <v>367</v>
@@ -7340,7 +7345,7 @@
       <c r="H368" s="8"/>
       <c r="I368" s="8"/>
     </row>
-    <row r="369" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:9" ht="23.25">
       <c r="A369" s="7">
         <f t="shared" si="10"/>
         <v>368</v>
@@ -7354,7 +7359,7 @@
       <c r="H369" s="8"/>
       <c r="I369" s="8"/>
     </row>
-    <row r="370" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:9" ht="23.25">
       <c r="A370" s="7">
         <f t="shared" si="10"/>
         <v>369</v>
@@ -7368,7 +7373,7 @@
       <c r="H370" s="8"/>
       <c r="I370" s="8"/>
     </row>
-    <row r="371" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:9" ht="23.25">
       <c r="A371" s="7">
         <f t="shared" si="10"/>
         <v>370</v>
@@ -7382,7 +7387,7 @@
       <c r="H371" s="8"/>
       <c r="I371" s="8"/>
     </row>
-    <row r="372" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:9" ht="23.25">
       <c r="A372" s="7">
         <f t="shared" si="10"/>
         <v>371</v>
@@ -7396,7 +7401,7 @@
       <c r="H372" s="8"/>
       <c r="I372" s="8"/>
     </row>
-    <row r="373" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:9" ht="23.25">
       <c r="A373" s="7">
         <f t="shared" si="10"/>
         <v>372</v>
@@ -7410,7 +7415,7 @@
       <c r="H373" s="8"/>
       <c r="I373" s="8"/>
     </row>
-    <row r="374" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:9" ht="23.25">
       <c r="A374" s="7">
         <f t="shared" si="10"/>
         <v>373</v>
@@ -7424,7 +7429,7 @@
       <c r="H374" s="8"/>
       <c r="I374" s="8"/>
     </row>
-    <row r="375" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:9" ht="23.25">
       <c r="A375" s="7">
         <f t="shared" si="10"/>
         <v>374</v>
@@ -7438,7 +7443,7 @@
       <c r="H375" s="8"/>
       <c r="I375" s="8"/>
     </row>
-    <row r="376" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:9" ht="23.25">
       <c r="A376" s="7">
         <f t="shared" si="10"/>
         <v>375</v>
@@ -7452,7 +7457,7 @@
       <c r="H376" s="8"/>
       <c r="I376" s="8"/>
     </row>
-    <row r="377" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:9" ht="23.25">
       <c r="A377" s="7">
         <f t="shared" si="10"/>
         <v>376</v>
@@ -7466,7 +7471,7 @@
       <c r="H377" s="8"/>
       <c r="I377" s="8"/>
     </row>
-    <row r="378" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:9" ht="23.25">
       <c r="A378" s="7">
         <f t="shared" si="10"/>
         <v>377</v>
@@ -7480,7 +7485,7 @@
       <c r="H378" s="8"/>
       <c r="I378" s="8"/>
     </row>
-    <row r="379" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:9" ht="23.25">
       <c r="A379" s="7">
         <f t="shared" si="10"/>
         <v>378</v>
@@ -7494,7 +7499,7 @@
       <c r="H379" s="8"/>
       <c r="I379" s="8"/>
     </row>
-    <row r="380" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:9" ht="23.25">
       <c r="A380" s="7">
         <f t="shared" si="10"/>
         <v>379</v>
@@ -7508,7 +7513,7 @@
       <c r="H380" s="8"/>
       <c r="I380" s="8"/>
     </row>
-    <row r="381" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:9" ht="23.25">
       <c r="A381" s="7">
         <f t="shared" si="10"/>
         <v>380</v>
@@ -7522,7 +7527,7 @@
       <c r="H381" s="8"/>
       <c r="I381" s="8"/>
     </row>
-    <row r="382" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:9" ht="23.25">
       <c r="A382" s="7">
         <f t="shared" si="10"/>
         <v>381</v>
@@ -7536,7 +7541,7 @@
       <c r="H382" s="8"/>
       <c r="I382" s="8"/>
     </row>
-    <row r="383" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:9" ht="23.25">
       <c r="A383" s="7">
         <f t="shared" si="10"/>
         <v>382</v>
@@ -7550,7 +7555,7 @@
       <c r="H383" s="8"/>
       <c r="I383" s="8"/>
     </row>
-    <row r="384" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:9" ht="23.25">
       <c r="A384" s="7">
         <f t="shared" si="10"/>
         <v>383</v>
@@ -7564,7 +7569,7 @@
       <c r="H384" s="8"/>
       <c r="I384" s="8"/>
     </row>
-    <row r="385" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:9" ht="23.25">
       <c r="A385" s="7">
         <f t="shared" si="10"/>
         <v>384</v>
@@ -7578,7 +7583,7 @@
       <c r="H385" s="8"/>
       <c r="I385" s="8"/>
     </row>
-    <row r="386" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:9" ht="23.25">
       <c r="A386" s="7">
         <f t="shared" si="10"/>
         <v>385</v>
@@ -7592,7 +7597,7 @@
       <c r="H386" s="8"/>
       <c r="I386" s="8"/>
     </row>
-    <row r="387" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:9" ht="23.25">
       <c r="A387" s="7">
         <f t="shared" si="10"/>
         <v>386</v>
@@ -7606,7 +7611,7 @@
       <c r="H387" s="8"/>
       <c r="I387" s="8"/>
     </row>
-    <row r="388" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:9" ht="23.25">
       <c r="A388" s="7">
         <f t="shared" si="10"/>
         <v>387</v>
@@ -7620,7 +7625,7 @@
       <c r="H388" s="8"/>
       <c r="I388" s="8"/>
     </row>
-    <row r="389" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:9" ht="23.25">
       <c r="A389" s="7">
         <f t="shared" si="10"/>
         <v>388</v>
@@ -7634,7 +7639,7 @@
       <c r="H389" s="8"/>
       <c r="I389" s="8"/>
     </row>
-    <row r="390" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:9" ht="23.25">
       <c r="A390" s="7">
         <f t="shared" si="10"/>
         <v>389</v>
@@ -7648,7 +7653,7 @@
       <c r="H390" s="8"/>
       <c r="I390" s="8"/>
     </row>
-    <row r="391" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:9" ht="23.25">
       <c r="A391" s="7">
         <f t="shared" si="10"/>
         <v>390</v>
@@ -7662,7 +7667,7 @@
       <c r="H391" s="8"/>
       <c r="I391" s="8"/>
     </row>
-    <row r="392" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:9" ht="23.25">
       <c r="A392" s="7">
         <f t="shared" ref="A392:A455" si="11">ROW(391:391)</f>
         <v>391</v>
@@ -7676,7 +7681,7 @@
       <c r="H392" s="8"/>
       <c r="I392" s="8"/>
     </row>
-    <row r="393" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:9" ht="23.25">
       <c r="A393" s="7">
         <f t="shared" si="11"/>
         <v>392</v>
@@ -7690,7 +7695,7 @@
       <c r="H393" s="8"/>
       <c r="I393" s="8"/>
     </row>
-    <row r="394" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:9" ht="23.25">
       <c r="A394" s="7">
         <f t="shared" si="11"/>
         <v>393</v>
@@ -7704,7 +7709,7 @@
       <c r="H394" s="8"/>
       <c r="I394" s="8"/>
     </row>
-    <row r="395" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:9" ht="23.25">
       <c r="A395" s="7">
         <f t="shared" si="11"/>
         <v>394</v>
@@ -7718,7 +7723,7 @@
       <c r="H395" s="8"/>
       <c r="I395" s="8"/>
     </row>
-    <row r="396" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:9" ht="23.25">
       <c r="A396" s="7">
         <f t="shared" si="11"/>
         <v>395</v>
@@ -7732,7 +7737,7 @@
       <c r="H396" s="8"/>
       <c r="I396" s="8"/>
     </row>
-    <row r="397" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:9" ht="23.25">
       <c r="A397" s="7">
         <f t="shared" si="11"/>
         <v>396</v>
@@ -7746,7 +7751,7 @@
       <c r="H397" s="8"/>
       <c r="I397" s="8"/>
     </row>
-    <row r="398" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:9" ht="23.25">
       <c r="A398" s="7">
         <f t="shared" si="11"/>
         <v>397</v>
@@ -7760,7 +7765,7 @@
       <c r="H398" s="8"/>
       <c r="I398" s="8"/>
     </row>
-    <row r="399" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:9" ht="23.25">
       <c r="A399" s="7">
         <f t="shared" si="11"/>
         <v>398</v>
@@ -7774,7 +7779,7 @@
       <c r="H399" s="8"/>
       <c r="I399" s="8"/>
     </row>
-    <row r="400" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:9" ht="23.25">
       <c r="A400" s="7">
         <f t="shared" si="11"/>
         <v>399</v>
@@ -7788,7 +7793,7 @@
       <c r="H400" s="8"/>
       <c r="I400" s="8"/>
     </row>
-    <row r="401" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:9" ht="23.25">
       <c r="A401" s="7">
         <f t="shared" si="11"/>
         <v>400</v>
@@ -7802,7 +7807,7 @@
       <c r="H401" s="8"/>
       <c r="I401" s="8"/>
     </row>
-    <row r="402" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:9" ht="23.25">
       <c r="A402" s="7">
         <f t="shared" si="11"/>
         <v>401</v>
@@ -7816,7 +7821,7 @@
       <c r="H402" s="8"/>
       <c r="I402" s="8"/>
     </row>
-    <row r="403" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:9" ht="23.25">
       <c r="A403" s="7">
         <f t="shared" si="11"/>
         <v>402</v>
@@ -7830,7 +7835,7 @@
       <c r="H403" s="8"/>
       <c r="I403" s="8"/>
     </row>
-    <row r="404" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:9" ht="23.25">
       <c r="A404" s="7">
         <f t="shared" si="11"/>
         <v>403</v>
@@ -7844,7 +7849,7 @@
       <c r="H404" s="8"/>
       <c r="I404" s="8"/>
     </row>
-    <row r="405" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:9" ht="23.25">
       <c r="A405" s="7">
         <f t="shared" si="11"/>
         <v>404</v>
@@ -7858,7 +7863,7 @@
       <c r="H405" s="8"/>
       <c r="I405" s="8"/>
     </row>
-    <row r="406" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:9" ht="23.25">
       <c r="A406" s="7">
         <f t="shared" si="11"/>
         <v>405</v>
@@ -7872,7 +7877,7 @@
       <c r="H406" s="8"/>
       <c r="I406" s="8"/>
     </row>
-    <row r="407" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:9" ht="23.25">
       <c r="A407" s="7">
         <f t="shared" si="11"/>
         <v>406</v>
@@ -7886,7 +7891,7 @@
       <c r="H407" s="8"/>
       <c r="I407" s="8"/>
     </row>
-    <row r="408" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:9" ht="23.25">
       <c r="A408" s="7">
         <f t="shared" si="11"/>
         <v>407</v>
@@ -7900,7 +7905,7 @@
       <c r="H408" s="8"/>
       <c r="I408" s="8"/>
     </row>
-    <row r="409" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:9" ht="23.25">
       <c r="A409" s="7">
         <f t="shared" si="11"/>
         <v>408</v>
@@ -7914,7 +7919,7 @@
       <c r="H409" s="8"/>
       <c r="I409" s="8"/>
     </row>
-    <row r="410" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:9" ht="23.25">
       <c r="A410" s="7">
         <f t="shared" si="11"/>
         <v>409</v>
@@ -7928,7 +7933,7 @@
       <c r="H410" s="8"/>
       <c r="I410" s="8"/>
     </row>
-    <row r="411" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:9" ht="23.25">
       <c r="A411" s="7">
         <f t="shared" si="11"/>
         <v>410</v>
@@ -7942,7 +7947,7 @@
       <c r="H411" s="8"/>
       <c r="I411" s="8"/>
     </row>
-    <row r="412" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:9" ht="23.25">
       <c r="A412" s="7">
         <f t="shared" si="11"/>
         <v>411</v>
@@ -7956,7 +7961,7 @@
       <c r="H412" s="8"/>
       <c r="I412" s="8"/>
     </row>
-    <row r="413" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:9" ht="23.25">
       <c r="A413" s="7">
         <f t="shared" si="11"/>
         <v>412</v>
@@ -7970,7 +7975,7 @@
       <c r="H413" s="8"/>
       <c r="I413" s="8"/>
     </row>
-    <row r="414" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:9" ht="23.25">
       <c r="A414" s="7">
         <f t="shared" si="11"/>
         <v>413</v>
@@ -7984,7 +7989,7 @@
       <c r="H414" s="8"/>
       <c r="I414" s="8"/>
     </row>
-    <row r="415" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:9" ht="23.25">
       <c r="A415" s="7">
         <f t="shared" si="11"/>
         <v>414</v>
@@ -7998,7 +8003,7 @@
       <c r="H415" s="8"/>
       <c r="I415" s="8"/>
     </row>
-    <row r="416" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:9" ht="23.25">
       <c r="A416" s="7">
         <f t="shared" si="11"/>
         <v>415</v>
@@ -8012,7 +8017,7 @@
       <c r="H416" s="8"/>
       <c r="I416" s="8"/>
     </row>
-    <row r="417" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:9" ht="23.25">
       <c r="A417" s="7">
         <f t="shared" si="11"/>
         <v>416</v>
@@ -8026,7 +8031,7 @@
       <c r="H417" s="8"/>
       <c r="I417" s="8"/>
     </row>
-    <row r="418" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:9" ht="23.25">
       <c r="A418" s="7">
         <f t="shared" si="11"/>
         <v>417</v>
@@ -8040,7 +8045,7 @@
       <c r="H418" s="8"/>
       <c r="I418" s="8"/>
     </row>
-    <row r="419" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:9" ht="23.25">
       <c r="A419" s="7">
         <f t="shared" si="11"/>
         <v>418</v>
@@ -8054,7 +8059,7 @@
       <c r="H419" s="8"/>
       <c r="I419" s="8"/>
     </row>
-    <row r="420" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:9" ht="23.25">
       <c r="A420" s="7">
         <f t="shared" si="11"/>
         <v>419</v>
@@ -8068,7 +8073,7 @@
       <c r="H420" s="8"/>
       <c r="I420" s="8"/>
     </row>
-    <row r="421" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:9" ht="23.25">
       <c r="A421" s="7">
         <f t="shared" si="11"/>
         <v>420</v>
@@ -8082,7 +8087,7 @@
       <c r="H421" s="8"/>
       <c r="I421" s="8"/>
     </row>
-    <row r="422" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:9" ht="23.25">
       <c r="A422" s="7">
         <f t="shared" si="11"/>
         <v>421</v>
@@ -8096,7 +8101,7 @@
       <c r="H422" s="8"/>
       <c r="I422" s="8"/>
     </row>
-    <row r="423" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:9" ht="23.25">
       <c r="A423" s="7">
         <f t="shared" si="11"/>
         <v>422</v>
@@ -8110,7 +8115,7 @@
       <c r="H423" s="8"/>
       <c r="I423" s="8"/>
     </row>
-    <row r="424" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:9" ht="23.25">
       <c r="A424" s="7">
         <f t="shared" si="11"/>
         <v>423</v>
@@ -8124,7 +8129,7 @@
       <c r="H424" s="8"/>
       <c r="I424" s="8"/>
     </row>
-    <row r="425" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:9" ht="23.25">
       <c r="A425" s="7">
         <f t="shared" si="11"/>
         <v>424</v>
@@ -8138,7 +8143,7 @@
       <c r="H425" s="8"/>
       <c r="I425" s="8"/>
     </row>
-    <row r="426" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:9" ht="23.25">
       <c r="A426" s="7">
         <f t="shared" si="11"/>
         <v>425</v>
@@ -8152,7 +8157,7 @@
       <c r="H426" s="8"/>
       <c r="I426" s="8"/>
     </row>
-    <row r="427" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:9" ht="23.25">
       <c r="A427" s="7">
         <f t="shared" si="11"/>
         <v>426</v>
@@ -8166,7 +8171,7 @@
       <c r="H427" s="8"/>
       <c r="I427" s="8"/>
     </row>
-    <row r="428" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:9" ht="23.25">
       <c r="A428" s="7">
         <f t="shared" si="11"/>
         <v>427</v>
@@ -8180,7 +8185,7 @@
       <c r="H428" s="8"/>
       <c r="I428" s="8"/>
     </row>
-    <row r="429" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:9" ht="23.25">
       <c r="A429" s="7">
         <f t="shared" si="11"/>
         <v>428</v>
@@ -8194,7 +8199,7 @@
       <c r="H429" s="8"/>
       <c r="I429" s="8"/>
     </row>
-    <row r="430" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:9" ht="23.25">
       <c r="A430" s="7">
         <f t="shared" si="11"/>
         <v>429</v>
@@ -8208,7 +8213,7 @@
       <c r="H430" s="8"/>
       <c r="I430" s="8"/>
     </row>
-    <row r="431" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:9" ht="23.25">
       <c r="A431" s="7">
         <f t="shared" si="11"/>
         <v>430</v>
@@ -8222,7 +8227,7 @@
       <c r="H431" s="8"/>
       <c r="I431" s="8"/>
     </row>
-    <row r="432" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:9" ht="23.25">
       <c r="A432" s="7">
         <f t="shared" si="11"/>
         <v>431</v>
@@ -8236,7 +8241,7 @@
       <c r="H432" s="8"/>
       <c r="I432" s="8"/>
     </row>
-    <row r="433" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:9" ht="23.25">
       <c r="A433" s="7">
         <f t="shared" si="11"/>
         <v>432</v>
@@ -8250,7 +8255,7 @@
       <c r="H433" s="8"/>
       <c r="I433" s="8"/>
     </row>
-    <row r="434" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:9" ht="23.25">
       <c r="A434" s="7">
         <f t="shared" si="11"/>
         <v>433</v>
@@ -8264,7 +8269,7 @@
       <c r="H434" s="8"/>
       <c r="I434" s="8"/>
     </row>
-    <row r="435" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:9" ht="23.25">
       <c r="A435" s="7">
         <f t="shared" si="11"/>
         <v>434</v>
@@ -8278,7 +8283,7 @@
       <c r="H435" s="8"/>
       <c r="I435" s="8"/>
     </row>
-    <row r="436" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:9" ht="23.25">
       <c r="A436" s="7">
         <f t="shared" si="11"/>
         <v>435</v>
@@ -8292,7 +8297,7 @@
       <c r="H436" s="8"/>
       <c r="I436" s="8"/>
     </row>
-    <row r="437" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:9" ht="23.25">
       <c r="A437" s="7">
         <f t="shared" si="11"/>
         <v>436</v>
@@ -8306,7 +8311,7 @@
       <c r="H437" s="8"/>
       <c r="I437" s="8"/>
     </row>
-    <row r="438" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:9" ht="23.25">
       <c r="A438" s="7">
         <f t="shared" si="11"/>
         <v>437</v>
@@ -8320,7 +8325,7 @@
       <c r="H438" s="8"/>
       <c r="I438" s="8"/>
     </row>
-    <row r="439" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="439" spans="1:9" ht="23.25">
       <c r="A439" s="7">
         <f t="shared" si="11"/>
         <v>438</v>
@@ -8334,7 +8339,7 @@
       <c r="H439" s="8"/>
       <c r="I439" s="8"/>
     </row>
-    <row r="440" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:9" ht="23.25">
       <c r="A440" s="7">
         <f t="shared" si="11"/>
         <v>439</v>
@@ -8348,7 +8353,7 @@
       <c r="H440" s="8"/>
       <c r="I440" s="8"/>
     </row>
-    <row r="441" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:9" ht="23.25">
       <c r="A441" s="7">
         <f t="shared" si="11"/>
         <v>440</v>
@@ -8362,7 +8367,7 @@
       <c r="H441" s="8"/>
       <c r="I441" s="8"/>
     </row>
-    <row r="442" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="442" spans="1:9" ht="23.25">
       <c r="A442" s="7">
         <f t="shared" si="11"/>
         <v>441</v>
@@ -8376,7 +8381,7 @@
       <c r="H442" s="8"/>
       <c r="I442" s="8"/>
     </row>
-    <row r="443" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="443" spans="1:9" ht="23.25">
       <c r="A443" s="7">
         <f t="shared" si="11"/>
         <v>442</v>
@@ -8390,7 +8395,7 @@
       <c r="H443" s="8"/>
       <c r="I443" s="8"/>
     </row>
-    <row r="444" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="444" spans="1:9" ht="23.25">
       <c r="A444" s="7">
         <f t="shared" si="11"/>
         <v>443</v>
@@ -8404,7 +8409,7 @@
       <c r="H444" s="8"/>
       <c r="I444" s="8"/>
     </row>
-    <row r="445" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:9" ht="23.25">
       <c r="A445" s="7">
         <f t="shared" si="11"/>
         <v>444</v>
@@ -8418,7 +8423,7 @@
       <c r="H445" s="8"/>
       <c r="I445" s="8"/>
     </row>
-    <row r="446" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="446" spans="1:9" ht="23.25">
       <c r="A446" s="7">
         <f t="shared" si="11"/>
         <v>445</v>
@@ -8432,7 +8437,7 @@
       <c r="H446" s="8"/>
       <c r="I446" s="8"/>
     </row>
-    <row r="447" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="447" spans="1:9" ht="23.25">
       <c r="A447" s="7">
         <f t="shared" si="11"/>
         <v>446</v>
@@ -8446,7 +8451,7 @@
       <c r="H447" s="8"/>
       <c r="I447" s="8"/>
     </row>
-    <row r="448" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:9" ht="23.25">
       <c r="A448" s="7">
         <f t="shared" si="11"/>
         <v>447</v>
@@ -8460,7 +8465,7 @@
       <c r="H448" s="8"/>
       <c r="I448" s="8"/>
     </row>
-    <row r="449" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:9" ht="23.25">
       <c r="A449" s="7">
         <f t="shared" si="11"/>
         <v>448</v>
@@ -8474,7 +8479,7 @@
       <c r="H449" s="8"/>
       <c r="I449" s="8"/>
     </row>
-    <row r="450" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:9" ht="23.25">
       <c r="A450" s="7">
         <f t="shared" si="11"/>
         <v>449</v>
@@ -8488,7 +8493,7 @@
       <c r="H450" s="8"/>
       <c r="I450" s="8"/>
     </row>
-    <row r="451" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:9" ht="23.25">
       <c r="A451" s="7">
         <f t="shared" si="11"/>
         <v>450</v>
@@ -8502,7 +8507,7 @@
       <c r="H451" s="8"/>
       <c r="I451" s="8"/>
     </row>
-    <row r="452" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="452" spans="1:9" ht="23.25">
       <c r="A452" s="7">
         <f t="shared" si="11"/>
         <v>451</v>
@@ -8516,7 +8521,7 @@
       <c r="H452" s="8"/>
       <c r="I452" s="8"/>
     </row>
-    <row r="453" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="453" spans="1:9" ht="23.25">
       <c r="A453" s="7">
         <f t="shared" si="11"/>
         <v>452</v>
@@ -8530,7 +8535,7 @@
       <c r="H453" s="8"/>
       <c r="I453" s="8"/>
     </row>
-    <row r="454" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="454" spans="1:9" ht="23.25">
       <c r="A454" s="7">
         <f t="shared" si="11"/>
         <v>453</v>
@@ -8544,7 +8549,7 @@
       <c r="H454" s="8"/>
       <c r="I454" s="8"/>
     </row>
-    <row r="455" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="455" spans="1:9" ht="23.25">
       <c r="A455" s="7">
         <f t="shared" si="11"/>
         <v>454</v>
@@ -8558,7 +8563,7 @@
       <c r="H455" s="8"/>
       <c r="I455" s="8"/>
     </row>
-    <row r="456" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="456" spans="1:9" ht="23.25">
       <c r="A456" s="7">
         <f t="shared" ref="A456:A519" si="12">ROW(455:455)</f>
         <v>455</v>
@@ -8572,7 +8577,7 @@
       <c r="H456" s="8"/>
       <c r="I456" s="8"/>
     </row>
-    <row r="457" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="457" spans="1:9" ht="23.25">
       <c r="A457" s="7">
         <f t="shared" si="12"/>
         <v>456</v>
@@ -8586,7 +8591,7 @@
       <c r="H457" s="8"/>
       <c r="I457" s="8"/>
     </row>
-    <row r="458" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="458" spans="1:9" ht="23.25">
       <c r="A458" s="7">
         <f t="shared" si="12"/>
         <v>457</v>
@@ -8600,7 +8605,7 @@
       <c r="H458" s="8"/>
       <c r="I458" s="8"/>
     </row>
-    <row r="459" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="459" spans="1:9" ht="23.25">
       <c r="A459" s="7">
         <f t="shared" si="12"/>
         <v>458</v>
@@ -8614,7 +8619,7 @@
       <c r="H459" s="8"/>
       <c r="I459" s="8"/>
     </row>
-    <row r="460" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="460" spans="1:9" ht="23.25">
       <c r="A460" s="7">
         <f t="shared" si="12"/>
         <v>459</v>
@@ -8628,7 +8633,7 @@
       <c r="H460" s="8"/>
       <c r="I460" s="8"/>
     </row>
-    <row r="461" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="461" spans="1:9" ht="23.25">
       <c r="A461" s="7">
         <f t="shared" si="12"/>
         <v>460</v>
@@ -8642,7 +8647,7 @@
       <c r="H461" s="8"/>
       <c r="I461" s="8"/>
     </row>
-    <row r="462" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="462" spans="1:9" ht="23.25">
       <c r="A462" s="7">
         <f t="shared" si="12"/>
         <v>461</v>
@@ -8656,7 +8661,7 @@
       <c r="H462" s="8"/>
       <c r="I462" s="8"/>
     </row>
-    <row r="463" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="463" spans="1:9" ht="23.25">
       <c r="A463" s="7">
         <f t="shared" si="12"/>
         <v>462</v>
@@ -8670,7 +8675,7 @@
       <c r="H463" s="8"/>
       <c r="I463" s="8"/>
     </row>
-    <row r="464" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="464" spans="1:9" ht="23.25">
       <c r="A464" s="7">
         <f t="shared" si="12"/>
         <v>463</v>
@@ -8684,7 +8689,7 @@
       <c r="H464" s="8"/>
       <c r="I464" s="8"/>
     </row>
-    <row r="465" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="465" spans="1:9" ht="23.25">
       <c r="A465" s="7">
         <f t="shared" si="12"/>
         <v>464</v>
@@ -8698,7 +8703,7 @@
       <c r="H465" s="8"/>
       <c r="I465" s="8"/>
     </row>
-    <row r="466" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="466" spans="1:9" ht="23.25">
       <c r="A466" s="7">
         <f t="shared" si="12"/>
         <v>465</v>
@@ -8712,7 +8717,7 @@
       <c r="H466" s="8"/>
       <c r="I466" s="8"/>
     </row>
-    <row r="467" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="467" spans="1:9" ht="23.25">
       <c r="A467" s="7">
         <f t="shared" si="12"/>
         <v>466</v>
@@ -8726,7 +8731,7 @@
       <c r="H467" s="8"/>
       <c r="I467" s="8"/>
     </row>
-    <row r="468" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="468" spans="1:9" ht="23.25">
       <c r="A468" s="7">
         <f t="shared" si="12"/>
         <v>467</v>
@@ -8740,7 +8745,7 @@
       <c r="H468" s="8"/>
       <c r="I468" s="8"/>
     </row>
-    <row r="469" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="469" spans="1:9" ht="23.25">
       <c r="A469" s="7">
         <f t="shared" si="12"/>
         <v>468</v>
@@ -8754,7 +8759,7 @@
       <c r="H469" s="8"/>
       <c r="I469" s="8"/>
     </row>
-    <row r="470" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="470" spans="1:9" ht="23.25">
       <c r="A470" s="7">
         <f t="shared" si="12"/>
         <v>469</v>
@@ -8768,7 +8773,7 @@
       <c r="H470" s="8"/>
       <c r="I470" s="8"/>
     </row>
-    <row r="471" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="471" spans="1:9" ht="23.25">
       <c r="A471" s="7">
         <f t="shared" si="12"/>
         <v>470</v>
@@ -8782,7 +8787,7 @@
       <c r="H471" s="8"/>
       <c r="I471" s="8"/>
     </row>
-    <row r="472" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="472" spans="1:9" ht="23.25">
       <c r="A472" s="7">
         <f t="shared" si="12"/>
         <v>471</v>
@@ -8796,7 +8801,7 @@
       <c r="H472" s="8"/>
       <c r="I472" s="8"/>
     </row>
-    <row r="473" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="473" spans="1:9" ht="23.25">
       <c r="A473" s="7">
         <f t="shared" si="12"/>
         <v>472</v>
@@ -8810,7 +8815,7 @@
       <c r="H473" s="8"/>
       <c r="I473" s="8"/>
     </row>
-    <row r="474" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="474" spans="1:9" ht="23.25">
       <c r="A474" s="7">
         <f t="shared" si="12"/>
         <v>473</v>
@@ -8824,7 +8829,7 @@
       <c r="H474" s="8"/>
       <c r="I474" s="8"/>
     </row>
-    <row r="475" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="475" spans="1:9" ht="23.25">
       <c r="A475" s="7">
         <f t="shared" si="12"/>
         <v>474</v>
@@ -8838,7 +8843,7 @@
       <c r="H475" s="8"/>
       <c r="I475" s="8"/>
     </row>
-    <row r="476" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="476" spans="1:9" ht="23.25">
       <c r="A476" s="7">
         <f t="shared" si="12"/>
         <v>475</v>
@@ -8852,7 +8857,7 @@
       <c r="H476" s="8"/>
       <c r="I476" s="8"/>
     </row>
-    <row r="477" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="477" spans="1:9" ht="23.25">
       <c r="A477" s="7">
         <f t="shared" si="12"/>
         <v>476</v>
@@ -8866,7 +8871,7 @@
       <c r="H477" s="8"/>
       <c r="I477" s="8"/>
     </row>
-    <row r="478" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="478" spans="1:9" ht="23.25">
       <c r="A478" s="7">
         <f t="shared" si="12"/>
         <v>477</v>
@@ -8880,7 +8885,7 @@
       <c r="H478" s="8"/>
       <c r="I478" s="8"/>
     </row>
-    <row r="479" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="479" spans="1:9" ht="23.25">
       <c r="A479" s="7">
         <f t="shared" si="12"/>
         <v>478</v>
@@ -8894,7 +8899,7 @@
       <c r="H479" s="8"/>
       <c r="I479" s="8"/>
     </row>
-    <row r="480" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="480" spans="1:9" ht="23.25">
       <c r="A480" s="7">
         <f t="shared" si="12"/>
         <v>479</v>
@@ -8908,7 +8913,7 @@
       <c r="H480" s="8"/>
       <c r="I480" s="8"/>
     </row>
-    <row r="481" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="481" spans="1:9" ht="23.25">
       <c r="A481" s="7">
         <f t="shared" si="12"/>
         <v>480</v>
@@ -8922,7 +8927,7 @@
       <c r="H481" s="8"/>
       <c r="I481" s="8"/>
     </row>
-    <row r="482" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="482" spans="1:9" ht="23.25">
       <c r="A482" s="7">
         <f t="shared" si="12"/>
         <v>481</v>
@@ -8936,7 +8941,7 @@
       <c r="H482" s="8"/>
       <c r="I482" s="8"/>
     </row>
-    <row r="483" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="483" spans="1:9" ht="23.25">
       <c r="A483" s="7">
         <f t="shared" si="12"/>
         <v>482</v>
@@ -8950,7 +8955,7 @@
       <c r="H483" s="8"/>
       <c r="I483" s="8"/>
     </row>
-    <row r="484" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="484" spans="1:9" ht="23.25">
       <c r="A484" s="7">
         <f t="shared" si="12"/>
         <v>483</v>
@@ -8964,7 +8969,7 @@
       <c r="H484" s="8"/>
       <c r="I484" s="8"/>
     </row>
-    <row r="485" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="485" spans="1:9" ht="23.25">
       <c r="A485" s="7">
         <f t="shared" si="12"/>
         <v>484</v>
@@ -8978,7 +8983,7 @@
       <c r="H485" s="8"/>
       <c r="I485" s="8"/>
     </row>
-    <row r="486" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="486" spans="1:9" ht="23.25">
       <c r="A486" s="7">
         <f t="shared" si="12"/>
         <v>485</v>
@@ -8992,7 +8997,7 @@
       <c r="H486" s="8"/>
       <c r="I486" s="8"/>
     </row>
-    <row r="487" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="487" spans="1:9" ht="23.25">
       <c r="A487" s="7">
         <f t="shared" si="12"/>
         <v>486</v>
@@ -9006,7 +9011,7 @@
       <c r="H487" s="8"/>
       <c r="I487" s="8"/>
     </row>
-    <row r="488" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="488" spans="1:9" ht="23.25">
       <c r="A488" s="7">
         <f t="shared" si="12"/>
         <v>487</v>
@@ -9020,7 +9025,7 @@
       <c r="H488" s="8"/>
       <c r="I488" s="8"/>
     </row>
-    <row r="489" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="489" spans="1:9" ht="23.25">
       <c r="A489" s="7">
         <f t="shared" si="12"/>
         <v>488</v>
@@ -9034,7 +9039,7 @@
       <c r="H489" s="8"/>
       <c r="I489" s="8"/>
     </row>
-    <row r="490" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="490" spans="1:9" ht="23.25">
       <c r="A490" s="7">
         <f t="shared" si="12"/>
         <v>489</v>
@@ -9048,7 +9053,7 @@
       <c r="H490" s="8"/>
       <c r="I490" s="8"/>
     </row>
-    <row r="491" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="491" spans="1:9" ht="23.25">
       <c r="A491" s="7">
         <f t="shared" si="12"/>
         <v>490</v>
@@ -9062,7 +9067,7 @@
       <c r="H491" s="8"/>
       <c r="I491" s="8"/>
     </row>
-    <row r="492" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="492" spans="1:9" ht="23.25">
       <c r="A492" s="7">
         <f t="shared" si="12"/>
         <v>491</v>
@@ -9076,7 +9081,7 @@
       <c r="H492" s="8"/>
       <c r="I492" s="8"/>
     </row>
-    <row r="493" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="493" spans="1:9" ht="23.25">
       <c r="A493" s="7">
         <f t="shared" si="12"/>
         <v>492</v>
@@ -9090,7 +9095,7 @@
       <c r="H493" s="8"/>
       <c r="I493" s="8"/>
     </row>
-    <row r="494" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="494" spans="1:9" ht="23.25">
       <c r="A494" s="7">
         <f t="shared" si="12"/>
         <v>493</v>
@@ -9104,7 +9109,7 @@
       <c r="H494" s="8"/>
       <c r="I494" s="8"/>
     </row>
-    <row r="495" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="495" spans="1:9" ht="23.25">
       <c r="A495" s="7">
         <f t="shared" si="12"/>
         <v>494</v>
@@ -9118,7 +9123,7 @@
       <c r="H495" s="8"/>
       <c r="I495" s="8"/>
     </row>
-    <row r="496" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="496" spans="1:9" ht="23.25">
       <c r="A496" s="7">
         <f t="shared" si="12"/>
         <v>495</v>
@@ -9132,7 +9137,7 @@
       <c r="H496" s="8"/>
       <c r="I496" s="8"/>
     </row>
-    <row r="497" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="497" spans="1:9" ht="23.25">
       <c r="A497" s="7">
         <f t="shared" si="12"/>
         <v>496</v>
@@ -9146,7 +9151,7 @@
       <c r="H497" s="8"/>
       <c r="I497" s="8"/>
     </row>
-    <row r="498" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="498" spans="1:9" ht="23.25">
       <c r="A498" s="7">
         <f t="shared" si="12"/>
         <v>497</v>
@@ -9160,7 +9165,7 @@
       <c r="H498" s="8"/>
       <c r="I498" s="8"/>
     </row>
-    <row r="499" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="499" spans="1:9" ht="23.25">
       <c r="A499" s="7">
         <f t="shared" si="12"/>
         <v>498</v>
@@ -9174,7 +9179,7 @@
       <c r="H499" s="8"/>
       <c r="I499" s="8"/>
     </row>
-    <row r="500" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="500" spans="1:9" ht="23.25">
       <c r="A500" s="7">
         <f t="shared" si="12"/>
         <v>499</v>
@@ -9188,7 +9193,7 @@
       <c r="H500" s="8"/>
       <c r="I500" s="8"/>
     </row>
-    <row r="501" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="501" spans="1:9" ht="23.25">
       <c r="A501" s="7">
         <f t="shared" si="12"/>
         <v>500</v>
@@ -9202,7 +9207,7 @@
       <c r="H501" s="8"/>
       <c r="I501" s="8"/>
     </row>
-    <row r="502" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="502" spans="1:9" ht="23.25">
       <c r="A502" s="7">
         <f t="shared" si="12"/>
         <v>501</v>
@@ -9216,7 +9221,7 @@
       <c r="H502" s="8"/>
       <c r="I502" s="8"/>
     </row>
-    <row r="503" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="503" spans="1:9" ht="23.25">
       <c r="A503" s="7">
         <f t="shared" si="12"/>
         <v>502</v>
@@ -9230,7 +9235,7 @@
       <c r="H503" s="8"/>
       <c r="I503" s="8"/>
     </row>
-    <row r="504" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="504" spans="1:9" ht="23.25">
       <c r="A504" s="7">
         <f t="shared" si="12"/>
         <v>503</v>
@@ -9244,7 +9249,7 @@
       <c r="H504" s="8"/>
       <c r="I504" s="8"/>
     </row>
-    <row r="505" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="505" spans="1:9" ht="23.25">
       <c r="A505" s="7">
         <f t="shared" si="12"/>
         <v>504</v>
@@ -9258,7 +9263,7 @@
       <c r="H505" s="8"/>
       <c r="I505" s="8"/>
     </row>
-    <row r="506" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="506" spans="1:9" ht="23.25">
       <c r="A506" s="7">
         <f t="shared" si="12"/>
         <v>505</v>
@@ -9272,7 +9277,7 @@
       <c r="H506" s="8"/>
       <c r="I506" s="8"/>
     </row>
-    <row r="507" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="507" spans="1:9" ht="23.25">
       <c r="A507" s="7">
         <f t="shared" si="12"/>
         <v>506</v>
@@ -9286,7 +9291,7 @@
       <c r="H507" s="8"/>
       <c r="I507" s="8"/>
     </row>
-    <row r="508" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="508" spans="1:9" ht="23.25">
       <c r="A508" s="7">
         <f t="shared" si="12"/>
         <v>507</v>
@@ -9300,7 +9305,7 @@
       <c r="H508" s="8"/>
       <c r="I508" s="8"/>
     </row>
-    <row r="509" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="509" spans="1:9" ht="23.25">
       <c r="A509" s="7">
         <f t="shared" si="12"/>
         <v>508</v>
@@ -9314,7 +9319,7 @@
       <c r="H509" s="8"/>
       <c r="I509" s="8"/>
     </row>
-    <row r="510" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="510" spans="1:9" ht="23.25">
       <c r="A510" s="7">
         <f t="shared" si="12"/>
         <v>509</v>
@@ -9328,7 +9333,7 @@
       <c r="H510" s="8"/>
       <c r="I510" s="8"/>
     </row>
-    <row r="511" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="511" spans="1:9" ht="23.25">
       <c r="A511" s="7">
         <f t="shared" si="12"/>
         <v>510</v>
@@ -9342,7 +9347,7 @@
       <c r="H511" s="8"/>
       <c r="I511" s="8"/>
     </row>
-    <row r="512" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="512" spans="1:9" ht="23.25">
       <c r="A512" s="7">
         <f t="shared" si="12"/>
         <v>511</v>
@@ -9356,7 +9361,7 @@
       <c r="H512" s="8"/>
       <c r="I512" s="8"/>
     </row>
-    <row r="513" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="513" spans="1:9" ht="23.25">
       <c r="A513" s="7">
         <f t="shared" si="12"/>
         <v>512</v>
@@ -9370,7 +9375,7 @@
       <c r="H513" s="8"/>
       <c r="I513" s="8"/>
     </row>
-    <row r="514" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="514" spans="1:9" ht="23.25">
       <c r="A514" s="7">
         <f t="shared" si="12"/>
         <v>513</v>
@@ -9384,7 +9389,7 @@
       <c r="H514" s="8"/>
       <c r="I514" s="8"/>
     </row>
-    <row r="515" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="515" spans="1:9" ht="23.25">
       <c r="A515" s="7">
         <f t="shared" si="12"/>
         <v>514</v>
@@ -9398,7 +9403,7 @@
       <c r="H515" s="8"/>
       <c r="I515" s="8"/>
     </row>
-    <row r="516" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="516" spans="1:9" ht="23.25">
       <c r="A516" s="7">
         <f t="shared" si="12"/>
         <v>515</v>
@@ -9412,7 +9417,7 @@
       <c r="H516" s="8"/>
       <c r="I516" s="8"/>
     </row>
-    <row r="517" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="517" spans="1:9" ht="23.25">
       <c r="A517" s="7">
         <f t="shared" si="12"/>
         <v>516</v>
@@ -9426,7 +9431,7 @@
       <c r="H517" s="8"/>
       <c r="I517" s="8"/>
     </row>
-    <row r="518" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="518" spans="1:9" ht="23.25">
       <c r="A518" s="7">
         <f t="shared" si="12"/>
         <v>517</v>
@@ -9440,7 +9445,7 @@
       <c r="H518" s="8"/>
       <c r="I518" s="8"/>
     </row>
-    <row r="519" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="519" spans="1:9" ht="23.25">
       <c r="A519" s="7">
         <f t="shared" si="12"/>
         <v>518</v>
@@ -9454,7 +9459,7 @@
       <c r="H519" s="8"/>
       <c r="I519" s="8"/>
     </row>
-    <row r="520" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="520" spans="1:9" ht="23.25">
       <c r="A520" s="7">
         <f t="shared" ref="A520:A583" si="13">ROW(519:519)</f>
         <v>519</v>
@@ -9468,7 +9473,7 @@
       <c r="H520" s="8"/>
       <c r="I520" s="8"/>
     </row>
-    <row r="521" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="521" spans="1:9" ht="23.25">
       <c r="A521" s="7">
         <f t="shared" si="13"/>
         <v>520</v>
@@ -9482,7 +9487,7 @@
       <c r="H521" s="8"/>
       <c r="I521" s="8"/>
     </row>
-    <row r="522" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="522" spans="1:9" ht="23.25">
       <c r="A522" s="7">
         <f t="shared" si="13"/>
         <v>521</v>
@@ -9496,7 +9501,7 @@
       <c r="H522" s="8"/>
       <c r="I522" s="8"/>
     </row>
-    <row r="523" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="523" spans="1:9" ht="23.25">
       <c r="A523" s="7">
         <f t="shared" si="13"/>
         <v>522</v>
@@ -9510,7 +9515,7 @@
       <c r="H523" s="8"/>
       <c r="I523" s="8"/>
     </row>
-    <row r="524" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="524" spans="1:9" ht="23.25">
       <c r="A524" s="7">
         <f t="shared" si="13"/>
         <v>523</v>
@@ -9524,7 +9529,7 @@
       <c r="H524" s="8"/>
       <c r="I524" s="8"/>
     </row>
-    <row r="525" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="525" spans="1:9" ht="23.25">
       <c r="A525" s="7">
         <f t="shared" si="13"/>
         <v>524</v>
@@ -9538,7 +9543,7 @@
       <c r="H525" s="8"/>
       <c r="I525" s="8"/>
     </row>
-    <row r="526" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="526" spans="1:9" ht="23.25">
       <c r="A526" s="7">
         <f t="shared" si="13"/>
         <v>525</v>
@@ -9552,7 +9557,7 @@
       <c r="H526" s="8"/>
       <c r="I526" s="8"/>
     </row>
-    <row r="527" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="527" spans="1:9" ht="23.25">
       <c r="A527" s="7">
         <f t="shared" si="13"/>
         <v>526</v>
@@ -9566,7 +9571,7 @@
       <c r="H527" s="8"/>
       <c r="I527" s="8"/>
     </row>
-    <row r="528" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="528" spans="1:9" ht="23.25">
       <c r="A528" s="7">
         <f t="shared" si="13"/>
         <v>527</v>
@@ -9580,7 +9585,7 @@
       <c r="H528" s="8"/>
       <c r="I528" s="8"/>
     </row>
-    <row r="529" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="529" spans="1:9" ht="23.25">
       <c r="A529" s="7">
         <f t="shared" si="13"/>
         <v>528</v>
@@ -9594,7 +9599,7 @@
       <c r="H529" s="8"/>
       <c r="I529" s="8"/>
     </row>
-    <row r="530" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="530" spans="1:9" ht="23.25">
       <c r="A530" s="7">
         <f t="shared" si="13"/>
         <v>529</v>
@@ -9608,7 +9613,7 @@
       <c r="H530" s="8"/>
       <c r="I530" s="8"/>
     </row>
-    <row r="531" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="531" spans="1:9" ht="23.25">
       <c r="A531" s="7">
         <f t="shared" si="13"/>
         <v>530</v>
@@ -9622,7 +9627,7 @@
       <c r="H531" s="8"/>
       <c r="I531" s="8"/>
     </row>
-    <row r="532" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="532" spans="1:9" ht="23.25">
       <c r="A532" s="7">
         <f t="shared" si="13"/>
         <v>531</v>
@@ -9636,7 +9641,7 @@
       <c r="H532" s="8"/>
       <c r="I532" s="8"/>
     </row>
-    <row r="533" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="533" spans="1:9" ht="23.25">
       <c r="A533" s="7">
         <f t="shared" si="13"/>
         <v>532</v>
@@ -9650,7 +9655,7 @@
       <c r="H533" s="8"/>
       <c r="I533" s="8"/>
     </row>
-    <row r="534" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="534" spans="1:9" ht="23.25">
       <c r="A534" s="7">
         <f t="shared" si="13"/>
         <v>533</v>
@@ -9664,7 +9669,7 @@
       <c r="H534" s="8"/>
       <c r="I534" s="8"/>
     </row>
-    <row r="535" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="535" spans="1:9" ht="23.25">
       <c r="A535" s="7">
         <f t="shared" si="13"/>
         <v>534</v>
@@ -9678,7 +9683,7 @@
       <c r="H535" s="8"/>
       <c r="I535" s="8"/>
     </row>
-    <row r="536" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="536" spans="1:9" ht="23.25">
       <c r="A536" s="7">
         <f t="shared" si="13"/>
         <v>535</v>
@@ -9692,7 +9697,7 @@
       <c r="H536" s="8"/>
       <c r="I536" s="8"/>
     </row>
-    <row r="537" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="537" spans="1:9" ht="23.25">
       <c r="A537" s="7">
         <f t="shared" si="13"/>
         <v>536</v>
@@ -9706,7 +9711,7 @@
       <c r="H537" s="8"/>
       <c r="I537" s="8"/>
     </row>
-    <row r="538" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="538" spans="1:9" ht="23.25">
       <c r="A538" s="7">
         <f t="shared" si="13"/>
         <v>537</v>
@@ -9720,7 +9725,7 @@
       <c r="H538" s="8"/>
       <c r="I538" s="8"/>
     </row>
-    <row r="539" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="539" spans="1:9" ht="23.25">
       <c r="A539" s="7">
         <f t="shared" si="13"/>
         <v>538</v>
@@ -9734,7 +9739,7 @@
       <c r="H539" s="8"/>
       <c r="I539" s="8"/>
     </row>
-    <row r="540" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="540" spans="1:9" ht="23.25">
       <c r="A540" s="7">
         <f t="shared" si="13"/>
         <v>539</v>
@@ -9748,7 +9753,7 @@
       <c r="H540" s="8"/>
       <c r="I540" s="8"/>
     </row>
-    <row r="541" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="541" spans="1:9" ht="23.25">
       <c r="A541" s="7">
         <f t="shared" si="13"/>
         <v>540</v>
@@ -9762,7 +9767,7 @@
       <c r="H541" s="8"/>
       <c r="I541" s="8"/>
     </row>
-    <row r="542" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="542" spans="1:9" ht="23.25">
       <c r="A542" s="7">
         <f t="shared" si="13"/>
         <v>541</v>
@@ -9776,7 +9781,7 @@
       <c r="H542" s="8"/>
       <c r="I542" s="8"/>
     </row>
-    <row r="543" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="543" spans="1:9" ht="23.25">
       <c r="A543" s="7">
         <f t="shared" si="13"/>
         <v>542</v>
@@ -9790,7 +9795,7 @@
       <c r="H543" s="8"/>
       <c r="I543" s="8"/>
     </row>
-    <row r="544" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="544" spans="1:9" ht="23.25">
       <c r="A544" s="7">
         <f t="shared" si="13"/>
         <v>543</v>
@@ -9804,7 +9809,7 @@
       <c r="H544" s="8"/>
       <c r="I544" s="8"/>
     </row>
-    <row r="545" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="545" spans="1:9" ht="23.25">
       <c r="A545" s="7">
         <f t="shared" si="13"/>
         <v>544</v>
@@ -9818,7 +9823,7 @@
       <c r="H545" s="8"/>
       <c r="I545" s="8"/>
     </row>
-    <row r="546" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="546" spans="1:9" ht="23.25">
       <c r="A546" s="7">
         <f t="shared" si="13"/>
         <v>545</v>
@@ -9832,7 +9837,7 @@
       <c r="H546" s="8"/>
       <c r="I546" s="8"/>
     </row>
-    <row r="547" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="547" spans="1:9" ht="23.25">
       <c r="A547" s="7">
         <f t="shared" si="13"/>
         <v>546</v>
@@ -9846,7 +9851,7 @@
       <c r="H547" s="8"/>
       <c r="I547" s="8"/>
     </row>
-    <row r="548" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="548" spans="1:9" ht="23.25">
       <c r="A548" s="7">
         <f t="shared" si="13"/>
         <v>547</v>
@@ -9860,7 +9865,7 @@
       <c r="H548" s="8"/>
       <c r="I548" s="8"/>
     </row>
-    <row r="549" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="549" spans="1:9" ht="23.25">
       <c r="A549" s="7">
         <f t="shared" si="13"/>
         <v>548</v>
@@ -9874,7 +9879,7 @@
       <c r="H549" s="8"/>
       <c r="I549" s="8"/>
     </row>
-    <row r="550" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="550" spans="1:9" ht="23.25">
       <c r="A550" s="7">
         <f t="shared" si="13"/>
         <v>549</v>
@@ -9888,7 +9893,7 @@
       <c r="H550" s="8"/>
       <c r="I550" s="8"/>
     </row>
-    <row r="551" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="551" spans="1:9" ht="23.25">
       <c r="A551" s="7">
         <f t="shared" si="13"/>
         <v>550</v>
@@ -9902,7 +9907,7 @@
       <c r="H551" s="8"/>
       <c r="I551" s="8"/>
     </row>
-    <row r="552" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="552" spans="1:9" ht="23.25">
       <c r="A552" s="7">
         <f t="shared" si="13"/>
         <v>551</v>
@@ -9916,7 +9921,7 @@
       <c r="H552" s="8"/>
       <c r="I552" s="8"/>
     </row>
-    <row r="553" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="553" spans="1:9" ht="23.25">
       <c r="A553" s="7">
         <f t="shared" si="13"/>
         <v>552</v>
@@ -9930,7 +9935,7 @@
       <c r="H553" s="8"/>
       <c r="I553" s="8"/>
     </row>
-    <row r="554" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="554" spans="1:9" ht="23.25">
       <c r="A554" s="7">
         <f t="shared" si="13"/>
         <v>553</v>
@@ -9944,7 +9949,7 @@
       <c r="H554" s="8"/>
       <c r="I554" s="8"/>
     </row>
-    <row r="555" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="555" spans="1:9" ht="23.25">
       <c r="A555" s="7">
         <f t="shared" si="13"/>
         <v>554</v>
@@ -9958,7 +9963,7 @@
       <c r="H555" s="8"/>
       <c r="I555" s="8"/>
     </row>
-    <row r="556" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="556" spans="1:9" ht="23.25">
       <c r="A556" s="7">
         <f t="shared" si="13"/>
         <v>555</v>
@@ -9972,7 +9977,7 @@
       <c r="H556" s="8"/>
       <c r="I556" s="8"/>
     </row>
-    <row r="557" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="557" spans="1:9" ht="23.25">
       <c r="A557" s="7">
         <f t="shared" si="13"/>
         <v>556</v>
@@ -9986,7 +9991,7 @@
       <c r="H557" s="8"/>
       <c r="I557" s="8"/>
     </row>
-    <row r="558" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="558" spans="1:9" ht="23.25">
       <c r="A558" s="7">
         <f t="shared" si="13"/>
         <v>557</v>
@@ -10000,7 +10005,7 @@
       <c r="H558" s="8"/>
       <c r="I558" s="8"/>
     </row>
-    <row r="559" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="559" spans="1:9" ht="23.25">
       <c r="A559" s="7">
         <f t="shared" si="13"/>
         <v>558</v>
@@ -10014,7 +10019,7 @@
       <c r="H559" s="8"/>
       <c r="I559" s="8"/>
     </row>
-    <row r="560" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="560" spans="1:9" ht="23.25">
       <c r="A560" s="7">
         <f t="shared" si="13"/>
         <v>559</v>
@@ -10028,7 +10033,7 @@
       <c r="H560" s="8"/>
       <c r="I560" s="8"/>
     </row>
-    <row r="561" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="561" spans="1:9" ht="23.25">
       <c r="A561" s="7">
         <f t="shared" si="13"/>
         <v>560</v>
@@ -10042,7 +10047,7 @@
       <c r="H561" s="8"/>
       <c r="I561" s="8"/>
     </row>
-    <row r="562" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="562" spans="1:9" ht="23.25">
       <c r="A562" s="7">
         <f t="shared" si="13"/>
         <v>561</v>
@@ -10056,7 +10061,7 @@
       <c r="H562" s="8"/>
       <c r="I562" s="8"/>
     </row>
-    <row r="563" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="563" spans="1:9" ht="23.25">
       <c r="A563" s="7">
         <f t="shared" si="13"/>
         <v>562</v>
@@ -10070,7 +10075,7 @@
       <c r="H563" s="8"/>
       <c r="I563" s="8"/>
     </row>
-    <row r="564" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="564" spans="1:9" ht="23.25">
       <c r="A564" s="7">
         <f t="shared" si="13"/>
         <v>563</v>
@@ -10084,7 +10089,7 @@
       <c r="H564" s="8"/>
       <c r="I564" s="8"/>
     </row>
-    <row r="565" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="565" spans="1:9" ht="23.25">
       <c r="A565" s="7">
         <f t="shared" si="13"/>
         <v>564</v>
@@ -10098,7 +10103,7 @@
       <c r="H565" s="8"/>
       <c r="I565" s="8"/>
     </row>
-    <row r="566" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="566" spans="1:9" ht="23.25">
       <c r="A566" s="7">
         <f t="shared" si="13"/>
         <v>565</v>
@@ -10112,7 +10117,7 @@
       <c r="H566" s="8"/>
       <c r="I566" s="8"/>
     </row>
-    <row r="567" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="567" spans="1:9" ht="23.25">
       <c r="A567" s="7">
         <f t="shared" si="13"/>
         <v>566</v>
@@ -10126,7 +10131,7 @@
       <c r="H567" s="8"/>
       <c r="I567" s="8"/>
     </row>
-    <row r="568" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="568" spans="1:9" ht="23.25">
       <c r="A568" s="7">
         <f t="shared" si="13"/>
         <v>567</v>
@@ -10140,7 +10145,7 @@
       <c r="H568" s="8"/>
       <c r="I568" s="8"/>
     </row>
-    <row r="569" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="569" spans="1:9" ht="23.25">
       <c r="A569" s="7">
         <f t="shared" si="13"/>
         <v>568</v>
@@ -10154,7 +10159,7 @@
       <c r="H569" s="8"/>
       <c r="I569" s="8"/>
     </row>
-    <row r="570" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="570" spans="1:9" ht="23.25">
       <c r="A570" s="7">
         <f t="shared" si="13"/>
         <v>569</v>
@@ -10168,7 +10173,7 @@
       <c r="H570" s="8"/>
       <c r="I570" s="8"/>
     </row>
-    <row r="571" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="571" spans="1:9" ht="23.25">
       <c r="A571" s="7">
         <f t="shared" si="13"/>
         <v>570</v>
@@ -10182,7 +10187,7 @@
       <c r="H571" s="8"/>
       <c r="I571" s="8"/>
     </row>
-    <row r="572" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="572" spans="1:9" ht="23.25">
       <c r="A572" s="7">
         <f t="shared" si="13"/>
         <v>571</v>
@@ -10196,7 +10201,7 @@
       <c r="H572" s="8"/>
       <c r="I572" s="8"/>
     </row>
-    <row r="573" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="573" spans="1:9" ht="23.25">
       <c r="A573" s="7">
         <f t="shared" si="13"/>
         <v>572</v>
@@ -10210,7 +10215,7 @@
       <c r="H573" s="8"/>
       <c r="I573" s="8"/>
     </row>
-    <row r="574" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="574" spans="1:9" ht="23.25">
       <c r="A574" s="7">
         <f t="shared" si="13"/>
         <v>573</v>
@@ -10224,7 +10229,7 @@
       <c r="H574" s="8"/>
       <c r="I574" s="8"/>
     </row>
-    <row r="575" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="575" spans="1:9" ht="23.25">
       <c r="A575" s="7">
         <f t="shared" si="13"/>
         <v>574</v>
@@ -10238,7 +10243,7 @@
       <c r="H575" s="8"/>
       <c r="I575" s="8"/>
     </row>
-    <row r="576" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="576" spans="1:9" ht="23.25">
       <c r="A576" s="7">
         <f t="shared" si="13"/>
         <v>575</v>
@@ -10252,7 +10257,7 @@
       <c r="H576" s="8"/>
       <c r="I576" s="8"/>
     </row>
-    <row r="577" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="577" spans="1:9" ht="23.25">
       <c r="A577" s="7">
         <f t="shared" si="13"/>
         <v>576</v>
@@ -10266,7 +10271,7 @@
       <c r="H577" s="8"/>
       <c r="I577" s="8"/>
     </row>
-    <row r="578" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="578" spans="1:9" ht="23.25">
       <c r="A578" s="7">
         <f t="shared" si="13"/>
         <v>577</v>
@@ -10280,7 +10285,7 @@
       <c r="H578" s="8"/>
       <c r="I578" s="8"/>
     </row>
-    <row r="579" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="579" spans="1:9" ht="23.25">
       <c r="A579" s="7">
         <f t="shared" si="13"/>
         <v>578</v>
@@ -10294,7 +10299,7 @@
       <c r="H579" s="8"/>
       <c r="I579" s="8"/>
     </row>
-    <row r="580" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="580" spans="1:9" ht="23.25">
       <c r="A580" s="7">
         <f t="shared" si="13"/>
         <v>579</v>
@@ -10308,7 +10313,7 @@
       <c r="H580" s="8"/>
       <c r="I580" s="8"/>
     </row>
-    <row r="581" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="581" spans="1:9" ht="23.25">
       <c r="A581" s="7">
         <f t="shared" si="13"/>
         <v>580</v>
@@ -10322,7 +10327,7 @@
       <c r="H581" s="8"/>
       <c r="I581" s="8"/>
     </row>
-    <row r="582" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="582" spans="1:9" ht="23.25">
       <c r="A582" s="7">
         <f t="shared" si="13"/>
         <v>581</v>
@@ -10336,7 +10341,7 @@
       <c r="H582" s="8"/>
       <c r="I582" s="8"/>
     </row>
-    <row r="583" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="583" spans="1:9" ht="23.25">
       <c r="A583" s="7">
         <f t="shared" si="13"/>
         <v>582</v>
@@ -10350,7 +10355,7 @@
       <c r="H583" s="8"/>
       <c r="I583" s="8"/>
     </row>
-    <row r="584" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="584" spans="1:9" ht="23.25">
       <c r="A584" s="7">
         <f t="shared" ref="A584:A647" si="14">ROW(583:583)</f>
         <v>583</v>
@@ -10364,7 +10369,7 @@
       <c r="H584" s="8"/>
       <c r="I584" s="8"/>
     </row>
-    <row r="585" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="585" spans="1:9" ht="23.25">
       <c r="A585" s="7">
         <f t="shared" si="14"/>
         <v>584</v>
@@ -10378,7 +10383,7 @@
       <c r="H585" s="8"/>
       <c r="I585" s="8"/>
     </row>
-    <row r="586" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="586" spans="1:9" ht="23.25">
       <c r="A586" s="7">
         <f t="shared" si="14"/>
         <v>585</v>
@@ -10392,7 +10397,7 @@
       <c r="H586" s="8"/>
       <c r="I586" s="8"/>
     </row>
-    <row r="587" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="587" spans="1:9" ht="23.25">
       <c r="A587" s="7">
         <f t="shared" si="14"/>
         <v>586</v>
@@ -10406,7 +10411,7 @@
       <c r="H587" s="8"/>
       <c r="I587" s="8"/>
     </row>
-    <row r="588" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="588" spans="1:9" ht="23.25">
       <c r="A588" s="7">
         <f t="shared" si="14"/>
         <v>587</v>
@@ -10420,7 +10425,7 @@
       <c r="H588" s="8"/>
       <c r="I588" s="8"/>
     </row>
-    <row r="589" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="589" spans="1:9" ht="23.25">
       <c r="A589" s="7">
         <f t="shared" si="14"/>
         <v>588</v>
@@ -10434,7 +10439,7 @@
       <c r="H589" s="8"/>
       <c r="I589" s="8"/>
     </row>
-    <row r="590" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="590" spans="1:9" ht="23.25">
       <c r="A590" s="7">
         <f t="shared" si="14"/>
         <v>589</v>
@@ -10448,7 +10453,7 @@
       <c r="H590" s="8"/>
       <c r="I590" s="8"/>
     </row>
-    <row r="591" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="591" spans="1:9" ht="23.25">
       <c r="A591" s="7">
         <f t="shared" si="14"/>
         <v>590</v>
@@ -10462,7 +10467,7 @@
       <c r="H591" s="8"/>
       <c r="I591" s="8"/>
     </row>
-    <row r="592" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="592" spans="1:9" ht="23.25">
       <c r="A592" s="7">
         <f t="shared" si="14"/>
         <v>591</v>
@@ -10476,7 +10481,7 @@
       <c r="H592" s="8"/>
       <c r="I592" s="8"/>
     </row>
-    <row r="593" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="593" spans="1:9" ht="23.25">
       <c r="A593" s="7">
         <f t="shared" si="14"/>
         <v>592</v>
@@ -10490,7 +10495,7 @@
       <c r="H593" s="8"/>
       <c r="I593" s="8"/>
     </row>
-    <row r="594" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="594" spans="1:9" ht="23.25">
       <c r="A594" s="7">
         <f t="shared" si="14"/>
         <v>593</v>
@@ -10504,7 +10509,7 @@
       <c r="H594" s="8"/>
       <c r="I594" s="8"/>
     </row>
-    <row r="595" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="595" spans="1:9" ht="23.25">
       <c r="A595" s="7">
         <f t="shared" si="14"/>
         <v>594</v>
@@ -10518,7 +10523,7 @@
       <c r="H595" s="8"/>
       <c r="I595" s="8"/>
     </row>
-    <row r="596" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="596" spans="1:9" ht="23.25">
       <c r="A596" s="7">
         <f t="shared" si="14"/>
         <v>595</v>
@@ -10532,7 +10537,7 @@
       <c r="H596" s="8"/>
       <c r="I596" s="8"/>
     </row>
-    <row r="597" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="597" spans="1:9" ht="23.25">
       <c r="A597" s="7">
         <f t="shared" si="14"/>
         <v>596</v>
@@ -10546,7 +10551,7 @@
       <c r="H597" s="8"/>
       <c r="I597" s="8"/>
     </row>
-    <row r="598" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="598" spans="1:9" ht="23.25">
       <c r="A598" s="7">
         <f t="shared" si="14"/>
         <v>597</v>
@@ -10560,7 +10565,7 @@
       <c r="H598" s="8"/>
       <c r="I598" s="8"/>
     </row>
-    <row r="599" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="599" spans="1:9" ht="23.25">
       <c r="A599" s="7">
         <f t="shared" si="14"/>
         <v>598</v>
@@ -10574,7 +10579,7 @@
       <c r="H599" s="8"/>
       <c r="I599" s="8"/>
     </row>
-    <row r="600" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="600" spans="1:9" ht="23.25">
       <c r="A600" s="7">
         <f t="shared" si="14"/>
         <v>599</v>
@@ -10588,7 +10593,7 @@
       <c r="H600" s="8"/>
       <c r="I600" s="8"/>
     </row>
-    <row r="601" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="601" spans="1:9" ht="23.25">
       <c r="A601" s="7">
         <f t="shared" si="14"/>
         <v>600</v>
@@ -10602,7 +10607,7 @@
       <c r="H601" s="8"/>
       <c r="I601" s="8"/>
     </row>
-    <row r="602" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="602" spans="1:9" ht="23.25">
       <c r="A602" s="7">
         <f t="shared" si="14"/>
         <v>601</v>
@@ -10616,7 +10621,7 @@
       <c r="H602" s="8"/>
       <c r="I602" s="8"/>
     </row>
-    <row r="603" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="603" spans="1:9" ht="23.25">
       <c r="A603" s="7">
         <f t="shared" si="14"/>
         <v>602</v>
@@ -10630,7 +10635,7 @@
       <c r="H603" s="8"/>
       <c r="I603" s="8"/>
     </row>
-    <row r="604" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="604" spans="1:9" ht="23.25">
       <c r="A604" s="7">
         <f t="shared" si="14"/>
         <v>603</v>
@@ -10644,7 +10649,7 @@
       <c r="H604" s="8"/>
       <c r="I604" s="8"/>
     </row>
-    <row r="605" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="605" spans="1:9" ht="23.25">
       <c r="A605" s="7">
         <f t="shared" si="14"/>
         <v>604</v>
@@ -10658,7 +10663,7 @@
       <c r="H605" s="8"/>
       <c r="I605" s="8"/>
     </row>
-    <row r="606" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="606" spans="1:9" ht="23.25">
       <c r="A606" s="7">
         <f t="shared" si="14"/>
         <v>605</v>
@@ -10672,7 +10677,7 @@
       <c r="H606" s="8"/>
       <c r="I606" s="8"/>
     </row>
-    <row r="607" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="607" spans="1:9" ht="23.25">
       <c r="A607" s="7">
         <f t="shared" si="14"/>
         <v>606</v>
@@ -10686,7 +10691,7 @@
       <c r="H607" s="8"/>
       <c r="I607" s="8"/>
     </row>
-    <row r="608" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="608" spans="1:9" ht="23.25">
       <c r="A608" s="7">
         <f t="shared" si="14"/>
         <v>607</v>
@@ -10700,7 +10705,7 @@
       <c r="H608" s="8"/>
       <c r="I608" s="8"/>
     </row>
-    <row r="609" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="609" spans="1:9" ht="23.25">
       <c r="A609" s="7">
         <f t="shared" si="14"/>
         <v>608</v>
@@ -10714,7 +10719,7 @@
       <c r="H609" s="8"/>
       <c r="I609" s="8"/>
     </row>
-    <row r="610" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="610" spans="1:9" ht="23.25">
       <c r="A610" s="7">
         <f t="shared" si="14"/>
         <v>609</v>
@@ -10728,7 +10733,7 @@
       <c r="H610" s="8"/>
       <c r="I610" s="8"/>
     </row>
-    <row r="611" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="611" spans="1:9" ht="23.25">
       <c r="A611" s="7">
         <f t="shared" si="14"/>
         <v>610</v>
@@ -10742,7 +10747,7 @@
       <c r="H611" s="8"/>
       <c r="I611" s="8"/>
     </row>
-    <row r="612" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="612" spans="1:9" ht="23.25">
       <c r="A612" s="7">
         <f t="shared" si="14"/>
         <v>611</v>
@@ -10756,7 +10761,7 @@
       <c r="H612" s="8"/>
       <c r="I612" s="8"/>
     </row>
-    <row r="613" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="613" spans="1:9" ht="23.25">
       <c r="A613" s="7">
         <f t="shared" si="14"/>
         <v>612</v>
@@ -10770,7 +10775,7 @@
       <c r="H613" s="8"/>
       <c r="I613" s="8"/>
     </row>
-    <row r="614" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="614" spans="1:9" ht="23.25">
       <c r="A614" s="7">
         <f t="shared" si="14"/>
         <v>613</v>
@@ -10784,7 +10789,7 @@
       <c r="H614" s="8"/>
       <c r="I614" s="8"/>
     </row>
-    <row r="615" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="615" spans="1:9" ht="23.25">
       <c r="A615" s="7">
         <f t="shared" si="14"/>
         <v>614</v>
@@ -10798,7 +10803,7 @@
       <c r="H615" s="8"/>
       <c r="I615" s="8"/>
     </row>
-    <row r="616" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="616" spans="1:9" ht="23.25">
       <c r="A616" s="7">
         <f t="shared" si="14"/>
         <v>615</v>
@@ -10812,7 +10817,7 @@
       <c r="H616" s="8"/>
       <c r="I616" s="8"/>
     </row>
-    <row r="617" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="617" spans="1:9" ht="23.25">
       <c r="A617" s="7">
         <f t="shared" si="14"/>
         <v>616</v>
@@ -10826,7 +10831,7 @@
       <c r="H617" s="8"/>
       <c r="I617" s="8"/>
     </row>
-    <row r="618" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="618" spans="1:9" ht="23.25">
       <c r="A618" s="7">
         <f t="shared" si="14"/>
         <v>617</v>
@@ -10840,7 +10845,7 @@
       <c r="H618" s="8"/>
       <c r="I618" s="8"/>
     </row>
-    <row r="619" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="619" spans="1:9" ht="23.25">
       <c r="A619" s="7">
         <f t="shared" si="14"/>
         <v>618</v>
@@ -10854,7 +10859,7 @@
       <c r="H619" s="8"/>
       <c r="I619" s="8"/>
     </row>
-    <row r="620" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="620" spans="1:9" ht="23.25">
       <c r="A620" s="7">
         <f t="shared" si="14"/>
         <v>619</v>
@@ -10868,7 +10873,7 @@
       <c r="H620" s="8"/>
       <c r="I620" s="8"/>
     </row>
-    <row r="621" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="621" spans="1:9" ht="23.25">
       <c r="A621" s="7">
         <f t="shared" si="14"/>
         <v>620</v>
@@ -10882,7 +10887,7 @@
       <c r="H621" s="8"/>
       <c r="I621" s="8"/>
     </row>
-    <row r="622" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="622" spans="1:9" ht="23.25">
       <c r="A622" s="7">
         <f t="shared" si="14"/>
         <v>621</v>
@@ -10896,7 +10901,7 @@
       <c r="H622" s="8"/>
       <c r="I622" s="8"/>
     </row>
-    <row r="623" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="623" spans="1:9" ht="23.25">
       <c r="A623" s="7">
         <f t="shared" si="14"/>
         <v>622</v>
@@ -10910,7 +10915,7 @@
       <c r="H623" s="8"/>
       <c r="I623" s="8"/>
     </row>
-    <row r="624" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="624" spans="1:9" ht="23.25">
       <c r="A624" s="7">
         <f t="shared" si="14"/>
         <v>623</v>
@@ -10924,7 +10929,7 @@
       <c r="H624" s="8"/>
       <c r="I624" s="8"/>
     </row>
-    <row r="625" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="625" spans="1:9" ht="23.25">
       <c r="A625" s="7">
         <f t="shared" si="14"/>
         <v>624</v>
@@ -10938,7 +10943,7 @@
       <c r="H625" s="8"/>
       <c r="I625" s="8"/>
     </row>
-    <row r="626" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="626" spans="1:9" ht="23.25">
       <c r="A626" s="7">
         <f t="shared" si="14"/>
         <v>625</v>
@@ -10952,7 +10957,7 @@
       <c r="H626" s="8"/>
       <c r="I626" s="8"/>
     </row>
-    <row r="627" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="627" spans="1:9" ht="23.25">
       <c r="A627" s="7">
         <f t="shared" si="14"/>
         <v>626</v>
@@ -10966,7 +10971,7 @@
       <c r="H627" s="8"/>
       <c r="I627" s="8"/>
     </row>
-    <row r="628" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="628" spans="1:9" ht="23.25">
       <c r="A628" s="7">
         <f t="shared" si="14"/>
         <v>627</v>
@@ -10980,7 +10985,7 @@
       <c r="H628" s="8"/>
       <c r="I628" s="8"/>
     </row>
-    <row r="629" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="629" spans="1:9" ht="23.25">
       <c r="A629" s="7">
         <f t="shared" si="14"/>
         <v>628</v>
@@ -10994,7 +10999,7 @@
       <c r="H629" s="8"/>
       <c r="I629" s="8"/>
     </row>
-    <row r="630" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="630" spans="1:9" ht="23.25">
       <c r="A630" s="7">
         <f t="shared" si="14"/>
         <v>629</v>
@@ -11008,7 +11013,7 @@
       <c r="H630" s="8"/>
       <c r="I630" s="8"/>
     </row>
-    <row r="631" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="631" spans="1:9" ht="23.25">
       <c r="A631" s="7">
         <f t="shared" si="14"/>
         <v>630</v>
@@ -11022,7 +11027,7 @@
       <c r="H631" s="8"/>
       <c r="I631" s="8"/>
     </row>
-    <row r="632" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="632" spans="1:9" ht="23.25">
       <c r="A632" s="7">
         <f t="shared" si="14"/>
         <v>631</v>
@@ -11036,7 +11041,7 @@
       <c r="H632" s="8"/>
       <c r="I632" s="8"/>
     </row>
-    <row r="633" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="633" spans="1:9" ht="23.25">
       <c r="A633" s="7">
         <f t="shared" si="14"/>
         <v>632</v>
@@ -11050,7 +11055,7 @@
       <c r="H633" s="8"/>
       <c r="I633" s="8"/>
     </row>
-    <row r="634" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="634" spans="1:9" ht="23.25">
       <c r="A634" s="7">
         <f t="shared" si="14"/>
         <v>633</v>
@@ -11064,7 +11069,7 @@
       <c r="H634" s="8"/>
       <c r="I634" s="8"/>
     </row>
-    <row r="635" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="635" spans="1:9" ht="23.25">
       <c r="A635" s="7">
         <f t="shared" si="14"/>
         <v>634</v>
@@ -11078,7 +11083,7 @@
       <c r="H635" s="8"/>
       <c r="I635" s="8"/>
     </row>
-    <row r="636" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="636" spans="1:9" ht="23.25">
       <c r="A636" s="7">
         <f t="shared" si="14"/>
         <v>635</v>
@@ -11092,7 +11097,7 @@
       <c r="H636" s="8"/>
       <c r="I636" s="8"/>
     </row>
-    <row r="637" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="637" spans="1:9" ht="23.25">
       <c r="A637" s="7">
         <f t="shared" si="14"/>
         <v>636</v>
@@ -11106,7 +11111,7 @@
       <c r="H637" s="8"/>
       <c r="I637" s="8"/>
     </row>
-    <row r="638" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="638" spans="1:9" ht="23.25">
       <c r="A638" s="7">
         <f t="shared" si="14"/>
         <v>637</v>
@@ -11120,7 +11125,7 @@
       <c r="H638" s="8"/>
       <c r="I638" s="8"/>
     </row>
-    <row r="639" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="639" spans="1:9" ht="23.25">
       <c r="A639" s="7">
         <f t="shared" si="14"/>
         <v>638</v>
@@ -11134,7 +11139,7 @@
       <c r="H639" s="8"/>
       <c r="I639" s="8"/>
     </row>
-    <row r="640" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="640" spans="1:9" ht="23.25">
       <c r="A640" s="7">
         <f t="shared" si="14"/>
         <v>639</v>
@@ -11148,7 +11153,7 @@
       <c r="H640" s="8"/>
       <c r="I640" s="8"/>
     </row>
-    <row r="641" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="641" spans="1:9" ht="23.25">
       <c r="A641" s="7">
         <f t="shared" si="14"/>
         <v>640</v>
@@ -11162,7 +11167,7 @@
       <c r="H641" s="8"/>
       <c r="I641" s="8"/>
     </row>
-    <row r="642" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="642" spans="1:9" ht="23.25">
       <c r="A642" s="7">
         <f t="shared" si="14"/>
         <v>641</v>
@@ -11176,7 +11181,7 @@
       <c r="H642" s="8"/>
       <c r="I642" s="8"/>
     </row>
-    <row r="643" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="643" spans="1:9" ht="23.25">
       <c r="A643" s="7">
         <f t="shared" si="14"/>
         <v>642</v>
@@ -11190,7 +11195,7 @@
       <c r="H643" s="8"/>
       <c r="I643" s="8"/>
     </row>
-    <row r="644" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="644" spans="1:9" ht="23.25">
       <c r="A644" s="7">
         <f t="shared" si="14"/>
         <v>643</v>
@@ -11204,7 +11209,7 @@
       <c r="H644" s="8"/>
       <c r="I644" s="8"/>
     </row>
-    <row r="645" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="645" spans="1:9" ht="23.25">
       <c r="A645" s="7">
         <f t="shared" si="14"/>
         <v>644</v>
@@ -11218,7 +11223,7 @@
       <c r="H645" s="8"/>
       <c r="I645" s="8"/>
     </row>
-    <row r="646" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="646" spans="1:9" ht="23.25">
       <c r="A646" s="7">
         <f t="shared" si="14"/>
         <v>645</v>
@@ -11232,7 +11237,7 @@
       <c r="H646" s="8"/>
       <c r="I646" s="8"/>
     </row>
-    <row r="647" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="647" spans="1:9" ht="23.25">
       <c r="A647" s="7">
         <f t="shared" si="14"/>
         <v>646</v>
@@ -11246,7 +11251,7 @@
       <c r="H647" s="8"/>
       <c r="I647" s="8"/>
     </row>
-    <row r="648" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="648" spans="1:9" ht="23.25">
       <c r="A648" s="7">
         <f t="shared" ref="A648:A711" si="15">ROW(647:647)</f>
         <v>647</v>
@@ -11260,7 +11265,7 @@
       <c r="H648" s="8"/>
       <c r="I648" s="8"/>
     </row>
-    <row r="649" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="649" spans="1:9" ht="23.25">
       <c r="A649" s="7">
         <f t="shared" si="15"/>
         <v>648</v>
@@ -11274,7 +11279,7 @@
       <c r="H649" s="8"/>
       <c r="I649" s="8"/>
     </row>
-    <row r="650" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="650" spans="1:9" ht="23.25">
       <c r="A650" s="7">
         <f t="shared" si="15"/>
         <v>649</v>
@@ -11288,7 +11293,7 @@
       <c r="H650" s="8"/>
       <c r="I650" s="8"/>
     </row>
-    <row r="651" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="651" spans="1:9" ht="23.25">
       <c r="A651" s="7">
         <f t="shared" si="15"/>
         <v>650</v>
@@ -11302,7 +11307,7 @@
       <c r="H651" s="8"/>
       <c r="I651" s="8"/>
     </row>
-    <row r="652" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="652" spans="1:9" ht="23.25">
       <c r="A652" s="7">
         <f t="shared" si="15"/>
         <v>651</v>
@@ -11316,7 +11321,7 @@
       <c r="H652" s="8"/>
       <c r="I652" s="8"/>
     </row>
-    <row r="653" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="653" spans="1:9" ht="23.25">
       <c r="A653" s="7">
         <f t="shared" si="15"/>
         <v>652</v>
@@ -11330,7 +11335,7 @@
       <c r="H653" s="8"/>
       <c r="I653" s="8"/>
     </row>
-    <row r="654" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="654" spans="1:9" ht="23.25">
       <c r="A654" s="7">
         <f t="shared" si="15"/>
         <v>653</v>
@@ -11344,7 +11349,7 @@
       <c r="H654" s="8"/>
       <c r="I654" s="8"/>
     </row>
-    <row r="655" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="655" spans="1:9" ht="23.25">
       <c r="A655" s="7">
         <f t="shared" si="15"/>
         <v>654</v>
@@ -11358,7 +11363,7 @@
       <c r="H655" s="8"/>
       <c r="I655" s="8"/>
     </row>
-    <row r="656" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="656" spans="1:9" ht="23.25">
       <c r="A656" s="7">
         <f t="shared" si="15"/>
         <v>655</v>
@@ -11372,7 +11377,7 @@
       <c r="H656" s="8"/>
       <c r="I656" s="8"/>
     </row>
-    <row r="657" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="657" spans="1:9" ht="23.25">
       <c r="A657" s="7">
         <f t="shared" si="15"/>
         <v>656</v>
@@ -11386,7 +11391,7 @@
       <c r="H657" s="8"/>
       <c r="I657" s="8"/>
     </row>
-    <row r="658" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="658" spans="1:9" ht="23.25">
       <c r="A658" s="7">
         <f t="shared" si="15"/>
         <v>657</v>
@@ -11400,7 +11405,7 @@
       <c r="H658" s="8"/>
       <c r="I658" s="8"/>
     </row>
-    <row r="659" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="659" spans="1:9" ht="23.25">
       <c r="A659" s="7">
         <f t="shared" si="15"/>
         <v>658</v>
@@ -11414,7 +11419,7 @@
       <c r="H659" s="8"/>
       <c r="I659" s="8"/>
     </row>
-    <row r="660" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="660" spans="1:9" ht="23.25">
       <c r="A660" s="7">
         <f t="shared" si="15"/>
         <v>659</v>
@@ -11428,7 +11433,7 @@
       <c r="H660" s="8"/>
       <c r="I660" s="8"/>
     </row>
-    <row r="661" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="661" spans="1:9" ht="23.25">
       <c r="A661" s="7">
         <f t="shared" si="15"/>
         <v>660</v>
@@ -11442,7 +11447,7 @@
       <c r="H661" s="8"/>
       <c r="I661" s="8"/>
     </row>
-    <row r="662" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="662" spans="1:9" ht="23.25">
       <c r="A662" s="7">
         <f t="shared" si="15"/>
         <v>661</v>
@@ -11456,7 +11461,7 @@
       <c r="H662" s="8"/>
       <c r="I662" s="8"/>
     </row>
-    <row r="663" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="663" spans="1:9" ht="23.25">
       <c r="A663" s="7">
         <f t="shared" si="15"/>
         <v>662</v>
@@ -11470,7 +11475,7 @@
       <c r="H663" s="8"/>
       <c r="I663" s="8"/>
     </row>
-    <row r="664" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="664" spans="1:9" ht="23.25">
       <c r="A664" s="7">
         <f t="shared" si="15"/>
         <v>663</v>
@@ -11484,7 +11489,7 @@
       <c r="H664" s="8"/>
       <c r="I664" s="8"/>
     </row>
-    <row r="665" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="665" spans="1:9" ht="23.25">
       <c r="A665" s="7">
         <f t="shared" si="15"/>
         <v>664</v>
@@ -11498,7 +11503,7 @@
       <c r="H665" s="8"/>
       <c r="I665" s="8"/>
     </row>
-    <row r="666" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="666" spans="1:9" ht="23.25">
       <c r="A666" s="7">
         <f t="shared" si="15"/>
         <v>665</v>
@@ -11512,7 +11517,7 @@
       <c r="H666" s="8"/>
       <c r="I666" s="8"/>
     </row>
-    <row r="667" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="667" spans="1:9" ht="23.25">
       <c r="A667" s="7">
         <f t="shared" si="15"/>
         <v>666</v>
@@ -11526,7 +11531,7 @@
       <c r="H667" s="8"/>
       <c r="I667" s="8"/>
     </row>
-    <row r="668" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="668" spans="1:9" ht="23.25">
       <c r="A668" s="7">
         <f t="shared" si="15"/>
         <v>667</v>
@@ -11540,7 +11545,7 @@
       <c r="H668" s="8"/>
       <c r="I668" s="8"/>
     </row>
-    <row r="669" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="669" spans="1:9" ht="23.25">
       <c r="A669" s="7">
         <f t="shared" si="15"/>
         <v>668</v>
@@ -11554,7 +11559,7 @@
       <c r="H669" s="8"/>
       <c r="I669" s="8"/>
     </row>
-    <row r="670" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="670" spans="1:9" ht="23.25">
       <c r="A670" s="7">
         <f t="shared" si="15"/>
         <v>669</v>
@@ -11568,7 +11573,7 @@
       <c r="H670" s="8"/>
       <c r="I670" s="8"/>
     </row>
-    <row r="671" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="671" spans="1:9" ht="23.25">
       <c r="A671" s="7">
         <f t="shared" si="15"/>
         <v>670</v>
@@ -11582,7 +11587,7 @@
       <c r="H671" s="8"/>
       <c r="I671" s="8"/>
     </row>
-    <row r="672" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="672" spans="1:9" ht="23.25">
       <c r="A672" s="7">
         <f t="shared" si="15"/>
         <v>671</v>
@@ -11596,7 +11601,7 @@
       <c r="H672" s="8"/>
       <c r="I672" s="8"/>
     </row>
-    <row r="673" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="673" spans="1:9" ht="23.25">
       <c r="A673" s="7">
         <f t="shared" si="15"/>
         <v>672</v>
@@ -11610,7 +11615,7 @@
       <c r="H673" s="8"/>
       <c r="I673" s="8"/>
     </row>
-    <row r="674" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="674" spans="1:9" ht="23.25">
       <c r="A674" s="7">
         <f t="shared" si="15"/>
         <v>673</v>
@@ -11624,7 +11629,7 @@
       <c r="H674" s="8"/>
       <c r="I674" s="8"/>
     </row>
-    <row r="675" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="675" spans="1:9" ht="23.25">
       <c r="A675" s="7">
         <f t="shared" si="15"/>
         <v>674</v>
@@ -11638,7 +11643,7 @@
       <c r="H675" s="8"/>
       <c r="I675" s="8"/>
     </row>
-    <row r="676" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="676" spans="1:9" ht="23.25">
       <c r="A676" s="7">
         <f t="shared" si="15"/>
         <v>675</v>
@@ -11652,7 +11657,7 @@
       <c r="H676" s="8"/>
       <c r="I676" s="8"/>
     </row>
-    <row r="677" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="677" spans="1:9" ht="23.25">
       <c r="A677" s="7">
         <f t="shared" si="15"/>
         <v>676</v>
@@ -11666,7 +11671,7 @@
       <c r="H677" s="8"/>
       <c r="I677" s="8"/>
     </row>
-    <row r="678" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="678" spans="1:9" ht="23.25">
       <c r="A678" s="7">
         <f t="shared" si="15"/>
         <v>677</v>
@@ -11680,7 +11685,7 @@
       <c r="H678" s="8"/>
       <c r="I678" s="8"/>
     </row>
-    <row r="679" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="679" spans="1:9" ht="23.25">
       <c r="A679" s="7">
         <f t="shared" si="15"/>
         <v>678</v>
@@ -11694,7 +11699,7 @@
       <c r="H679" s="8"/>
       <c r="I679" s="8"/>
     </row>
-    <row r="680" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="680" spans="1:9" ht="23.25">
       <c r="A680" s="7">
         <f t="shared" si="15"/>
         <v>679</v>
@@ -11708,7 +11713,7 @@
       <c r="H680" s="8"/>
       <c r="I680" s="8"/>
     </row>
-    <row r="681" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="681" spans="1:9" ht="23.25">
       <c r="A681" s="7">
         <f t="shared" si="15"/>
         <v>680</v>
@@ -11722,7 +11727,7 @@
       <c r="H681" s="8"/>
       <c r="I681" s="8"/>
     </row>
-    <row r="682" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="682" spans="1:9" ht="23.25">
       <c r="A682" s="7">
         <f t="shared" si="15"/>
         <v>681</v>
@@ -11736,7 +11741,7 @@
       <c r="H682" s="8"/>
       <c r="I682" s="8"/>
     </row>
-    <row r="683" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="683" spans="1:9" ht="23.25">
       <c r="A683" s="7">
         <f t="shared" si="15"/>
         <v>682</v>
@@ -11750,7 +11755,7 @@
       <c r="H683" s="8"/>
       <c r="I683" s="8"/>
     </row>
-    <row r="684" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="684" spans="1:9" ht="23.25">
       <c r="A684" s="7">
         <f t="shared" si="15"/>
         <v>683</v>
@@ -11764,7 +11769,7 @@
       <c r="H684" s="8"/>
       <c r="I684" s="8"/>
     </row>
-    <row r="685" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="685" spans="1:9" ht="23.25">
       <c r="A685" s="7">
         <f t="shared" si="15"/>
         <v>684</v>
@@ -11778,7 +11783,7 @@
       <c r="H685" s="8"/>
       <c r="I685" s="8"/>
     </row>
-    <row r="686" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="686" spans="1:9" ht="23.25">
       <c r="A686" s="7">
         <f t="shared" si="15"/>
         <v>685</v>
@@ -11792,7 +11797,7 @@
       <c r="H686" s="8"/>
       <c r="I686" s="8"/>
     </row>
-    <row r="687" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="687" spans="1:9" ht="23.25">
       <c r="A687" s="7">
         <f t="shared" si="15"/>
         <v>686</v>
@@ -11806,7 +11811,7 @@
       <c r="H687" s="8"/>
       <c r="I687" s="8"/>
     </row>
-    <row r="688" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="688" spans="1:9" ht="23.25">
       <c r="A688" s="7">
         <f t="shared" si="15"/>
         <v>687</v>
@@ -11820,7 +11825,7 @@
       <c r="H688" s="8"/>
       <c r="I688" s="8"/>
     </row>
-    <row r="689" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="689" spans="1:9" ht="23.25">
       <c r="A689" s="7">
         <f t="shared" si="15"/>
         <v>688</v>
@@ -11834,7 +11839,7 @@
       <c r="H689" s="8"/>
       <c r="I689" s="8"/>
     </row>
-    <row r="690" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="690" spans="1:9" ht="23.25">
       <c r="A690" s="7">
         <f t="shared" si="15"/>
         <v>689</v>
@@ -11848,7 +11853,7 @@
       <c r="H690" s="8"/>
       <c r="I690" s="8"/>
     </row>
-    <row r="691" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="691" spans="1:9" ht="23.25">
       <c r="A691" s="7">
         <f t="shared" si="15"/>
         <v>690</v>
@@ -11862,7 +11867,7 @@
       <c r="H691" s="8"/>
       <c r="I691" s="8"/>
     </row>
-    <row r="692" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="692" spans="1:9" ht="23.25">
       <c r="A692" s="7">
         <f t="shared" si="15"/>
         <v>691</v>
@@ -11876,7 +11881,7 @@
       <c r="H692" s="8"/>
       <c r="I692" s="8"/>
     </row>
-    <row r="693" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="693" spans="1:9" ht="23.25">
       <c r="A693" s="7">
         <f t="shared" si="15"/>
         <v>692</v>
@@ -11890,7 +11895,7 @@
       <c r="H693" s="8"/>
       <c r="I693" s="8"/>
     </row>
-    <row r="694" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="694" spans="1:9" ht="23.25">
       <c r="A694" s="7">
         <f t="shared" si="15"/>
         <v>693</v>
@@ -11904,7 +11909,7 @@
       <c r="H694" s="8"/>
       <c r="I694" s="8"/>
     </row>
-    <row r="695" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="695" spans="1:9" ht="23.25">
       <c r="A695" s="7">
         <f t="shared" si="15"/>
         <v>694</v>
@@ -11918,7 +11923,7 @@
       <c r="H695" s="8"/>
       <c r="I695" s="8"/>
     </row>
-    <row r="696" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="696" spans="1:9" ht="23.25">
       <c r="A696" s="7">
         <f t="shared" si="15"/>
         <v>695</v>
@@ -11932,7 +11937,7 @@
       <c r="H696" s="8"/>
       <c r="I696" s="8"/>
     </row>
-    <row r="697" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="697" spans="1:9" ht="23.25">
       <c r="A697" s="7">
         <f t="shared" si="15"/>
         <v>696</v>
@@ -11946,7 +11951,7 @@
       <c r="H697" s="8"/>
       <c r="I697" s="8"/>
     </row>
-    <row r="698" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="698" spans="1:9" ht="23.25">
       <c r="A698" s="7">
         <f t="shared" si="15"/>
         <v>697</v>
@@ -11960,7 +11965,7 @@
       <c r="H698" s="8"/>
       <c r="I698" s="8"/>
     </row>
-    <row r="699" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="699" spans="1:9" ht="23.25">
       <c r="A699" s="7">
         <f t="shared" si="15"/>
         <v>698</v>
@@ -11974,7 +11979,7 @@
       <c r="H699" s="8"/>
       <c r="I699" s="8"/>
     </row>
-    <row r="700" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="700" spans="1:9" ht="23.25">
       <c r="A700" s="7">
         <f t="shared" si="15"/>
         <v>699</v>
@@ -11988,7 +11993,7 @@
       <c r="H700" s="8"/>
       <c r="I700" s="8"/>
     </row>
-    <row r="701" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="701" spans="1:9" ht="23.25">
       <c r="A701" s="7">
         <f t="shared" si="15"/>
         <v>700</v>
@@ -12002,7 +12007,7 @@
       <c r="H701" s="8"/>
       <c r="I701" s="8"/>
     </row>
-    <row r="702" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="702" spans="1:9" ht="23.25">
       <c r="A702" s="7">
         <f t="shared" si="15"/>
         <v>701</v>
@@ -12016,7 +12021,7 @@
       <c r="H702" s="8"/>
       <c r="I702" s="8"/>
     </row>
-    <row r="703" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="703" spans="1:9" ht="23.25">
       <c r="A703" s="7">
         <f t="shared" si="15"/>
         <v>702</v>
@@ -12030,7 +12035,7 @@
       <c r="H703" s="8"/>
       <c r="I703" s="8"/>
     </row>
-    <row r="704" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="704" spans="1:9" ht="23.25">
       <c r="A704" s="7">
         <f t="shared" si="15"/>
         <v>703</v>
@@ -12044,7 +12049,7 @@
       <c r="H704" s="8"/>
       <c r="I704" s="8"/>
     </row>
-    <row r="705" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="705" spans="1:9" ht="23.25">
       <c r="A705" s="7">
         <f t="shared" si="15"/>
         <v>704</v>
@@ -12058,7 +12063,7 @@
       <c r="H705" s="8"/>
       <c r="I705" s="8"/>
     </row>
-    <row r="706" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="706" spans="1:9" ht="23.25">
       <c r="A706" s="7">
         <f t="shared" si="15"/>
         <v>705</v>
@@ -12072,7 +12077,7 @@
       <c r="H706" s="8"/>
       <c r="I706" s="8"/>
     </row>
-    <row r="707" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="707" spans="1:9" ht="23.25">
       <c r="A707" s="7">
         <f t="shared" si="15"/>
         <v>706</v>
@@ -12086,7 +12091,7 @@
       <c r="H707" s="8"/>
       <c r="I707" s="8"/>
     </row>
-    <row r="708" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="708" spans="1:9" ht="23.25">
       <c r="A708" s="7">
         <f t="shared" si="15"/>
         <v>707</v>
@@ -12100,7 +12105,7 @@
       <c r="H708" s="8"/>
       <c r="I708" s="8"/>
     </row>
-    <row r="709" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="709" spans="1:9" ht="23.25">
       <c r="A709" s="7">
         <f t="shared" si="15"/>
         <v>708</v>
@@ -12114,7 +12119,7 @@
       <c r="H709" s="8"/>
       <c r="I709" s="8"/>
     </row>
-    <row r="710" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="710" spans="1:9" ht="23.25">
       <c r="A710" s="7">
         <f t="shared" si="15"/>
         <v>709</v>
@@ -12128,7 +12133,7 @@
       <c r="H710" s="8"/>
       <c r="I710" s="8"/>
     </row>
-    <row r="711" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="711" spans="1:9" ht="23.25">
       <c r="A711" s="7">
         <f t="shared" si="15"/>
         <v>710</v>
@@ -12142,7 +12147,7 @@
       <c r="H711" s="8"/>
       <c r="I711" s="8"/>
     </row>
-    <row r="712" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="712" spans="1:9" ht="23.25">
       <c r="A712" s="7">
         <f t="shared" ref="A712:A775" si="16">ROW(711:711)</f>
         <v>711</v>
@@ -12156,7 +12161,7 @@
       <c r="H712" s="8"/>
       <c r="I712" s="8"/>
     </row>
-    <row r="713" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="713" spans="1:9" ht="23.25">
       <c r="A713" s="7">
         <f t="shared" si="16"/>
         <v>712</v>
@@ -12170,7 +12175,7 @@
       <c r="H713" s="8"/>
       <c r="I713" s="8"/>
     </row>
-    <row r="714" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="714" spans="1:9" ht="23.25">
       <c r="A714" s="7">
         <f t="shared" si="16"/>
         <v>713</v>
@@ -12184,7 +12189,7 @@
       <c r="H714" s="8"/>
       <c r="I714" s="8"/>
     </row>
-    <row r="715" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="715" spans="1:9" ht="23.25">
       <c r="A715" s="7">
         <f t="shared" si="16"/>
         <v>714</v>
@@ -12198,7 +12203,7 @@
       <c r="H715" s="8"/>
       <c r="I715" s="8"/>
     </row>
-    <row r="716" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="716" spans="1:9" ht="23.25">
       <c r="A716" s="7">
         <f t="shared" si="16"/>
         <v>715</v>
@@ -12212,7 +12217,7 @@
       <c r="H716" s="8"/>
       <c r="I716" s="8"/>
     </row>
-    <row r="717" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="717" spans="1:9" ht="23.25">
       <c r="A717" s="7">
         <f t="shared" si="16"/>
         <v>716</v>
@@ -12226,7 +12231,7 @@
       <c r="H717" s="8"/>
       <c r="I717" s="8"/>
     </row>
-    <row r="718" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="718" spans="1:9" ht="23.25">
       <c r="A718" s="7">
         <f t="shared" si="16"/>
         <v>717</v>
@@ -12240,7 +12245,7 @@
       <c r="H718" s="8"/>
       <c r="I718" s="8"/>
     </row>
-    <row r="719" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="719" spans="1:9" ht="23.25">
       <c r="A719" s="7">
         <f t="shared" si="16"/>
         <v>718</v>
@@ -12254,7 +12259,7 @@
       <c r="H719" s="8"/>
       <c r="I719" s="8"/>
     </row>
-    <row r="720" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="720" spans="1:9" ht="23.25">
       <c r="A720" s="7">
         <f t="shared" si="16"/>
         <v>719</v>
@@ -12268,7 +12273,7 @@
       <c r="H720" s="8"/>
       <c r="I720" s="8"/>
     </row>
-    <row r="721" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="721" spans="1:9" ht="23.25">
       <c r="A721" s="7">
         <f t="shared" si="16"/>
         <v>720</v>
@@ -12282,7 +12287,7 @@
       <c r="H721" s="8"/>
       <c r="I721" s="8"/>
     </row>
-    <row r="722" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="722" spans="1:9" ht="23.25">
       <c r="A722" s="7">
         <f t="shared" si="16"/>
         <v>721</v>
@@ -12296,7 +12301,7 @@
       <c r="H722" s="8"/>
       <c r="I722" s="8"/>
     </row>
-    <row r="723" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="723" spans="1:9" ht="23.25">
       <c r="A723" s="7">
         <f t="shared" si="16"/>
         <v>722</v>
@@ -12310,7 +12315,7 @@
       <c r="H723" s="8"/>
       <c r="I723" s="8"/>
     </row>
-    <row r="724" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="724" spans="1:9" ht="23.25">
       <c r="A724" s="7">
         <f t="shared" si="16"/>
         <v>723</v>
@@ -12324,7 +12329,7 @@
       <c r="H724" s="8"/>
       <c r="I724" s="8"/>
     </row>
-    <row r="725" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="725" spans="1:9" ht="23.25">
       <c r="A725" s="7">
         <f t="shared" si="16"/>
         <v>724</v>
@@ -12338,7 +12343,7 @@
       <c r="H725" s="8"/>
       <c r="I725" s="8"/>
     </row>
-    <row r="726" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="726" spans="1:9" ht="23.25">
       <c r="A726" s="7">
         <f t="shared" si="16"/>
         <v>725</v>
@@ -12352,7 +12357,7 @@
       <c r="H726" s="8"/>
       <c r="I726" s="8"/>
     </row>
-    <row r="727" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="727" spans="1:9" ht="23.25">
       <c r="A727" s="7">
         <f t="shared" si="16"/>
         <v>726</v>
@@ -12366,7 +12371,7 @@
       <c r="H727" s="8"/>
       <c r="I727" s="8"/>
     </row>
-    <row r="728" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="728" spans="1:9" ht="23.25">
       <c r="A728" s="7">
         <f t="shared" si="16"/>
         <v>727</v>
@@ -12380,7 +12385,7 @@
       <c r="H728" s="8"/>
       <c r="I728" s="8"/>
     </row>
-    <row r="729" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="729" spans="1:9" ht="23.25">
       <c r="A729" s="7">
         <f t="shared" si="16"/>
         <v>728</v>
@@ -12394,7 +12399,7 @@
       <c r="H729" s="8"/>
       <c r="I729" s="8"/>
     </row>
-    <row r="730" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="730" spans="1:9" ht="23.25">
       <c r="A730" s="7">
         <f t="shared" si="16"/>
         <v>729</v>
@@ -12408,7 +12413,7 @@
       <c r="H730" s="8"/>
       <c r="I730" s="8"/>
     </row>
-    <row r="731" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="731" spans="1:9" ht="23.25">
       <c r="A731" s="7">
         <f t="shared" si="16"/>
         <v>730</v>
@@ -12422,7 +12427,7 @@
       <c r="H731" s="8"/>
       <c r="I731" s="8"/>
     </row>
-    <row r="732" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="732" spans="1:9" ht="23.25">
       <c r="A732" s="7">
         <f t="shared" si="16"/>
         <v>731</v>
@@ -12436,7 +12441,7 @@
       <c r="H732" s="8"/>
       <c r="I732" s="8"/>
     </row>
-    <row r="733" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="733" spans="1:9" ht="23.25">
       <c r="A733" s="7">
         <f t="shared" si="16"/>
         <v>732</v>
@@ -12450,7 +12455,7 @@
       <c r="H733" s="8"/>
       <c r="I733" s="8"/>
     </row>
-    <row r="734" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="734" spans="1:9" ht="23.25">
       <c r="A734" s="7">
         <f t="shared" si="16"/>
         <v>733</v>
@@ -12464,7 +12469,7 @@
       <c r="H734" s="8"/>
       <c r="I734" s="8"/>
     </row>
-    <row r="735" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="735" spans="1:9" ht="23.25">
       <c r="A735" s="7">
         <f t="shared" si="16"/>
         <v>734</v>
@@ -12478,7 +12483,7 @@
       <c r="H735" s="8"/>
       <c r="I735" s="8"/>
     </row>
-    <row r="736" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="736" spans="1:9" ht="23.25">
       <c r="A736" s="7">
         <f t="shared" si="16"/>
         <v>735</v>
@@ -12492,7 +12497,7 @@
       <c r="H736" s="8"/>
       <c r="I736" s="8"/>
     </row>
-    <row r="737" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="737" spans="1:9" ht="23.25">
       <c r="A737" s="7">
         <f t="shared" si="16"/>
         <v>736</v>
@@ -12506,7 +12511,7 @@
       <c r="H737" s="8"/>
       <c r="I737" s="8"/>
     </row>
-    <row r="738" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="738" spans="1:9" ht="23.25">
       <c r="A738" s="7">
         <f t="shared" si="16"/>
         <v>737</v>
@@ -12520,7 +12525,7 @@
       <c r="H738" s="8"/>
       <c r="I738" s="8"/>
     </row>
-    <row r="739" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="739" spans="1:9" ht="23.25">
       <c r="A739" s="7">
         <f t="shared" si="16"/>
         <v>738</v>
@@ -12534,7 +12539,7 @@
       <c r="H739" s="8"/>
       <c r="I739" s="8"/>
     </row>
-    <row r="740" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="740" spans="1:9" ht="23.25">
       <c r="A740" s="7">
         <f t="shared" si="16"/>
         <v>739</v>
@@ -12548,7 +12553,7 @@
       <c r="H740" s="8"/>
       <c r="I740" s="8"/>
     </row>
-    <row r="741" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="741" spans="1:9" ht="23.25">
       <c r="A741" s="7">
         <f t="shared" si="16"/>
         <v>740</v>
@@ -12562,7 +12567,7 @@
       <c r="H741" s="8"/>
       <c r="I741" s="8"/>
     </row>
-    <row r="742" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="742" spans="1:9" ht="23.25">
       <c r="A742" s="7">
         <f t="shared" si="16"/>
         <v>741</v>
@@ -12576,7 +12581,7 @@
       <c r="H742" s="8"/>
       <c r="I742" s="8"/>
     </row>
-    <row r="743" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="743" spans="1:9" ht="23.25">
       <c r="A743" s="7">
         <f t="shared" si="16"/>
         <v>742</v>
@@ -12590,7 +12595,7 @@
       <c r="H743" s="8"/>
       <c r="I743" s="8"/>
     </row>
-    <row r="744" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="744" spans="1:9" ht="23.25">
       <c r="A744" s="7">
         <f t="shared" si="16"/>
         <v>743</v>
@@ -12604,7 +12609,7 @@
       <c r="H744" s="8"/>
       <c r="I744" s="8"/>
     </row>
-    <row r="745" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="745" spans="1:9" ht="23.25">
       <c r="A745" s="7">
         <f t="shared" si="16"/>
         <v>744</v>
@@ -12618,7 +12623,7 @@
       <c r="H745" s="8"/>
       <c r="I745" s="8"/>
     </row>
-    <row r="746" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="746" spans="1:9" ht="23.25">
       <c r="A746" s="7">
         <f t="shared" si="16"/>
         <v>745</v>
@@ -12632,7 +12637,7 @@
       <c r="H746" s="8"/>
       <c r="I746" s="8"/>
     </row>
-    <row r="747" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="747" spans="1:9" ht="23.25">
       <c r="A747" s="7">
         <f t="shared" si="16"/>
         <v>746</v>
@@ -12646,7 +12651,7 @@
       <c r="H747" s="8"/>
       <c r="I747" s="8"/>
     </row>
-    <row r="748" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="748" spans="1:9" ht="23.25">
       <c r="A748" s="7">
         <f t="shared" si="16"/>
         <v>747</v>
@@ -12660,7 +12665,7 @@
       <c r="H748" s="8"/>
       <c r="I748" s="8"/>
     </row>
-    <row r="749" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="749" spans="1:9" ht="23.25">
       <c r="A749" s="7">
         <f t="shared" si="16"/>
         <v>748</v>
@@ -12674,7 +12679,7 @@
       <c r="H749" s="8"/>
       <c r="I749" s="8"/>
     </row>
-    <row r="750" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="750" spans="1:9" ht="23.25">
       <c r="A750" s="7">
         <f t="shared" si="16"/>
         <v>749</v>
@@ -12688,7 +12693,7 @@
       <c r="H750" s="8"/>
       <c r="I750" s="8"/>
     </row>
-    <row r="751" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="751" spans="1:9" ht="23.25">
       <c r="A751" s="7">
         <f t="shared" si="16"/>
         <v>750</v>
@@ -12702,7 +12707,7 @@
       <c r="H751" s="8"/>
       <c r="I751" s="8"/>
     </row>
-    <row r="752" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="752" spans="1:9" ht="23.25">
       <c r="A752" s="7">
         <f t="shared" si="16"/>
         <v>751</v>
@@ -12716,7 +12721,7 @@
       <c r="H752" s="8"/>
       <c r="I752" s="8"/>
     </row>
-    <row r="753" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="753" spans="1:9" ht="23.25">
       <c r="A753" s="7">
         <f t="shared" si="16"/>
         <v>752</v>
@@ -12730,7 +12735,7 @@
       <c r="H753" s="8"/>
       <c r="I753" s="8"/>
     </row>
-    <row r="754" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="754" spans="1:9" ht="23.25">
       <c r="A754" s="7">
         <f t="shared" si="16"/>
         <v>753</v>
@@ -12744,7 +12749,7 @@
       <c r="H754" s="8"/>
       <c r="I754" s="8"/>
     </row>
-    <row r="755" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="755" spans="1:9" ht="23.25">
       <c r="A755" s="7">
         <f t="shared" si="16"/>
         <v>754</v>
@@ -12758,7 +12763,7 @@
       <c r="H755" s="8"/>
       <c r="I755" s="8"/>
     </row>
-    <row r="756" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="756" spans="1:9" ht="23.25">
       <c r="A756" s="7">
         <f t="shared" si="16"/>
         <v>755</v>
@@ -12772,7 +12777,7 @@
       <c r="H756" s="8"/>
       <c r="I756" s="8"/>
     </row>
-    <row r="757" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="757" spans="1:9" ht="23.25">
       <c r="A757" s="7">
         <f t="shared" si="16"/>
         <v>756</v>
@@ -12786,7 +12791,7 @@
       <c r="H757" s="8"/>
       <c r="I757" s="8"/>
     </row>
-    <row r="758" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="758" spans="1:9" ht="23.25">
       <c r="A758" s="7">
         <f t="shared" si="16"/>
         <v>757</v>
@@ -12800,7 +12805,7 @@
       <c r="H758" s="8"/>
       <c r="I758" s="8"/>
     </row>
-    <row r="759" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="759" spans="1:9" ht="23.25">
       <c r="A759" s="7">
         <f t="shared" si="16"/>
         <v>758</v>
@@ -12814,7 +12819,7 @@
       <c r="H759" s="8"/>
       <c r="I759" s="8"/>
     </row>
-    <row r="760" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="760" spans="1:9" ht="23.25">
       <c r="A760" s="7">
         <f t="shared" si="16"/>
         <v>759</v>
@@ -12828,7 +12833,7 @@
       <c r="H760" s="8"/>
       <c r="I760" s="8"/>
     </row>
-    <row r="761" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="761" spans="1:9" ht="23.25">
       <c r="A761" s="7">
         <f t="shared" si="16"/>
         <v>760</v>
@@ -12842,7 +12847,7 @@
       <c r="H761" s="8"/>
       <c r="I761" s="8"/>
     </row>
-    <row r="762" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="762" spans="1:9" ht="23.25">
       <c r="A762" s="7">
         <f t="shared" si="16"/>
         <v>761</v>
@@ -12856,7 +12861,7 @@
       <c r="H762" s="8"/>
       <c r="I762" s="8"/>
     </row>
-    <row r="763" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="763" spans="1:9" ht="23.25">
       <c r="A763" s="7">
         <f t="shared" si="16"/>
         <v>762</v>
@@ -12870,7 +12875,7 @@
       <c r="H763" s="8"/>
       <c r="I763" s="8"/>
     </row>
-    <row r="764" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="764" spans="1:9" ht="23.25">
       <c r="A764" s="7">
         <f t="shared" si="16"/>
         <v>763</v>
@@ -12884,7 +12889,7 @@
       <c r="H764" s="8"/>
       <c r="I764" s="8"/>
     </row>
-    <row r="765" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="765" spans="1:9" ht="23.25">
       <c r="A765" s="7">
         <f t="shared" si="16"/>
         <v>764</v>
@@ -12898,7 +12903,7 @@
       <c r="H765" s="8"/>
       <c r="I765" s="8"/>
     </row>
-    <row r="766" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="766" spans="1:9" ht="23.25">
       <c r="A766" s="7">
         <f t="shared" si="16"/>
         <v>765</v>
@@ -12912,7 +12917,7 @@
       <c r="H766" s="8"/>
       <c r="I766" s="8"/>
     </row>
-    <row r="767" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="767" spans="1:9" ht="23.25">
       <c r="A767" s="7">
         <f t="shared" si="16"/>
         <v>766</v>
@@ -12926,7 +12931,7 @@
       <c r="H767" s="8"/>
       <c r="I767" s="8"/>
     </row>
-    <row r="768" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="768" spans="1:9" ht="23.25">
       <c r="A768" s="7">
         <f t="shared" si="16"/>
         <v>767</v>
@@ -12940,7 +12945,7 @@
       <c r="H768" s="8"/>
       <c r="I768" s="8"/>
     </row>
-    <row r="769" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="769" spans="1:9" ht="23.25">
       <c r="A769" s="7">
         <f t="shared" si="16"/>
         <v>768</v>
@@ -12954,7 +12959,7 @@
       <c r="H769" s="8"/>
       <c r="I769" s="8"/>
     </row>
-    <row r="770" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="770" spans="1:9" ht="23.25">
       <c r="A770" s="7">
         <f t="shared" si="16"/>
         <v>769</v>
@@ -12968,7 +12973,7 @@
       <c r="H770" s="8"/>
       <c r="I770" s="8"/>
     </row>
-    <row r="771" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="771" spans="1:9" ht="23.25">
       <c r="A771" s="7">
         <f t="shared" si="16"/>
         <v>770</v>
@@ -12982,7 +12987,7 @@
       <c r="H771" s="8"/>
       <c r="I771" s="8"/>
     </row>
-    <row r="772" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="772" spans="1:9" ht="23.25">
       <c r="A772" s="7">
         <f t="shared" si="16"/>
         <v>771</v>
@@ -12996,7 +13001,7 @@
       <c r="H772" s="8"/>
       <c r="I772" s="8"/>
     </row>
-    <row r="773" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="773" spans="1:9" ht="23.25">
       <c r="A773" s="7">
         <f t="shared" si="16"/>
         <v>772</v>
@@ -13010,7 +13015,7 @@
       <c r="H773" s="8"/>
       <c r="I773" s="8"/>
     </row>
-    <row r="774" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="774" spans="1:9" ht="23.25">
       <c r="A774" s="7">
         <f t="shared" si="16"/>
         <v>773</v>
@@ -13024,7 +13029,7 @@
       <c r="H774" s="8"/>
       <c r="I774" s="8"/>
     </row>
-    <row r="775" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="775" spans="1:9" ht="23.25">
       <c r="A775" s="7">
         <f t="shared" si="16"/>
         <v>774</v>
@@ -13038,7 +13043,7 @@
       <c r="H775" s="8"/>
       <c r="I775" s="8"/>
     </row>
-    <row r="776" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="776" spans="1:9" ht="23.25">
       <c r="A776" s="7">
         <f t="shared" ref="A776:A824" si="17">ROW(775:775)</f>
         <v>775</v>
@@ -13052,7 +13057,7 @@
       <c r="H776" s="8"/>
       <c r="I776" s="8"/>
     </row>
-    <row r="777" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="777" spans="1:9" ht="23.25">
       <c r="A777" s="7">
         <f t="shared" si="17"/>
         <v>776</v>
@@ -13066,7 +13071,7 @@
       <c r="H777" s="8"/>
       <c r="I777" s="8"/>
     </row>
-    <row r="778" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="778" spans="1:9" ht="23.25">
       <c r="A778" s="7">
         <f t="shared" si="17"/>
         <v>777</v>
@@ -13080,7 +13085,7 @@
       <c r="H778" s="8"/>
       <c r="I778" s="8"/>
     </row>
-    <row r="779" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="779" spans="1:9" ht="23.25">
       <c r="A779" s="7">
         <f t="shared" si="17"/>
         <v>778</v>
@@ -13094,7 +13099,7 @@
       <c r="H779" s="8"/>
       <c r="I779" s="8"/>
     </row>
-    <row r="780" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="780" spans="1:9" ht="23.25">
       <c r="A780" s="7">
         <f t="shared" si="17"/>
         <v>779</v>
@@ -13108,7 +13113,7 @@
       <c r="H780" s="8"/>
       <c r="I780" s="8"/>
     </row>
-    <row r="781" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="781" spans="1:9" ht="23.25">
       <c r="A781" s="7">
         <f t="shared" si="17"/>
         <v>780</v>
@@ -13122,7 +13127,7 @@
       <c r="H781" s="8"/>
       <c r="I781" s="8"/>
     </row>
-    <row r="782" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="782" spans="1:9" ht="23.25">
       <c r="A782" s="7">
         <f t="shared" si="17"/>
         <v>781</v>
@@ -13136,7 +13141,7 @@
       <c r="H782" s="8"/>
       <c r="I782" s="8"/>
     </row>
-    <row r="783" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="783" spans="1:9" ht="23.25">
       <c r="A783" s="7">
         <f t="shared" si="17"/>
         <v>782</v>
@@ -13150,7 +13155,7 @@
       <c r="H783" s="8"/>
       <c r="I783" s="8"/>
     </row>
-    <row r="784" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="784" spans="1:9" ht="23.25">
       <c r="A784" s="7">
         <f t="shared" si="17"/>
         <v>783</v>
@@ -13164,7 +13169,7 @@
       <c r="H784" s="8"/>
       <c r="I784" s="8"/>
     </row>
-    <row r="785" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="785" spans="1:9" ht="23.25">
       <c r="A785" s="7">
         <f t="shared" si="17"/>
         <v>784</v>
@@ -13178,7 +13183,7 @@
       <c r="H785" s="8"/>
       <c r="I785" s="8"/>
     </row>
-    <row r="786" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="786" spans="1:9" ht="23.25">
       <c r="A786" s="7">
         <f t="shared" si="17"/>
         <v>785</v>
@@ -13192,7 +13197,7 @@
       <c r="H786" s="8"/>
       <c r="I786" s="8"/>
     </row>
-    <row r="787" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="787" spans="1:9" ht="23.25">
       <c r="A787" s="7">
         <f t="shared" si="17"/>
         <v>786</v>
@@ -13206,7 +13211,7 @@
       <c r="H787" s="8"/>
       <c r="I787" s="8"/>
     </row>
-    <row r="788" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="788" spans="1:9" ht="23.25">
       <c r="A788" s="7">
         <f t="shared" si="17"/>
         <v>787</v>
@@ -13220,7 +13225,7 @@
       <c r="H788" s="8"/>
       <c r="I788" s="8"/>
     </row>
-    <row r="789" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="789" spans="1:9" ht="23.25">
       <c r="A789" s="7">
         <f t="shared" si="17"/>
         <v>788</v>
@@ -13234,7 +13239,7 @@
       <c r="H789" s="8"/>
       <c r="I789" s="8"/>
     </row>
-    <row r="790" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="790" spans="1:9" ht="23.25">
       <c r="A790" s="7">
         <f t="shared" si="17"/>
         <v>789</v>
@@ -13248,7 +13253,7 @@
       <c r="H790" s="8"/>
       <c r="I790" s="8"/>
     </row>
-    <row r="791" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="791" spans="1:9" ht="23.25">
       <c r="A791" s="7">
         <f t="shared" si="17"/>
         <v>790</v>
@@ -13262,7 +13267,7 @@
       <c r="H791" s="8"/>
       <c r="I791" s="8"/>
     </row>
-    <row r="792" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="792" spans="1:9" ht="23.25">
       <c r="A792" s="7">
         <f t="shared" si="17"/>
         <v>791</v>
@@ -13276,7 +13281,7 @@
       <c r="H792" s="8"/>
       <c r="I792" s="8"/>
     </row>
-    <row r="793" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="793" spans="1:9" ht="23.25">
       <c r="A793" s="7">
         <f t="shared" si="17"/>
         <v>792</v>
@@ -13290,7 +13295,7 @@
       <c r="H793" s="8"/>
       <c r="I793" s="8"/>
     </row>
-    <row r="794" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="794" spans="1:9" ht="23.25">
       <c r="A794" s="7">
         <f t="shared" si="17"/>
         <v>793</v>
@@ -13304,7 +13309,7 @@
       <c r="H794" s="8"/>
       <c r="I794" s="8"/>
     </row>
-    <row r="795" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="795" spans="1:9" ht="23.25">
       <c r="A795" s="7">
         <f t="shared" si="17"/>
         <v>794</v>
@@ -13318,7 +13323,7 @@
       <c r="H795" s="8"/>
       <c r="I795" s="8"/>
     </row>
-    <row r="796" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="796" spans="1:9" ht="23.25">
       <c r="A796" s="7">
         <f t="shared" si="17"/>
         <v>795</v>
@@ -13332,7 +13337,7 @@
       <c r="H796" s="8"/>
       <c r="I796" s="8"/>
     </row>
-    <row r="797" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="797" spans="1:9" ht="23.25">
       <c r="A797" s="7">
         <f t="shared" si="17"/>
         <v>796</v>
@@ -13346,7 +13351,7 @@
       <c r="H797" s="8"/>
       <c r="I797" s="8"/>
     </row>
-    <row r="798" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="798" spans="1:9" ht="23.25">
       <c r="A798" s="7">
         <f t="shared" si="17"/>
         <v>797</v>
@@ -13360,7 +13365,7 @@
       <c r="H798" s="8"/>
       <c r="I798" s="8"/>
     </row>
-    <row r="799" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="799" spans="1:9" ht="23.25">
       <c r="A799" s="7">
         <f t="shared" si="17"/>
         <v>798</v>
@@ -13374,7 +13379,7 @@
       <c r="H799" s="8"/>
       <c r="I799" s="8"/>
     </row>
-    <row r="800" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="800" spans="1:9" ht="23.25">
       <c r="A800" s="7">
         <f t="shared" si="17"/>
         <v>799</v>
@@ -13388,7 +13393,7 @@
       <c r="H800" s="8"/>
       <c r="I800" s="8"/>
     </row>
-    <row r="801" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="801" spans="1:9" ht="23.25">
       <c r="A801" s="7">
         <f t="shared" si="17"/>
         <v>800</v>
@@ -13402,7 +13407,7 @@
       <c r="H801" s="8"/>
       <c r="I801" s="8"/>
     </row>
-    <row r="802" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="802" spans="1:9" ht="23.25">
       <c r="A802" s="7">
         <f t="shared" si="17"/>
         <v>801</v>
@@ -13416,7 +13421,7 @@
       <c r="H802" s="8"/>
       <c r="I802" s="8"/>
     </row>
-    <row r="803" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="803" spans="1:9" ht="23.25">
       <c r="A803" s="7">
         <f t="shared" si="17"/>
         <v>802</v>
@@ -13430,7 +13435,7 @@
       <c r="H803" s="8"/>
       <c r="I803" s="8"/>
     </row>
-    <row r="804" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="804" spans="1:9" ht="23.25">
       <c r="A804" s="7">
         <f t="shared" si="17"/>
         <v>803</v>
@@ -13444,7 +13449,7 @@
       <c r="H804" s="8"/>
       <c r="I804" s="8"/>
     </row>
-    <row r="805" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="805" spans="1:9" ht="23.25">
       <c r="A805" s="7">
         <f t="shared" si="17"/>
         <v>804</v>
@@ -13458,7 +13463,7 @@
       <c r="H805" s="8"/>
       <c r="I805" s="8"/>
     </row>
-    <row r="806" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="806" spans="1:9" ht="23.25">
       <c r="A806" s="7">
         <f t="shared" si="17"/>
         <v>805</v>
@@ -13472,7 +13477,7 @@
       <c r="H806" s="8"/>
       <c r="I806" s="8"/>
     </row>
-    <row r="807" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="807" spans="1:9" ht="23.25">
       <c r="A807" s="7">
         <f t="shared" si="17"/>
         <v>806</v>
@@ -13486,7 +13491,7 @@
       <c r="H807" s="8"/>
       <c r="I807" s="8"/>
     </row>
-    <row r="808" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="808" spans="1:9" ht="23.25">
       <c r="A808" s="7">
         <f t="shared" si="17"/>
         <v>807</v>
@@ -13500,7 +13505,7 @@
       <c r="H808" s="8"/>
       <c r="I808" s="8"/>
     </row>
-    <row r="809" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="809" spans="1:9" ht="23.25">
       <c r="A809" s="7">
         <f t="shared" si="17"/>
         <v>808</v>
@@ -13514,7 +13519,7 @@
       <c r="H809" s="8"/>
       <c r="I809" s="8"/>
     </row>
-    <row r="810" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="810" spans="1:9" ht="23.25">
       <c r="A810" s="7">
         <f t="shared" si="17"/>
         <v>809</v>
@@ -13528,7 +13533,7 @@
       <c r="H810" s="8"/>
       <c r="I810" s="8"/>
     </row>
-    <row r="811" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="811" spans="1:9" ht="23.25">
       <c r="A811" s="7">
         <f t="shared" si="17"/>
         <v>810</v>
@@ -13542,7 +13547,7 @@
       <c r="H811" s="8"/>
       <c r="I811" s="8"/>
     </row>
-    <row r="812" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="812" spans="1:9" ht="23.25">
       <c r="A812" s="7">
         <f t="shared" si="17"/>
         <v>811</v>
@@ -13556,7 +13561,7 @@
       <c r="H812" s="8"/>
       <c r="I812" s="8"/>
     </row>
-    <row r="813" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="813" spans="1:9" ht="23.25">
       <c r="A813" s="7">
         <f t="shared" si="17"/>
         <v>812</v>
@@ -13570,7 +13575,7 @@
       <c r="H813" s="8"/>
       <c r="I813" s="8"/>
     </row>
-    <row r="814" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="814" spans="1:9" ht="23.25">
       <c r="A814" s="7">
         <f t="shared" si="17"/>
         <v>813</v>
@@ -13584,7 +13589,7 @@
       <c r="H814" s="8"/>
       <c r="I814" s="8"/>
     </row>
-    <row r="815" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="815" spans="1:9" ht="23.25">
       <c r="A815" s="7">
         <f t="shared" si="17"/>
         <v>814</v>
@@ -13598,7 +13603,7 @@
       <c r="H815" s="8"/>
       <c r="I815" s="8"/>
     </row>
-    <row r="816" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="816" spans="1:9" ht="23.25">
       <c r="A816" s="7">
         <f t="shared" si="17"/>
         <v>815</v>
@@ -13612,7 +13617,7 @@
       <c r="H816" s="8"/>
       <c r="I816" s="8"/>
     </row>
-    <row r="817" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="817" spans="1:9" ht="23.25">
       <c r="A817" s="7">
         <f t="shared" si="17"/>
         <v>816</v>
@@ -13626,7 +13631,7 @@
       <c r="H817" s="8"/>
       <c r="I817" s="8"/>
     </row>
-    <row r="818" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="818" spans="1:9" ht="23.25">
       <c r="A818" s="7">
         <f t="shared" si="17"/>
         <v>817</v>
@@ -13640,7 +13645,7 @@
       <c r="H818" s="8"/>
       <c r="I818" s="8"/>
     </row>
-    <row r="819" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="819" spans="1:9" ht="23.25">
       <c r="A819" s="7">
         <f t="shared" si="17"/>
         <v>818</v>
@@ -13654,7 +13659,7 @@
       <c r="H819" s="8"/>
       <c r="I819" s="8"/>
     </row>
-    <row r="820" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="820" spans="1:9" ht="23.25">
       <c r="A820" s="7">
         <f t="shared" si="17"/>
         <v>819</v>
@@ -13668,7 +13673,7 @@
       <c r="H820" s="8"/>
       <c r="I820" s="8"/>
     </row>
-    <row r="821" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="821" spans="1:9" ht="23.25">
       <c r="A821" s="7">
         <f t="shared" si="17"/>
         <v>820</v>
@@ -13682,7 +13687,7 @@
       <c r="H821" s="8"/>
       <c r="I821" s="8"/>
     </row>
-    <row r="822" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="822" spans="1:9" ht="23.25">
       <c r="A822" s="7">
         <f t="shared" si="17"/>
         <v>821</v>
@@ -13696,7 +13701,7 @@
       <c r="H822" s="8"/>
       <c r="I822" s="8"/>
     </row>
-    <row r="823" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="823" spans="1:9" ht="23.25">
       <c r="A823" s="7">
         <f t="shared" si="17"/>
         <v>822</v>
@@ -13710,7 +13715,7 @@
       <c r="H823" s="8"/>
       <c r="I823" s="8"/>
     </row>
-    <row r="824" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="824" spans="1:9" ht="23.25">
       <c r="A824" s="7">
         <f t="shared" si="17"/>
         <v>823</v>
@@ -13731,14 +13736,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
+    <sheetView topLeftCell="A60" workbookViewId="0">
       <selection activeCell="A60" sqref="A60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.140625" defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="21.140625" defaultRowHeight="23.25"/>
   <cols>
     <col min="1" max="1" width="26.28515625" style="9" customWidth="1"/>
     <col min="2" max="2" width="28.42578125" style="9" customWidth="1"/>
@@ -13748,7 +13753,7 @@
     <col min="6" max="16384" width="21.140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="13" customFormat="1" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" s="13" customFormat="1" ht="46.5">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -13777,7 +13782,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="69.75" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="69.75">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -13806,7 +13811,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="12" customFormat="1" ht="139.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" s="12" customFormat="1" ht="139.5">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -13835,7 +13840,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="12" customFormat="1" ht="116.25" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" s="12" customFormat="1" ht="116.25">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -13864,7 +13869,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="12" customFormat="1" ht="186" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" s="12" customFormat="1" ht="186">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -13893,7 +13898,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="12" customFormat="1" ht="139.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" s="12" customFormat="1" ht="139.5">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -13922,7 +13927,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="12" customFormat="1" ht="139.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" s="12" customFormat="1" ht="139.5">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -13951,7 +13956,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="12" customFormat="1" ht="139.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" s="12" customFormat="1" ht="139.5">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -13980,7 +13985,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="12" customFormat="1" ht="139.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" s="12" customFormat="1" ht="139.5">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -14009,7 +14014,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="12" customFormat="1" ht="116.25" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" s="12" customFormat="1" ht="116.25">
       <c r="A10" s="6">
         <v>9</v>
       </c>
@@ -14038,7 +14043,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="12" customFormat="1" ht="116.25" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" s="12" customFormat="1" ht="116.25">
       <c r="A11" s="6">
         <v>10</v>
       </c>
@@ -14067,7 +14072,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:9" s="12" customFormat="1" ht="116.25" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" s="12" customFormat="1" ht="116.25">
       <c r="A12" s="6">
         <v>11</v>
       </c>
@@ -14096,7 +14101,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:9" s="12" customFormat="1" ht="162.75" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" s="12" customFormat="1" ht="162.75">
       <c r="A13" s="6">
         <v>12</v>
       </c>
@@ -14125,7 +14130,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:9" s="12" customFormat="1" ht="116.25" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" s="12" customFormat="1" ht="116.25">
       <c r="A14" s="6">
         <v>13</v>
       </c>
@@ -14154,7 +14159,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:9" s="12" customFormat="1" ht="116.25" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" s="12" customFormat="1" ht="116.25">
       <c r="A15" s="6">
         <v>14</v>
       </c>
@@ -14183,7 +14188,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:9" s="12" customFormat="1" ht="116.25" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" s="12" customFormat="1" ht="116.25">
       <c r="A16" s="6">
         <v>15</v>
       </c>
@@ -14212,7 +14217,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:9" s="12" customFormat="1" ht="116.25" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" s="12" customFormat="1" ht="116.25">
       <c r="A17" s="6">
         <v>16</v>
       </c>
@@ -14241,7 +14246,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:9" s="12" customFormat="1" ht="116.25" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" s="12" customFormat="1" ht="116.25">
       <c r="A18" s="6">
         <v>17</v>
       </c>
@@ -14270,7 +14275,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:9" s="12" customFormat="1" ht="116.25" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" s="12" customFormat="1" ht="116.25">
       <c r="A19" s="6">
         <v>18</v>
       </c>
@@ -14299,7 +14304,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:9" s="12" customFormat="1" ht="116.25" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" s="12" customFormat="1" ht="116.25">
       <c r="A20" s="6">
         <v>19</v>
       </c>
@@ -14328,7 +14333,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:9" s="12" customFormat="1" ht="116.25" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" s="12" customFormat="1" ht="116.25">
       <c r="A21" s="6">
         <v>20</v>
       </c>
@@ -14357,7 +14362,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="116.25" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" ht="116.25">
       <c r="A22" s="5">
         <f t="shared" ref="A22:A32" si="0">ROW(21:21)</f>
         <v>21</v>
@@ -14387,7 +14392,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:9" s="12" customFormat="1" ht="139.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" s="12" customFormat="1" ht="139.5">
       <c r="A23" s="6">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -14417,7 +14422,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="93" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" ht="93">
       <c r="A24" s="5">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -14445,7 +14450,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="162.75" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" ht="162.75">
       <c r="A25" s="5">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -14475,7 +14480,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="139.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" ht="139.5">
       <c r="A26" s="5">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -14505,7 +14510,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="116.25" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" ht="116.25">
       <c r="A27" s="5">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -14535,7 +14540,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="162.75" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" ht="162.75">
       <c r="A28" s="5">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -14565,7 +14570,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="186" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" ht="186">
       <c r="A29" s="5">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -14595,7 +14600,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:9" s="12" customFormat="1" ht="186" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" s="12" customFormat="1" ht="186">
       <c r="A30" s="6">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -14625,7 +14630,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:9" s="12" customFormat="1" ht="209.25" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" s="12" customFormat="1" ht="209.25">
       <c r="A31" s="6">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -14655,7 +14660,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="232.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" ht="232.5">
       <c r="A32" s="5">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -14685,7 +14690,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="69.75" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" ht="69.75">
       <c r="A33" s="5">
         <v>32</v>
       </c>
@@ -14702,7 +14707,7 @@
       <c r="H33" s="5"/>
       <c r="I33" s="5"/>
     </row>
-    <row r="34" spans="1:9" s="14" customFormat="1" ht="255.75" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" s="14" customFormat="1" ht="255.75">
       <c r="A34" s="10">
         <v>33</v>
       </c>
@@ -14731,7 +14736,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:9" s="12" customFormat="1" ht="255.75" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" s="12" customFormat="1" ht="255.75">
       <c r="A35" s="6">
         <v>34</v>
       </c>
@@ -14760,7 +14765,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="69.75" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" ht="69.75">
       <c r="A36" s="9">
         <v>35</v>
       </c>
@@ -14771,7 +14776,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" ht="46.5">
       <c r="A37" s="9">
         <v>36</v>
       </c>
@@ -14782,7 +14787,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="69.75" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" ht="69.75">
       <c r="A38" s="9">
         <v>37</v>
       </c>
@@ -14793,7 +14798,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" ht="46.5">
       <c r="A39" s="9">
         <v>38</v>
       </c>
@@ -14804,7 +14809,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="69.75" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" ht="69.75">
       <c r="A40" s="9">
         <v>39</v>
       </c>
@@ -14815,7 +14820,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="69.75" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9" ht="69.75">
       <c r="A41" s="9">
         <v>40</v>
       </c>
@@ -14826,7 +14831,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="42" spans="1:9" s="12" customFormat="1" ht="209.25" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9" s="12" customFormat="1" ht="209.25">
       <c r="A42" s="12">
         <v>41</v>
       </c>
@@ -14855,7 +14860,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:9" ht="46.5">
       <c r="A43" s="9">
         <v>42</v>
       </c>
@@ -14866,7 +14871,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:9" ht="46.5">
       <c r="A44" s="9">
         <v>43</v>
       </c>
@@ -14877,7 +14882,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="69.75" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:9" ht="69.75">
       <c r="A45" s="9">
         <v>44</v>
       </c>
@@ -14888,7 +14893,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="69.75" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:9" ht="69.75">
       <c r="A46" s="9">
         <v>45</v>
       </c>
@@ -14899,7 +14904,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="69.75" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:9" ht="69.75">
       <c r="A47" s="9">
         <v>46</v>
       </c>
@@ -14910,7 +14915,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:9" ht="46.5">
       <c r="A48" s="9">
         <v>47</v>
       </c>
@@ -14921,7 +14926,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="255.75" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:9" ht="255.75">
       <c r="A49" s="9">
         <v>48</v>
       </c>
@@ -14950,7 +14955,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:9" ht="46.5">
       <c r="A50" s="9">
         <v>49</v>
       </c>
@@ -14961,7 +14966,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:9" ht="46.5">
       <c r="A51" s="9">
         <v>50</v>
       </c>
@@ -14972,7 +14977,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:9" ht="46.5">
       <c r="A52" s="9">
         <v>51</v>
       </c>
@@ -14983,7 +14988,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:9" ht="46.5">
       <c r="A53" s="9">
         <v>52</v>
       </c>
@@ -14994,7 +14999,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="69.75" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:9" ht="69.75">
       <c r="A54" s="9">
         <v>53</v>
       </c>
@@ -15005,7 +15010,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:9" ht="46.5">
       <c r="A55" s="9">
         <v>54</v>
       </c>
@@ -15016,7 +15021,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="56" spans="1:9" s="1" customFormat="1" ht="232.5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:9" s="1" customFormat="1" ht="232.5">
       <c r="A56" s="5">
         <f t="shared" ref="A56:A58" si="1">ROW(55:55)</f>
         <v>55</v>
@@ -15046,7 +15051,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="57" spans="1:9" s="1" customFormat="1" ht="232.5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:9" s="1" customFormat="1" ht="232.5">
       <c r="A57" s="5">
         <f t="shared" si="1"/>
         <v>56</v>
@@ -15076,7 +15081,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="58" spans="1:9" s="2" customFormat="1" ht="255.75" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:9" s="2" customFormat="1" ht="255.75">
       <c r="A58" s="6">
         <f t="shared" si="1"/>
         <v>57</v>
@@ -15106,7 +15111,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="59" spans="1:9" s="11" customFormat="1" ht="325.5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:9" s="11" customFormat="1" ht="325.5">
       <c r="A59" s="10">
         <v>58</v>
       </c>
@@ -15135,7 +15140,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="60" spans="1:9" s="1" customFormat="1" ht="139.5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:9" s="1" customFormat="1" ht="139.5">
       <c r="A60" s="5">
         <v>59</v>
       </c>
@@ -15171,14 +15176,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView topLeftCell="A20" workbookViewId="0">
       <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="19.42578125" customWidth="1"/>
     <col min="2" max="2" width="35.7109375" customWidth="1"/>
@@ -15191,7 +15196,7 @@
     <col min="9" max="9" width="27.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="23.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -15220,7 +15225,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="93" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="93">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -15249,7 +15254,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="93" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="93">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -15278,7 +15283,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="93" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="93">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -15307,7 +15312,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="93" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="93">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -15336,7 +15341,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="93" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="93">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -15365,7 +15370,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="93" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="93">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -15394,7 +15399,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="93" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="93">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -15423,7 +15428,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="93" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="93">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -15452,7 +15457,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="93" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="93">
       <c r="A10" s="6">
         <v>9</v>
       </c>
@@ -15481,7 +15486,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="93" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="93">
       <c r="A11" s="6">
         <v>10</v>
       </c>
@@ -15510,7 +15515,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="93" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" ht="93">
       <c r="A12" s="6">
         <v>11</v>
       </c>
@@ -15539,7 +15544,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="93" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" ht="93">
       <c r="A13" s="6">
         <v>12</v>
       </c>
@@ -15568,7 +15573,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="93" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" ht="93">
       <c r="A14" s="6">
         <v>13</v>
       </c>
@@ -15597,7 +15602,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="93" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" ht="93">
       <c r="A15" s="6">
         <v>14</v>
       </c>
@@ -15626,7 +15631,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="93" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" ht="93">
       <c r="A16" s="6">
         <v>15</v>
       </c>
@@ -15655,7 +15660,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="93" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" ht="93">
       <c r="A17" s="6">
         <v>16</v>
       </c>
@@ -15684,7 +15689,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="93" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" ht="93">
       <c r="A18" s="6">
         <v>17</v>
       </c>
@@ -15713,7 +15718,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="93" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" ht="93">
       <c r="A19" s="6">
         <v>18</v>
       </c>
@@ -15742,7 +15747,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="93" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" ht="93">
       <c r="A20" s="6">
         <v>19</v>
       </c>
@@ -15771,7 +15776,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="93" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" ht="93">
       <c r="A21" s="6">
         <v>20</v>
       </c>
@@ -15806,14 +15811,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I58"/>
   <sheetViews>
     <sheetView topLeftCell="B58" workbookViewId="0">
       <selection activeCell="C68" sqref="C68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="21.140625" defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="26.28515625" style="1" customWidth="1"/>
     <col min="2" max="2" width="28.42578125" style="1" customWidth="1"/>
@@ -15823,7 +15828,7 @@
     <col min="6" max="16384" width="21.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="3" customFormat="1" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" s="3" customFormat="1" ht="46.5">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -15852,7 +15857,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="93" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="93">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -15881,7 +15886,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="2" customFormat="1" ht="209.25" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" s="2" customFormat="1" ht="209.25">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -15910,7 +15915,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="2" customFormat="1" ht="116.25" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" s="2" customFormat="1" ht="116.25">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -15939,7 +15944,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="2" customFormat="1" ht="186" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" s="2" customFormat="1" ht="186">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -15968,7 +15973,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="2" customFormat="1" ht="139.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" s="2" customFormat="1" ht="139.5">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -15997,7 +16002,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="2" customFormat="1" ht="139.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" s="2" customFormat="1" ht="139.5">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -16026,7 +16031,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="2" customFormat="1" ht="139.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" s="2" customFormat="1" ht="139.5">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -16055,7 +16060,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="2" customFormat="1" ht="139.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" s="2" customFormat="1" ht="139.5">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -16084,7 +16089,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="2" customFormat="1" ht="116.25" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" s="2" customFormat="1" ht="116.25">
       <c r="A10" s="6">
         <v>9</v>
       </c>
@@ -16113,7 +16118,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="2" customFormat="1" ht="116.25" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" s="2" customFormat="1" ht="116.25">
       <c r="A11" s="6">
         <v>10</v>
       </c>
@@ -16142,7 +16147,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:9" s="2" customFormat="1" ht="116.25" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" s="2" customFormat="1" ht="116.25">
       <c r="A12" s="6">
         <v>11</v>
       </c>
@@ -16171,7 +16176,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:9" s="2" customFormat="1" ht="162.75" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" s="2" customFormat="1" ht="162.75">
       <c r="A13" s="6">
         <v>12</v>
       </c>
@@ -16200,7 +16205,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:9" s="2" customFormat="1" ht="116.25" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" s="2" customFormat="1" ht="116.25">
       <c r="A14" s="6">
         <v>13</v>
       </c>
@@ -16229,7 +16234,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:9" s="2" customFormat="1" ht="116.25" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" s="2" customFormat="1" ht="116.25">
       <c r="A15" s="6">
         <v>14</v>
       </c>
@@ -16258,7 +16263,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:9" s="2" customFormat="1" ht="116.25" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" s="2" customFormat="1" ht="116.25">
       <c r="A16" s="6">
         <v>15</v>
       </c>
@@ -16287,7 +16292,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:9" s="2" customFormat="1" ht="116.25" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" s="2" customFormat="1" ht="116.25">
       <c r="A17" s="6">
         <v>16</v>
       </c>
@@ -16316,7 +16321,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:9" s="2" customFormat="1" ht="116.25" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" s="2" customFormat="1" ht="116.25">
       <c r="A18" s="6">
         <v>17</v>
       </c>
@@ -16345,7 +16350,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:9" s="2" customFormat="1" ht="116.25" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" s="2" customFormat="1" ht="116.25">
       <c r="A19" s="6">
         <v>18</v>
       </c>
@@ -16374,7 +16379,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:9" s="2" customFormat="1" ht="116.25" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" s="2" customFormat="1" ht="116.25">
       <c r="A20" s="6">
         <v>19</v>
       </c>
@@ -16403,7 +16408,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:9" s="2" customFormat="1" ht="116.25" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" s="2" customFormat="1" ht="116.25">
       <c r="A21" s="6">
         <v>20</v>
       </c>
@@ -16432,7 +16437,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="116.25" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" ht="116.25">
       <c r="A22" s="5">
         <f t="shared" ref="A22:A34" si="0">ROW(21:21)</f>
         <v>21</v>
@@ -16462,7 +16467,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:9" s="2" customFormat="1" ht="139.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" s="2" customFormat="1" ht="139.5">
       <c r="A23" s="6">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -16492,7 +16497,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="93" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" ht="93">
       <c r="A24" s="5">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -16519,7 +16524,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="162.75" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" ht="162.75">
       <c r="A25" s="5">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -16549,7 +16554,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="139.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" ht="139.5">
       <c r="A26" s="5">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -16579,7 +16584,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="116.25" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" ht="116.25">
       <c r="A27" s="5">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -16609,7 +16614,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:9" s="2" customFormat="1" ht="162.75" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" s="2" customFormat="1" ht="162.75">
       <c r="A28" s="6">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -16639,7 +16644,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="186" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" ht="186">
       <c r="A29" s="5">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -16669,7 +16674,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="186" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" ht="186">
       <c r="A30" s="5">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -16699,7 +16704,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="209.25" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" ht="209.25">
       <c r="A31" s="5">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -16729,7 +16734,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="232.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" ht="232.5">
       <c r="A32" s="5">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -16759,7 +16764,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:9" s="2" customFormat="1" ht="232.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" s="2" customFormat="1" ht="232.5">
       <c r="A33" s="6">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -16789,7 +16794,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="186" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" ht="186">
       <c r="A34" s="5">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -16819,7 +16824,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" ht="46.5">
       <c r="A35" s="5">
         <v>34</v>
       </c>
@@ -16836,7 +16841,7 @@
       <c r="H35" s="9"/>
       <c r="I35" s="9"/>
     </row>
-    <row r="36" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" ht="23.25">
       <c r="A36" s="5">
         <f t="shared" ref="A36:A43" si="1">ROW(35:35)</f>
         <v>35</v>
@@ -16854,7 +16859,7 @@
       <c r="H36" s="9"/>
       <c r="I36" s="9"/>
     </row>
-    <row r="37" spans="1:9" ht="232.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" ht="232.5">
       <c r="A37" s="5">
         <f t="shared" si="1"/>
         <v>36</v>
@@ -16884,7 +16889,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="232.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" ht="232.5">
       <c r="A38" s="5">
         <f t="shared" si="1"/>
         <v>37</v>
@@ -16914,7 +16919,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="255.75" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" ht="255.75">
       <c r="A39" s="5">
         <f t="shared" si="1"/>
         <v>38</v>
@@ -16944,7 +16949,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:9" s="2" customFormat="1" ht="255.75" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" s="2" customFormat="1" ht="255.75">
       <c r="A40" s="6">
         <f t="shared" si="1"/>
         <v>39</v>
@@ -16974,7 +16979,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="1:9" s="2" customFormat="1" ht="255.75" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9" s="2" customFormat="1" ht="255.75">
       <c r="A41" s="6">
         <f t="shared" si="1"/>
         <v>40</v>
@@ -17004,7 +17009,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="42" spans="1:9" s="2" customFormat="1" ht="255.75" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9" s="2" customFormat="1" ht="255.75">
       <c r="A42" s="6">
         <f t="shared" si="1"/>
         <v>41</v>
@@ -17034,7 +17039,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:9" s="2" customFormat="1" ht="255.75" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:9" s="2" customFormat="1" ht="255.75">
       <c r="A43" s="6">
         <f t="shared" si="1"/>
         <v>42</v>
@@ -17064,7 +17069,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="1:9" s="2" customFormat="1" ht="255.75" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:9" s="2" customFormat="1" ht="255.75">
       <c r="A44" s="6">
         <v>43</v>
       </c>
@@ -17093,7 +17098,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="45" spans="1:9" s="2" customFormat="1" ht="255.75" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:9" s="2" customFormat="1" ht="255.75">
       <c r="A45" s="6">
         <v>44</v>
       </c>
@@ -17122,7 +17127,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="46" spans="1:9" s="2" customFormat="1" ht="255.75" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:9" s="2" customFormat="1" ht="255.75">
       <c r="A46" s="6">
         <v>45</v>
       </c>
@@ -17151,7 +17156,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="47" spans="1:9" s="2" customFormat="1" ht="255.75" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:9" s="2" customFormat="1" ht="255.75">
       <c r="A47" s="6">
         <v>46</v>
       </c>
@@ -17180,7 +17185,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="48" spans="1:9" s="2" customFormat="1" ht="255.75" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:9" s="2" customFormat="1" ht="255.75">
       <c r="A48" s="6">
         <v>47</v>
       </c>
@@ -17209,7 +17214,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="49" spans="1:9" s="2" customFormat="1" ht="255.75" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:9" s="2" customFormat="1" ht="255.75">
       <c r="A49" s="6">
         <v>48</v>
       </c>
@@ -17238,7 +17243,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="50" spans="1:9" s="2" customFormat="1" ht="255.75" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:9" s="2" customFormat="1" ht="255.75">
       <c r="A50" s="6">
         <v>49</v>
       </c>
@@ -17267,7 +17272,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="51" spans="1:9" s="2" customFormat="1" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:9" s="2" customFormat="1" ht="409.5">
       <c r="A51" s="6">
         <v>50</v>
       </c>
@@ -17296,7 +17301,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="52" spans="1:9" s="2" customFormat="1" ht="255.75" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:9" s="2" customFormat="1" ht="255.75">
       <c r="A52" s="6">
         <v>51</v>
       </c>
@@ -17325,7 +17330,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="53" spans="1:9" s="2" customFormat="1" ht="255.75" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:9" s="2" customFormat="1" ht="255.75">
       <c r="A53" s="6">
         <v>52</v>
       </c>
@@ -17354,7 +17359,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="54" spans="1:9" s="2" customFormat="1" ht="279" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:9" s="2" customFormat="1" ht="279">
       <c r="A54" s="6">
         <f t="shared" ref="A54" si="2">ROW(53:53)</f>
         <v>53</v>
@@ -17382,7 +17387,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="55" spans="1:9" s="11" customFormat="1" ht="279" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:9" s="11" customFormat="1" ht="279">
       <c r="A55" s="10">
         <v>54</v>
       </c>
@@ -17411,7 +17416,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="56" spans="1:9" s="2" customFormat="1" ht="302.25" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:9" s="2" customFormat="1" ht="302.25">
       <c r="A56" s="6">
         <v>55</v>
       </c>
@@ -17440,7 +17445,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="57" spans="1:9" s="11" customFormat="1" ht="325.5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:9" s="11" customFormat="1" ht="325.5">
       <c r="A57" s="10">
         <v>57</v>
       </c>
@@ -17469,7 +17474,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="58" spans="1:9" s="11" customFormat="1" ht="139.5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:9" s="11" customFormat="1" ht="139.5">
       <c r="A58" s="10">
         <v>58</v>
       </c>
